--- a/target/classes/companies/tech/TexasInstruments/TXN_TexasInstruments.xlsx
+++ b/target/classes/companies/tech/TexasInstruments/TXN_TexasInstruments.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97CA515-A398-49B1-81F6-F5D35D305096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
   <si>
     <t>WACC</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>EPS Growth esitmation (%)</t>
+  </si>
+  <si>
+    <t>CE_Celanese</t>
+  </si>
+  <si>
+    <t>sector median (19.16)</t>
+  </si>
+  <si>
+    <t>sector median (14.4)</t>
   </si>
   <si>
     <t>Long Term Debt</t>
@@ -1244,7 +1253,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1354,7 +1363,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,7 +1372,7 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,11 +1387,11 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1404,18 +1413,18 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,7 +1433,7 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1746,34 +1755,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.17410897173289636</c:v>
+                  <c:v>0.16912442396313365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.212878497508624</c:v>
+                  <c:v>9.1737724198765067E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2296923076923077</c:v>
+                  <c:v>5.3577722946774764E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26888556469708302</c:v>
+                  <c:v>0.16700686583781776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24383396831762583</c:v>
+                  <c:v>0.13729641693811076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35079827673593511</c:v>
+                  <c:v>0.16869322152341021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34658972397969823</c:v>
+                  <c:v>0.13530252501191042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38503561302814465</c:v>
+                  <c:v>0.35101679929266139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4217182730047972</c:v>
+                  <c:v>0.22138924680801217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.43484122228879568</c:v>
+                  <c:v>0.1958027499224646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,34 +1920,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.33830397378123722</c:v>
+                  <c:v>0.28064516129032258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39685703334610961</c:v>
+                  <c:v>0.15524845633637166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41961538461538461</c:v>
+                  <c:v>0.1214310891787099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43455497382198954</c:v>
+                  <c:v>0.22805715346075339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46701423701624223</c:v>
+                  <c:v>0.19006514657980456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48574505828687276</c:v>
+                  <c:v>0.23522012578616353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47090314955155393</c:v>
+                  <c:v>0.18897887883118947</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47617730447410278</c:v>
+                  <c:v>0.18037135278514588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54044919319668561</c:v>
+                  <c:v>0.2722267775565187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.555172758138606</c:v>
+                  <c:v>0.19187428925876149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,34 +2085,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24522736583367472</c:v>
+                  <c:v>5.9139784946236562E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29214258336527404</c:v>
+                  <c:v>4.1752425757130257E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30430769230769233</c:v>
+                  <c:v>6.0274938315121609E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30538519072550485</c:v>
+                  <c:v>0.12005938021896456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31468484726956752</c:v>
+                  <c:v>8.7296416938110744E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38437658388241258</c:v>
+                  <c:v>0.17064989517819706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40547869012028087</c:v>
+                  <c:v>0.17214546609496587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3799184012170666</c:v>
+                  <c:v>0.17312113174182139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34719799389446143</c:v>
+                  <c:v>0.15110694623404006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29588575993608945</c:v>
+                  <c:v>0.13191357386539854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,34 +2643,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>25.979999542236328</c:v>
+                  <c:v>17.280000686645508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.549999237060547</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.719999313354492</c:v>
+                  <c:v>19.739999771118164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.239999771118164</c:v>
+                  <c:v>25.079999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.399999618530273</c:v>
+                  <c:v>18.399999618530273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.239999771118164</c:v>
+                  <c:v>9.2899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.799999237060547</c:v>
+                  <c:v>16.959999084472656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.030000686645508</c:v>
+                  <c:v>26.139999389648438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.190000534057617</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.319999694824219</c:v>
+                  <c:v>6.7399997711181641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,34 +2857,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.029999732971191</c:v>
+                  <c:v>13.220000267028809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.25</c:v>
+                  <c:v>9.8900003433227539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.039999961853027</c:v>
+                  <c:v>11.619999885559082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.680000305175781</c:v>
+                  <c:v>10.770000457763672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.989999771118164</c:v>
+                  <c:v>21.469999313354492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.539999961853027</c:v>
+                  <c:v>9.7899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.440000534057617</c:v>
+                  <c:v>10.529999732971191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.659999847412109</c:v>
+                  <c:v>11.140000343322754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.680000305175781</c:v>
+                  <c:v>13.199999809265137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.020000457763672</c:v>
+                  <c:v>6.0100002288818359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,34 +3312,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.9099999666213989</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5699999332427979</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8199999332427979</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4800000190734863</c:v>
+                  <c:v>6.179999828338623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6099998950958252</c:v>
+                  <c:v>6.0900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5900001525878906</c:v>
+                  <c:v>8.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2399997711181641</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9699997901916504</c:v>
+                  <c:v>16.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2600002288818359</c:v>
+                  <c:v>16.860000610351563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.4099998474121094</c:v>
+                  <c:v>17.340000152587891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,34 +3767,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12205</c:v>
+                  <c:v>6510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13045</c:v>
+                  <c:v>6802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13000</c:v>
+                  <c:v>5674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13370</c:v>
+                  <c:v>5389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14961</c:v>
+                  <c:v>6140</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15784</c:v>
+                  <c:v>7155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14383</c:v>
+                  <c:v>6297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14461</c:v>
+                  <c:v>5655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18344</c:v>
+                  <c:v>8537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20028</c:v>
+                  <c:v>9673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,34 +4201,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4158</c:v>
+                  <c:v>2887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3630</c:v>
+                  <c:v>2586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3120</c:v>
+                  <c:v>2468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2978</c:v>
+                  <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3577</c:v>
+                  <c:v>3315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4319</c:v>
+                  <c:v>2970</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5303</c:v>
+                  <c:v>3409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6248</c:v>
+                  <c:v>3227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7241</c:v>
+                  <c:v>3176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8235</c:v>
+                  <c:v>13373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,34 +4338,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4129</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5177</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5455</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5810</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6987</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7667</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6773</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6886</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9914</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11119</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4452,34 +4461,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0070234923710342</c:v>
+                  <c:v>1.5801860974274768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70117828858412212</c:v>
+                  <c:v>2.4488636363636362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57195233730522455</c:v>
+                  <c:v>3.5820029027576199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51256454388984507</c:v>
+                  <c:v>2.3515052888527257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51195076570774301</c:v>
+                  <c:v>2.8406169665809768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56332333376809707</c:v>
+                  <c:v>1.7647058823529411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78296175992913042</c:v>
+                  <c:v>2.8647058823529412</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90734824281150162</c:v>
+                  <c:v>3.1637254901960783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.73038127899939476</c:v>
+                  <c:v>1.3666092943201378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74062415684863747</c:v>
+                  <c:v>7.2052801724137927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,34 +4957,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2993</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3811</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3956</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4083</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4708</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6067</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5832</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5494</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6369</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5926</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,34 +5094,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1175</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1323</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1444</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1646</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2104</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2555</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3008</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3426</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3886</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4297</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5224,34 +5233,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.39258269295021719</c:v>
+                  <c:v>0.21558441558441557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34715297822093938</c:v>
+                  <c:v>0.50704225352112675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36501516683518703</c:v>
+                  <c:v>0.50877192982456143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40313494979181974</c:v>
+                  <c:v>0.31066460587326122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44689889549702633</c:v>
+                  <c:v>0.44962686567164178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4211307071040053</c:v>
+                  <c:v>0.22932022932022933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51577503429355276</c:v>
+                  <c:v>0.2767527675276753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6235893702220604</c:v>
+                  <c:v>0.2992849846782431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61014287957293134</c:v>
+                  <c:v>0.23565891472868217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72510968612892335</c:v>
+                  <c:v>0.23275862068965517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5744,34 +5753,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10919</c:v>
+                  <c:v>5836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9951</c:v>
+                  <c:v>6098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9156</c:v>
+                  <c:v>5799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8974</c:v>
+                  <c:v>5885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8908</c:v>
+                  <c:v>6746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9040</c:v>
+                  <c:v>6439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9257</c:v>
+                  <c:v>6711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9112</c:v>
+                  <c:v>7146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10991</c:v>
+                  <c:v>8168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13186</c:v>
+                  <c:v>19661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5881,34 +5890,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8019</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7421</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7074</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7457</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8734</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8097</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8761</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10239</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13685</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14021</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6310,34 +6319,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2747</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2658</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2555</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2264</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2258</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2474</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2123</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2390</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2569</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2985</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6447,34 +6456,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5384</c:v>
+                  <c:v>4774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4324</c:v>
+                  <c:v>4380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3729</c:v>
+                  <c:v>4207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3694</c:v>
+                  <c:v>4259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5047</c:v>
+                  <c:v>4680</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5669</c:v>
+                  <c:v>4155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6988</c:v>
+                  <c:v>4824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7774</c:v>
+                  <c:v>5041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8774</c:v>
+                  <c:v>4933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9645</c:v>
+                  <c:v>16099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6876,34 +6885,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10807</c:v>
+                  <c:v>2699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10390</c:v>
+                  <c:v>3078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9946</c:v>
+                  <c:v>2829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10473</c:v>
+                  <c:v>3021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10337</c:v>
+                  <c:v>3299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8994</c:v>
+                  <c:v>3379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8907</c:v>
+                  <c:v>2898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9187</c:v>
+                  <c:v>3895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13333</c:v>
+                  <c:v>4537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14577</c:v>
+                  <c:v>6105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6993,34 +7002,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8131</c:v>
+                  <c:v>6319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6982</c:v>
+                  <c:v>5718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6284</c:v>
+                  <c:v>5757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5958</c:v>
+                  <c:v>5336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7305</c:v>
+                  <c:v>6239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8143</c:v>
+                  <c:v>5934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9111</c:v>
+                  <c:v>6578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10164</c:v>
+                  <c:v>7014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11343</c:v>
+                  <c:v>7438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12630</c:v>
+                  <c:v>20167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7132,34 +7141,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.7523827149070047</c:v>
+                  <c:v>2.341237495368655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67199230028873913</c:v>
+                  <c:v>1.8576998050682261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63181178363161072</c:v>
+                  <c:v>2.0349946977730649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56889143511887708</c:v>
+                  <c:v>1.7663025488248925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70668472477507982</c:v>
+                  <c:v>1.8911791451955138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90538136535468094</c:v>
+                  <c:v>1.7561408700799053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0229033344560459</c:v>
+                  <c:v>2.2698412698412698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1063459235876782</c:v>
+                  <c:v>1.8007702182284981</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85074626865671643</c:v>
+                  <c:v>1.6394093013004187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86643342251492073</c:v>
+                  <c:v>3.3033579033579032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7595,34 +7604,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8019</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7421</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7074</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7457</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8734</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8097</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8761</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10239</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13685</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14021</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7712,34 +7721,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2747</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2658</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2555</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2264</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2258</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2474</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2123</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2390</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2569</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2985</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7890,34 +7899,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.9191845649799784</c:v>
+                  <c:v>2.0595469255663432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7919488337095562</c:v>
+                  <c:v>2.0164424514200299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.768688845401174</c:v>
+                  <c:v>1.7980645161290323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2937279151943462</c:v>
+                  <c:v>2.2952646239554317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8680248007085916</c:v>
+                  <c:v>1.790891597177678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2728375101050928</c:v>
+                  <c:v>1.615514333895447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1267074894017899</c:v>
+                  <c:v>1.5763968072976056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2841004184100422</c:v>
+                  <c:v>1.9072478459199189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3269754768392374</c:v>
+                  <c:v>1.5197604790419161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6971524288107203</c:v>
+                  <c:v>1.6251229105211407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8470,34 +8479,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4129</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5177</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5455</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5810</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6987</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7667</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6773</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6886</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9914</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11119</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8663,34 +8672,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2125</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2777</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2986</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3595</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3648</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5537</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4985</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5568</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7736</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8709</c:v>
+                  <c:v>1894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8859,34 +8868,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2993</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3811</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3956</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4083</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4708</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6067</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5832</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5494</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6369</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5926</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9299,34 +9308,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11.220825852782765</c:v>
+                  <c:v>12.208915502328676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.985493898227032</c:v>
+                  <c:v>7.094133697135061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.398028342575479</c:v>
+                  <c:v>3.5406475658047984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.879374353356461</c:v>
+                  <c:v>10.769414861792509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.677927672599477</c:v>
+                  <c:v>8.8383308869784027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.31020598704557</c:v>
+                  <c:v>12.960377966283689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.666777666777666</c:v>
+                  <c:v>8.99113550021106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.773706785179062</c:v>
+                  <c:v>18.195984966541388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.35029988652942</c:v>
+                  <c:v>15.782881002087683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.010144448119966</c:v>
+                  <c:v>7.2091961023142508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9463,34 +9472,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>19.66318127139817</c:v>
+                  <c:v>40.792886254168209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.727622714148218</c:v>
+                  <c:v>20.2729044834308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.022119445003018</c:v>
+                  <c:v>10.745846588900672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.326363028740573</c:v>
+                  <c:v>29.791459781529294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.290703298829449</c:v>
+                  <c:v>25.553197938769323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.563264398487881</c:v>
+                  <c:v>35.720627404557561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.967216795778604</c:v>
+                  <c:v>29.399585921325052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.607379993469031</c:v>
+                  <c:v>50.96277278562259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.021450536263409</c:v>
+                  <c:v>41.657482918227906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59.744803457501547</c:v>
+                  <c:v>31.023751023751025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9627,34 +9636,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.489999771118164</c:v>
+                  <c:v>22.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.299999237060547</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.600000381469727</c:v>
+                  <c:v>6.8600001335144043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.600000381469727</c:v>
+                  <c:v>18.329999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.940000534057617</c:v>
+                  <c:v>15.489999771118164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.619998931884766</c:v>
+                  <c:v>19.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.590000152587891</c:v>
+                  <c:v>14.409999847412109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.990001678466797</c:v>
+                  <c:v>29.430000305175781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.900001525878906</c:v>
+                  <c:v>24.680000305175781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.439998626708984</c:v>
+                  <c:v>14.380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10110,34 +10119,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1113</c:v>
+                  <c:v>159.33399963378906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1080</c:v>
+                  <c:v>156.16700744628906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1043</c:v>
+                  <c:v>152.28799438476563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1021</c:v>
+                  <c:v>145.66799926757813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1012</c:v>
+                  <c:v>138.31700134277344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>990</c:v>
+                  <c:v>135.41700744628906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>952</c:v>
+                  <c:v>124.65200042724609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>921</c:v>
+                  <c:v>118.48100280761719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>923</c:v>
+                  <c:v>112.08399963378906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>916</c:v>
+                  <c:v>109.23500061035156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18068,7 +18077,7 @@
                   <m:oMathParaPr>
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMath>
                     <m:r>
                       <a:rPr lang="en-US" sz="2000" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -18162,7 +18171,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -18684,24 +18693,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.453125"/>
+    <col min="4" max="4" customWidth="true" width="7.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.1796875"/>
+    <col min="6" max="6" customWidth="true" width="19.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.453125"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
       <c r="B3" s="139" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
@@ -18855,47 +18864,47 @@
       <c r="E12" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="123" t="n">
         <f>AVERAGE(L12:P12)</f>
         <v>30.422226954730338</v>
       </c>
-      <c r="G12" s="119">
+      <c r="G12" s="119" t="n">
         <f>Financials!D76</f>
         <v>11.220825852782765</v>
       </c>
-      <c r="H12" s="119">
+      <c r="H12" s="119" t="n">
         <f>Financials!E76</f>
         <v>15.985493898227032</v>
       </c>
-      <c r="I12" s="119">
+      <c r="I12" s="119" t="n">
         <f>Financials!F76</f>
-        <v>18.398028342575479</v>
-      </c>
-      <c r="J12" s="119">
+        <v>18.39802834257548</v>
+      </c>
+      <c r="J12" s="119" t="n">
         <f>Financials!G76</f>
-        <v>21.879374353356461</v>
-      </c>
-      <c r="K12" s="119">
+        <v>21.87937435335646</v>
+      </c>
+      <c r="K12" s="119" t="n">
         <f>Financials!H76</f>
         <v>20.677927672599477</v>
       </c>
-      <c r="L12" s="119">
+      <c r="L12" s="119" t="n">
         <f>Financials!I76</f>
         <v>32.31020598704557</v>
       </c>
-      <c r="M12" s="119">
+      <c r="M12" s="119" t="n">
         <f>Financials!J76</f>
         <v>27.666777666777666</v>
       </c>
-      <c r="N12" s="119">
+      <c r="N12" s="119" t="n">
         <f>Financials!K76</f>
         <v>28.773706785179062</v>
       </c>
-      <c r="O12" s="119">
+      <c r="O12" s="119" t="n">
         <f>Financials!L76</f>
         <v>31.35029988652942</v>
       </c>
-      <c r="P12" s="119">
+      <c r="P12" s="119" t="n">
         <f>Financials!M76</f>
         <v>32.010144448119966</v>
       </c>
@@ -18929,49 +18938,49 @@
       <c r="E14" s="46">
         <v>0.08</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F14" s="124" t="n">
         <f>AVERAGE(L14:P14)</f>
         <v>59.180823036300104</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="40" t="n">
         <f>Financials!D77</f>
         <v>19.66318127139817</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="40" t="n">
         <f>Financials!E77</f>
         <v>26.727622714148218</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="40" t="n">
         <f>Financials!F77</f>
         <v>30.022119445003018</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="40" t="n">
         <f>Financials!G77</f>
-        <v>34.326363028740573</v>
-      </c>
-      <c r="K14" s="40">
+        <v>34.32636302874057</v>
+      </c>
+      <c r="K14" s="40" t="n">
         <f>Financials!H77</f>
-        <v>35.290703298829449</v>
-      </c>
-      <c r="L14" s="40">
+        <v>35.29070329882945</v>
+      </c>
+      <c r="L14" s="40" t="n">
         <f>Financials!I77</f>
-        <v>61.563264398487881</v>
-      </c>
-      <c r="M14" s="40">
+        <v>61.56326439848788</v>
+      </c>
+      <c r="M14" s="40" t="n">
         <f>Financials!J77</f>
         <v>55.967216795778604</v>
       </c>
-      <c r="N14" s="40">
+      <c r="N14" s="40" t="n">
         <f>Financials!K77</f>
-        <v>60.607379993469031</v>
-      </c>
-      <c r="O14" s="40">
+        <v>60.60737999346903</v>
+      </c>
+      <c r="O14" s="40" t="n">
         <f>Financials!L77</f>
-        <v>58.021450536263409</v>
-      </c>
-      <c r="P14" s="40">
+        <v>58.02145053626341</v>
+      </c>
+      <c r="P14" s="40" t="n">
         <f>Financials!M77</f>
-        <v>59.744803457501547</v>
+        <v>59.74480345750155</v>
       </c>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
@@ -19006,51 +19015,51 @@
         <f>T11</f>
         <v>J</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="47" t="n">
         <f>WACC!$C$25</f>
         <v>0.11456412077430318</v>
       </c>
-      <c r="F16" s="124">
+      <c r="F16" s="124" t="n">
         <f>AVERAGE(L16:P16)</f>
-        <v>38.708000183105469</v>
-      </c>
-      <c r="G16" s="40">
+        <v>38.70800018310547</v>
+      </c>
+      <c r="G16" s="40" t="n">
         <f>Financials!D78</f>
         <v>13.489999771118164</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="40" t="n">
         <f>Financials!E78</f>
         <v>18.299999237060547</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="40" t="n">
         <f>Financials!F78</f>
         <v>20.600000381469727</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="40" t="n">
         <f>Financials!G78</f>
         <v>25.600000381469727</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="40" t="n">
         <f>Financials!H78</f>
         <v>25.940000534057617</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="40" t="n">
         <f>Financials!I78</f>
         <v>39.619998931884766</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="40" t="n">
         <f>Financials!J78</f>
-        <v>35.590000152587891</v>
-      </c>
-      <c r="N16" s="40">
+        <v>35.59000015258789</v>
+      </c>
+      <c r="N16" s="40" t="n">
         <f>Financials!K78</f>
-        <v>36.990001678466797</v>
-      </c>
-      <c r="O16" s="40">
+        <v>36.9900016784668</v>
+      </c>
+      <c r="O16" s="40" t="n">
         <f>Financials!L78</f>
         <v>41.900001525878906</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="40" t="n">
         <f>Financials!M78</f>
         <v>39.439998626708984</v>
       </c>
@@ -19093,49 +19102,49 @@
       <c r="E18" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18" s="125" t="n">
         <f>AVERAGE(L18:P18)</f>
-        <v>4.3415546647133763</v>
-      </c>
-      <c r="G18" s="42">
+        <v>4.341554664713376</v>
+      </c>
+      <c r="G18" s="42" t="n">
         <f>Financials!D59</f>
         <v>2.9191845649799784</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="42" t="n">
         <f>Financials!E59</f>
-        <v>2.7919488337095562</v>
-      </c>
-      <c r="I18" s="42">
+        <v>2.791948833709556</v>
+      </c>
+      <c r="I18" s="42" t="n">
         <f>Financials!F59</f>
         <v>2.768688845401174</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="42" t="n">
         <f>Financials!G59</f>
-        <v>3.2937279151943462</v>
-      </c>
-      <c r="K18" s="42">
+        <v>3.293727915194346</v>
+      </c>
+      <c r="K18" s="42" t="n">
         <f>Financials!H59</f>
         <v>3.8680248007085916</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="42" t="n">
         <f>Financials!I59</f>
-        <v>3.2728375101050928</v>
-      </c>
-      <c r="M18" s="42">
+        <v>3.272837510105093</v>
+      </c>
+      <c r="M18" s="42" t="n">
         <f>Financials!J59</f>
-        <v>4.1267074894017899</v>
-      </c>
-      <c r="N18" s="42">
+        <v>4.12670748940179</v>
+      </c>
+      <c r="N18" s="42" t="n">
         <f>Financials!K59</f>
-        <v>4.2841004184100422</v>
-      </c>
-      <c r="O18" s="42">
+        <v>4.284100418410042</v>
+      </c>
+      <c r="O18" s="42" t="n">
         <f>Financials!L59</f>
         <v>5.3269754768392374</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="42" t="n">
         <f>Financials!M59</f>
-        <v>4.6971524288107203</v>
+        <v>4.69715242881072</v>
       </c>
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
@@ -19166,7 +19175,7 @@
     <row r="20" spans="2:20" ht="18.5">
       <c r="B20" s="152"/>
       <c r="C20" s="36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D20" s="54" t="str">
         <f>T11</f>
@@ -19175,49 +19184,49 @@
       <c r="E20" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="125" t="n">
         <f>AVERAGE(L20:P20)</f>
-        <v>0.95036206291400838</v>
-      </c>
-      <c r="G20" s="42">
+        <v>0.9503620629140084</v>
+      </c>
+      <c r="G20" s="42" t="n">
         <f>Financials!D58</f>
         <v>0.7523827149070047</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="42" t="n">
         <f>Financials!E58</f>
-        <v>0.67199230028873913</v>
-      </c>
-      <c r="I20" s="42">
+        <v>0.6719923002887391</v>
+      </c>
+      <c r="I20" s="42" t="n">
         <f>Financials!F58</f>
-        <v>0.63181178363161072</v>
-      </c>
-      <c r="J20" s="42">
+        <v>0.6318117836316107</v>
+      </c>
+      <c r="J20" s="42" t="n">
         <f>Financials!G58</f>
-        <v>0.56889143511887708</v>
-      </c>
-      <c r="K20" s="42">
+        <v>0.5688914351188771</v>
+      </c>
+      <c r="K20" s="42" t="n">
         <f>Financials!H58</f>
-        <v>0.70668472477507982</v>
-      </c>
-      <c r="L20" s="42">
+        <v>0.7066847247750798</v>
+      </c>
+      <c r="L20" s="42" t="n">
         <f>Financials!I58</f>
-        <v>0.90538136535468094</v>
-      </c>
-      <c r="M20" s="42">
+        <v>0.905381365354681</v>
+      </c>
+      <c r="M20" s="42" t="n">
         <f>Financials!J58</f>
         <v>1.0229033344560459</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="42" t="n">
         <f>Financials!K58</f>
         <v>1.1063459235876782</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="42" t="n">
         <f>Financials!L58</f>
-        <v>0.85074626865671643</v>
-      </c>
-      <c r="P20" s="42">
+        <v>0.8507462686567164</v>
+      </c>
+      <c r="P20" s="42" t="n">
         <f>Financials!M58</f>
-        <v>0.86643342251492073</v>
+        <v>0.8664334225149207</v>
       </c>
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
@@ -19248,58 +19257,58 @@
     <row r="22" spans="2:20" ht="18.5">
       <c r="B22" s="132"/>
       <c r="C22" s="36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D22" s="54" t="str">
         <f>T11</f>
         <v>J</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="125">
+        <v>161</v>
+      </c>
+      <c r="F22" s="125" t="n">
         <f>AVERAGE(L22:P22)</f>
-        <v>0.74492775447135229</v>
-      </c>
-      <c r="G22" s="42">
+        <v>0.7449277544713523</v>
+      </c>
+      <c r="G22" s="42" t="n">
         <f>Financials!D60</f>
         <v>1.0070234923710342</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="42" t="n">
         <f>Financials!E60</f>
-        <v>0.70117828858412212</v>
-      </c>
-      <c r="I22" s="42">
+        <v>0.7011782885841221</v>
+      </c>
+      <c r="I22" s="42" t="n">
         <f>Financials!F60</f>
-        <v>0.57195233730522455</v>
-      </c>
-      <c r="J22" s="42">
+        <v>0.5719523373052245</v>
+      </c>
+      <c r="J22" s="42" t="n">
         <f>Financials!G60</f>
-        <v>0.51256454388984507</v>
-      </c>
-      <c r="K22" s="42">
+        <v>0.5125645438898451</v>
+      </c>
+      <c r="K22" s="42" t="n">
         <f>Financials!H60</f>
-        <v>0.51195076570774301</v>
-      </c>
-      <c r="L22" s="42">
+        <v>0.511950765707743</v>
+      </c>
+      <c r="L22" s="42" t="n">
         <f>Financials!I60</f>
-        <v>0.56332333376809707</v>
-      </c>
-      <c r="M22" s="42">
+        <v>0.5633233337680971</v>
+      </c>
+      <c r="M22" s="42" t="n">
         <f>Financials!J60</f>
-        <v>0.78296175992913042</v>
-      </c>
-      <c r="N22" s="42">
+        <v>0.7829617599291304</v>
+      </c>
+      <c r="N22" s="42" t="n">
         <f>Financials!K60</f>
-        <v>0.90734824281150162</v>
-      </c>
-      <c r="O22" s="42">
+        <v>0.9073482428115016</v>
+      </c>
+      <c r="O22" s="42" t="n">
         <f>Financials!L60</f>
-        <v>0.73038127899939476</v>
-      </c>
-      <c r="P22" s="42">
+        <v>0.7303812789993948</v>
+      </c>
+      <c r="P22" s="42" t="n">
         <f>Financials!M60</f>
-        <v>0.74062415684863747</v>
+        <v>0.7406241568486375</v>
       </c>
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
@@ -19342,45 +19351,45 @@
         <v>69</v>
       </c>
       <c r="F24" s="50"/>
-      <c r="G24" s="40">
+      <c r="G24" s="40" t="n">
         <f>Financials!D12</f>
-        <v>1113</v>
-      </c>
-      <c r="H24" s="40">
+        <v>1113.0</v>
+      </c>
+      <c r="H24" s="40" t="n">
         <f>Financials!E12</f>
-        <v>1080</v>
-      </c>
-      <c r="I24" s="40">
+        <v>1080.0</v>
+      </c>
+      <c r="I24" s="40" t="n">
         <f>Financials!F12</f>
-        <v>1043</v>
-      </c>
-      <c r="J24" s="40">
+        <v>1043.0</v>
+      </c>
+      <c r="J24" s="40" t="n">
         <f>Financials!G12</f>
-        <v>1021</v>
-      </c>
-      <c r="K24" s="40">
+        <v>1021.0</v>
+      </c>
+      <c r="K24" s="40" t="n">
         <f>Financials!H12</f>
-        <v>1012</v>
-      </c>
-      <c r="L24" s="40">
+        <v>1012.0</v>
+      </c>
+      <c r="L24" s="40" t="n">
         <f>Financials!I12</f>
-        <v>990</v>
-      </c>
-      <c r="M24" s="40">
+        <v>990.0</v>
+      </c>
+      <c r="M24" s="40" t="n">
         <f>Financials!J12</f>
-        <v>952</v>
-      </c>
-      <c r="N24" s="40">
+        <v>952.0</v>
+      </c>
+      <c r="N24" s="40" t="n">
         <f>Financials!K12</f>
-        <v>921</v>
-      </c>
-      <c r="O24" s="40">
+        <v>921.0</v>
+      </c>
+      <c r="O24" s="40" t="n">
         <f>Financials!L12</f>
-        <v>923</v>
-      </c>
-      <c r="P24" s="40">
+        <v>923.0</v>
+      </c>
+      <c r="P24" s="40" t="n">
         <f>Financials!M12</f>
-        <v>916</v>
+        <v>916.0</v>
       </c>
       <c r="Q24" s="44"/>
       <c r="R24" s="44"/>
@@ -19420,51 +19429,51 @@
         <v>L</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="57">
+        <v>163</v>
+      </c>
+      <c r="F26" s="57" t="n">
         <f>AVERAGEIF(L26:P26,"&lt;100")</f>
-        <v>23.315999984741211</v>
-      </c>
-      <c r="G26" s="44">
+        <v>23.31599998474121</v>
+      </c>
+      <c r="G26" s="44" t="n">
         <f>Financials!D81</f>
         <v>25.979999542236328</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="44" t="n">
         <f>Financials!E81</f>
         <v>23.549999237060547</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="44" t="n">
         <f>Financials!F81</f>
         <v>19.719999313354492</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="44" t="n">
         <f>Financials!G81</f>
         <v>23.239999771118164</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="44" t="n">
         <f>Financials!H81</f>
         <v>24.399999618530273</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="44" t="n">
         <f>Financials!I81</f>
         <v>20.239999771118164</v>
       </c>
-      <c r="M26" s="44">
+      <c r="M26" s="44" t="n">
         <f>Financials!J81</f>
         <v>23.799999237060547</v>
       </c>
-      <c r="N26" s="44">
+      <c r="N26" s="44" t="n">
         <f>Financials!K81</f>
         <v>31.030000686645508</v>
       </c>
-      <c r="O26" s="44">
+      <c r="O26" s="44" t="n">
         <f>Financials!L81</f>
         <v>24.190000534057617</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="44" t="n">
         <f>Financials!M81</f>
-        <v>17.319999694824219</v>
+        <v>17.31999969482422</v>
       </c>
       <c r="Q26" s="44"/>
       <c r="R26" s="44"/>
@@ -19502,49 +19511,49 @@
         <v>L</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="57">
+        <v>164</v>
+      </c>
+      <c r="F28" s="57" t="n">
         <f>AVERAGEIF(L28:P28, "&lt;100")</f>
         <v>19.06800022125244</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="44" t="n">
         <f>Financials!D82</f>
         <v>15.029999732971191</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="44" t="n">
         <f>Financials!E82</f>
         <v>15.25</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="44" t="n">
         <f>Financials!F82</f>
         <v>14.039999961853027</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="44" t="n">
         <f>Financials!G82</f>
-        <v>16.680000305175781</v>
-      </c>
-      <c r="K28" s="44">
+        <v>16.68000030517578</v>
+      </c>
+      <c r="K28" s="44" t="n">
         <f>Financials!H82</f>
         <v>21.989999771118164</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="44" t="n">
         <f>Financials!I82</f>
         <v>13.539999961853027</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="44" t="n">
         <f>Financials!J82</f>
         <v>17.440000534057617</v>
       </c>
-      <c r="N28" s="44">
+      <c r="N28" s="44" t="n">
         <f>Financials!K82</f>
-        <v>26.659999847412109</v>
-      </c>
-      <c r="O28" s="44">
+        <v>26.65999984741211</v>
+      </c>
+      <c r="O28" s="44" t="n">
         <f>Financials!L82</f>
-        <v>20.680000305175781</v>
-      </c>
-      <c r="P28" s="44">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="P28" s="44" t="n">
         <f>Financials!M82</f>
         <v>17.020000457763672</v>
       </c>
@@ -19582,9 +19591,9 @@
       <c r="E30" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="127">
+      <c r="F30" s="127" t="n">
         <f>Financials!$C$83</f>
-        <v>2.9900000095367432</v>
+        <v>2.990000009536743</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
@@ -19618,9 +19627,9 @@
       <c r="E32" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="52" t="n">
         <f>Financials!D63</f>
-        <v>-4.6919183617391003E-3</v>
+        <v>-0.0046919183617391</v>
       </c>
     </row>
     <row r="33" spans="2:17" ht="18.5">
@@ -19635,9 +19644,9 @@
       <c r="E33" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="52" t="n">
         <f>Financials!D64</f>
-        <v>7.0694305867646801E-2</v>
+        <v>0.0706943058676468</v>
       </c>
     </row>
     <row r="34" spans="2:17">
@@ -19659,9 +19668,9 @@
       <c r="E35" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="52" t="n">
         <f>Financials!D69</f>
-        <v>7.7179434804034441E-2</v>
+        <v>0.07717943480403444</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="18.5">
@@ -19676,7 +19685,7 @@
       <c r="E36" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="52" t="n">
         <f>Financials!D70</f>
         <v>0.21911358130616465</v>
       </c>
@@ -19701,9 +19710,9 @@
       <c r="E38" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="52" t="n">
         <f>Financials!D65</f>
-        <v>9.4809994463398217E-2</v>
+        <v>0.09480999446339822</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="18.5">
@@ -19718,9 +19727,9 @@
       <c r="E39" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="52" t="n">
         <f>Financials!D66</f>
-        <v>0.15149202802592021</v>
+        <v>0.1514920280259202</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -19742,9 +19751,9 @@
       <c r="E41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="52" t="n">
         <f>Financials!D67</f>
-        <v>4.8779288168724122E-2</v>
+        <v>0.04877928816872412</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="18.5">
@@ -19759,9 +19768,9 @@
       <c r="E42" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="52" t="n">
         <f>Financials!D68</f>
-        <v>5.0775600952138955E-2</v>
+        <v>0.050775600952138955</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -19781,7 +19790,7 @@
       <c r="E44" s="101">
         <v>0.75</v>
       </c>
-      <c r="F44" s="103">
+      <c r="F44" s="103" t="n">
         <f>Financials!$D$73</f>
         <v>0.5791495354642946</v>
       </c>
@@ -19798,7 +19807,7 @@
       <c r="E45" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="103">
+      <c r="F45" s="103" t="n">
         <f>Financials!D71</f>
         <v>0.10957046973041251</v>
       </c>
@@ -19815,9 +19824,9 @@
       <c r="E46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="103">
+      <c r="F46" s="103" t="n">
         <f>Financials!D72</f>
-        <v>0.15412948805414889</v>
+        <v>0.1541294880541489</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="18.5">
@@ -19832,7 +19841,7 @@
       <c r="E47" s="101">
         <v>0.12</v>
       </c>
-      <c r="F47" s="102">
+      <c r="F47" s="102" t="n">
         <f>F45+F46</f>
         <v>0.2636999577845614</v>
       </c>
@@ -19856,13 +19865,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B82" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.1796875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19880,9 +19889,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="61.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="61.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.6328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20" thickBot="1">
@@ -19910,7 +19919,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="P4" t="s">
+      <c r="P4" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -19918,7 +19927,7 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="58" t="n">
         <v>153.69000244140625</v>
       </c>
     </row>
@@ -19926,47 +19935,47 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59">
-        <v>2985000</v>
+      <c r="C6" s="59" t="n">
+        <v>2985000.0</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="59">
-        <v>9645000</v>
+      <c r="C7" s="59" t="n">
+        <v>9645000.0</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59">
-        <v>214000</v>
+      <c r="C8" s="59" t="n">
+        <v>214000.0</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59">
-        <v>10032000</v>
+      <c r="C9" s="59" t="n">
+        <v>1.0032E7</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="59">
-        <v>1283000</v>
+      <c r="C10" s="59" t="n">
+        <v>1283000.0</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="60" t="n">
         <v>1.0299999713897705</v>
       </c>
       <c r="G11" s="33"/>
@@ -19992,7 +20001,7 @@
       <c r="C15" s="14">
         <v>0.12</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -20000,38 +20009,38 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="11" t="n">
         <f>SUM(C6:C7)</f>
-        <v>12630000</v>
+        <v>1.263E7</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="12" t="n">
         <f>C8/C17</f>
-        <v>1.6943784639746634E-2</v>
+        <v>0.016943784639746634</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="12" t="n">
         <f>C14+C11*(C15-C14)</f>
-        <v>0.12260999751090999</v>
+        <v>0.12260999751091</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="12" t="n">
         <f>C8/C17</f>
-        <v>1.6943784639746634E-2</v>
-      </c>
-      <c r="K20" t="s">
+        <v>0.016943784639746634</v>
+      </c>
+      <c r="K20" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -20039,11 +20048,11 @@
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="11" t="n">
         <f>C17+C5*1000000</f>
-        <v>166320002.44140601</v>
-      </c>
-      <c r="K21" t="s">
+        <v>1.66320002441406E8</v>
+      </c>
+      <c r="K21" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -20051,11 +20060,11 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="12" t="n">
         <f>C5*1000000/C21</f>
-        <v>0.92406205017673981</v>
-      </c>
-      <c r="K22" t="s">
+        <v>0.9240620501767398</v>
+      </c>
+      <c r="K22" t="s" s="0">
         <v>12</v>
       </c>
     </row>
@@ -20063,9 +20072,9 @@
       <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="12" t="n">
         <f>C17/C21</f>
-        <v>7.5937949823260187E-2</v>
+        <v>0.07593794982326019</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="14.5" customHeight="1" thickTop="1">
@@ -20079,7 +20088,7 @@
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="17" t="n">
         <f>C23*C20*(1-C18)+C22*C19</f>
         <v>0.11456412077430318</v>
       </c>
@@ -20114,20 +20123,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="9" max="12" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.81640625"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="20" thickBot="1">
@@ -20140,7 +20149,7 @@
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="20" t="n">
         <f>WACC!C25</f>
         <v>0.11456412077430318</v>
       </c>
@@ -20157,15 +20166,15 @@
       <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="65">
-        <v>5.0000000745057997E-2</v>
+      <c r="C6" s="65" t="n">
+        <v>0.05000000074505806</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="13" t="n">
         <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
         <v>0.30683824189859077</v>
       </c>
@@ -20174,33 +20183,33 @@
       <c r="B8" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="13" t="n">
         <f>AVERAGEIF(C29:L29,"&lt;2")</f>
-        <v>1.1288056816872589</v>
+        <v>1.128805681687259</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="66">
-        <v>13</v>
+      <c r="C9" s="66" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="67">
-        <v>0.05</v>
+      <c r="C10" s="67" t="n">
+        <v>0.10000000149011612</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="59">
-        <v>906205824</v>
+      <c r="C11" s="59" t="n">
+        <v>9.06205824E8</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -20250,45 +20259,45 @@
       <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="21" t="n">
         <f>Financials!D3</f>
-        <v>12205</v>
-      </c>
-      <c r="D16" s="21">
+        <v>12205.0</v>
+      </c>
+      <c r="D16" s="21" t="n">
         <f>Financials!E3</f>
-        <v>13045</v>
-      </c>
-      <c r="E16" s="21">
+        <v>13045.0</v>
+      </c>
+      <c r="E16" s="21" t="n">
         <f>Financials!F3</f>
-        <v>13000</v>
-      </c>
-      <c r="F16" s="21">
+        <v>13000.0</v>
+      </c>
+      <c r="F16" s="21" t="n">
         <f>Financials!G3</f>
-        <v>13370</v>
-      </c>
-      <c r="G16" s="21">
+        <v>13370.0</v>
+      </c>
+      <c r="G16" s="21" t="n">
         <f>Financials!H3</f>
-        <v>14961</v>
-      </c>
-      <c r="H16" s="21">
+        <v>14961.0</v>
+      </c>
+      <c r="H16" s="21" t="n">
         <f>Financials!I3</f>
-        <v>15784</v>
-      </c>
-      <c r="I16" s="21">
+        <v>15784.0</v>
+      </c>
+      <c r="I16" s="21" t="n">
         <f>Financials!J3</f>
-        <v>14383</v>
-      </c>
-      <c r="J16" s="21">
+        <v>14383.0</v>
+      </c>
+      <c r="J16" s="21" t="n">
         <f>Financials!K3</f>
-        <v>14461</v>
-      </c>
-      <c r="K16" s="21">
+        <v>14461.0</v>
+      </c>
+      <c r="K16" s="21" t="n">
         <f>Financials!L3</f>
-        <v>18344</v>
-      </c>
-      <c r="L16" s="21">
+        <v>18344.0</v>
+      </c>
+      <c r="L16" s="21" t="n">
         <f>Financials!M3</f>
-        <v>20028</v>
+        <v>20028.0</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -20296,41 +20305,41 @@
         <v>27</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="20">
+      <c r="D17" s="20" t="n">
         <f t="shared" ref="D17:L17" si="0">(D16-C16)/C16</f>
-        <v>6.8824252355591975E-2</v>
-      </c>
-      <c r="E17" s="20">
+        <v>0.06882425235559197</v>
+      </c>
+      <c r="E17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-3.4495975469528554E-3</v>
-      </c>
-      <c r="F17" s="20">
+        <v>-0.0034495975469528554</v>
+      </c>
+      <c r="F17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>2.8461538461538462E-2</v>
-      </c>
-      <c r="G17" s="20">
+        <v>0.02846153846153846</v>
+      </c>
+      <c r="G17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.11899775617053104</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>5.5009691865517012E-2</v>
-      </c>
-      <c r="I17" s="20">
+        <v>0.05500969186551701</v>
+      </c>
+      <c r="I17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-8.8760770400405475E-2</v>
-      </c>
-      <c r="J17" s="20">
+        <v>-0.08876077040040548</v>
+      </c>
+      <c r="J17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>5.4230689007856497E-3</v>
-      </c>
-      <c r="K17" s="20">
+        <v>0.00542306890078565</v>
+      </c>
+      <c r="K17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.26851531705967774</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>9.1801133885739211E-2</v>
+        <v>0.09180113388573921</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -20350,45 +20359,45 @@
       <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="21" t="n">
         <f>Financials!D6</f>
-        <v>2125</v>
-      </c>
-      <c r="D19" s="21">
+        <v>2125.0</v>
+      </c>
+      <c r="D19" s="21" t="n">
         <f>Financials!E6</f>
-        <v>2777</v>
-      </c>
-      <c r="E19" s="21">
+        <v>2777.0</v>
+      </c>
+      <c r="E19" s="21" t="n">
         <f>Financials!F6</f>
-        <v>2986</v>
-      </c>
-      <c r="F19" s="21">
+        <v>2986.0</v>
+      </c>
+      <c r="F19" s="21" t="n">
         <f>Financials!G6</f>
-        <v>3595</v>
-      </c>
-      <c r="G19" s="21">
+        <v>3595.0</v>
+      </c>
+      <c r="G19" s="21" t="n">
         <f>Financials!H6</f>
-        <v>3648</v>
-      </c>
-      <c r="H19" s="21">
+        <v>3648.0</v>
+      </c>
+      <c r="H19" s="21" t="n">
         <f>Financials!I6</f>
-        <v>5537</v>
-      </c>
-      <c r="I19" s="21">
+        <v>5537.0</v>
+      </c>
+      <c r="I19" s="21" t="n">
         <f>Financials!J6</f>
-        <v>4985</v>
-      </c>
-      <c r="J19" s="21">
+        <v>4985.0</v>
+      </c>
+      <c r="J19" s="21" t="n">
         <f>Financials!K6</f>
-        <v>5568</v>
-      </c>
-      <c r="K19" s="21">
+        <v>5568.0</v>
+      </c>
+      <c r="K19" s="21" t="n">
         <f>Financials!L6</f>
-        <v>7736</v>
-      </c>
-      <c r="L19" s="21">
+        <v>7736.0</v>
+      </c>
+      <c r="L19" s="21" t="n">
         <f>Financials!M6</f>
-        <v>8709</v>
+        <v>8709.0</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -20396,39 +20405,39 @@
         <v>27</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="20">
+      <c r="D20" s="20" t="n">
         <f>(D19-C19)/C19</f>
-        <v>0.30682352941176472</v>
-      </c>
-      <c r="E20" s="20">
+        <v>0.3068235294117647</v>
+      </c>
+      <c r="E20" s="20" t="n">
         <f t="shared" ref="E20:L20" si="1">(E19-D19)/D19</f>
-        <v>7.5261073100468132E-2</v>
-      </c>
-      <c r="F20" s="20">
+        <v>0.07526107310046813</v>
+      </c>
+      <c r="F20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.20395177494976557</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>1.474269819193324E-2</v>
-      </c>
-      <c r="H20" s="20">
+        <v>0.01474269819193324</v>
+      </c>
+      <c r="H20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.5178179824561403</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>-9.9692974534946716E-2</v>
-      </c>
-      <c r="J20" s="20">
+        <v>-0.09969297453494672</v>
+      </c>
+      <c r="J20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.11695085255767301</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.38936781609195403</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.12577559462254395</v>
       </c>
@@ -20437,45 +20446,45 @@
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="25" t="n">
         <f>Financials!D20</f>
-        <v>2993</v>
-      </c>
-      <c r="D22" s="25">
+        <v>2993.0</v>
+      </c>
+      <c r="D22" s="25" t="n">
         <f>Financials!E20</f>
-        <v>3811</v>
-      </c>
-      <c r="E22" s="25">
+        <v>3811.0</v>
+      </c>
+      <c r="E22" s="25" t="n">
         <f>Financials!F20</f>
-        <v>3956</v>
-      </c>
-      <c r="F22" s="25">
+        <v>3956.0</v>
+      </c>
+      <c r="F22" s="25" t="n">
         <f>Financials!G20</f>
-        <v>4083</v>
-      </c>
-      <c r="G22" s="25">
+        <v>4083.0</v>
+      </c>
+      <c r="G22" s="25" t="n">
         <f>Financials!H20</f>
-        <v>4708</v>
-      </c>
-      <c r="H22" s="25">
+        <v>4708.0</v>
+      </c>
+      <c r="H22" s="25" t="n">
         <f>Financials!I20</f>
-        <v>6067</v>
-      </c>
-      <c r="I22" s="25">
+        <v>6067.0</v>
+      </c>
+      <c r="I22" s="25" t="n">
         <f>Financials!J20</f>
-        <v>5832</v>
-      </c>
-      <c r="J22" s="25">
+        <v>5832.0</v>
+      </c>
+      <c r="J22" s="25" t="n">
         <f>Financials!K20</f>
-        <v>5494</v>
-      </c>
-      <c r="K22" s="25">
+        <v>5494.0</v>
+      </c>
+      <c r="K22" s="25" t="n">
         <f>Financials!L20</f>
-        <v>6369</v>
-      </c>
-      <c r="L22" s="25">
+        <v>6369.0</v>
+      </c>
+      <c r="L22" s="25" t="n">
         <f>Financials!M20</f>
-        <v>5926</v>
+        <v>5926.0</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -20483,41 +20492,41 @@
         <v>27</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="26">
+      <c r="D23" s="26" t="n">
         <f>(D22-C22)/C22</f>
         <v>0.27330437687938525</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="26" t="n">
         <f t="shared" ref="E23:L23" si="2">(E22-D22)/D22</f>
-        <v>3.8047756494358438E-2</v>
-      </c>
-      <c r="F23" s="26">
+        <v>0.03804775649435844</v>
+      </c>
+      <c r="F23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>3.2103134479271989E-2</v>
-      </c>
-      <c r="G23" s="26">
+        <v>0.03210313447927199</v>
+      </c>
+      <c r="G23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>0.15307372030369826</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>0.28865760407816482</v>
-      </c>
-      <c r="I23" s="26">
+        <v>0.2886576040781648</v>
+      </c>
+      <c r="I23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-3.8734135487061151E-2</v>
-      </c>
-      <c r="J23" s="26">
+        <v>-0.03873413548706115</v>
+      </c>
+      <c r="J23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-5.7956104252400546E-2</v>
-      </c>
-      <c r="K23" s="26">
+        <v>-0.057956104252400546</v>
+      </c>
+      <c r="K23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>0.15926465234801601</v>
-      </c>
-      <c r="L23" s="26">
+        <v>0.159264652348016</v>
+      </c>
+      <c r="L23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-6.9555660229235358E-2</v>
+        <v>-0.06955566022923536</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -20537,45 +20546,45 @@
       <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="62" t="n">
         <f>Financials!D9</f>
-        <v>4129</v>
-      </c>
-      <c r="D25" s="62">
+        <v>4129.0</v>
+      </c>
+      <c r="D25" s="62" t="n">
         <f>Financials!E9</f>
-        <v>5177</v>
-      </c>
-      <c r="E25" s="62">
+        <v>5177.0</v>
+      </c>
+      <c r="E25" s="62" t="n">
         <f>Financials!F9</f>
-        <v>5455</v>
-      </c>
-      <c r="F25" s="62">
+        <v>5455.0</v>
+      </c>
+      <c r="F25" s="62" t="n">
         <f>Financials!G9</f>
-        <v>5810</v>
-      </c>
-      <c r="G25" s="62">
+        <v>5810.0</v>
+      </c>
+      <c r="G25" s="62" t="n">
         <f>Financials!H9</f>
-        <v>6987</v>
-      </c>
-      <c r="H25" s="62">
+        <v>6987.0</v>
+      </c>
+      <c r="H25" s="62" t="n">
         <f>Financials!I9</f>
-        <v>7667</v>
-      </c>
-      <c r="I25" s="62">
+        <v>7667.0</v>
+      </c>
+      <c r="I25" s="62" t="n">
         <f>Financials!J9</f>
-        <v>6773</v>
-      </c>
-      <c r="J25" s="62">
+        <v>6773.0</v>
+      </c>
+      <c r="J25" s="62" t="n">
         <f>Financials!K9</f>
-        <v>6886</v>
-      </c>
-      <c r="K25" s="62">
+        <v>6886.0</v>
+      </c>
+      <c r="K25" s="62" t="n">
         <f>Financials!L9</f>
-        <v>9914</v>
-      </c>
-      <c r="L25" s="62">
+        <v>9914.0</v>
+      </c>
+      <c r="L25" s="62" t="n">
         <f>Financials!M9</f>
-        <v>11119</v>
+        <v>11119.0</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -20583,39 +20592,39 @@
         <v>27</v>
       </c>
       <c r="C26" s="63"/>
-      <c r="D26" s="63">
+      <c r="D26" s="63" t="n">
         <f>Financials!E10</f>
         <v>0.25381448292564784</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="63" t="n">
         <f>Financials!F10</f>
-        <v>5.3699053505891443E-2</v>
-      </c>
-      <c r="F26" s="63">
+        <v>0.05369905350589144</v>
+      </c>
+      <c r="F26" s="63" t="n">
         <f>Financials!G10</f>
-        <v>6.5077910174152154E-2</v>
-      </c>
-      <c r="G26" s="63">
+        <v>0.06507791017415215</v>
+      </c>
+      <c r="G26" s="63" t="n">
         <f>Financials!H10</f>
-        <v>0.20258175559380379</v>
-      </c>
-      <c r="H26" s="63">
+        <v>0.2025817555938038</v>
+      </c>
+      <c r="H26" s="63" t="n">
         <f>Financials!I10</f>
-        <v>9.7323600973236016E-2</v>
-      </c>
-      <c r="I26" s="63">
+        <v>0.09732360097323602</v>
+      </c>
+      <c r="I26" s="63" t="n">
         <f>Financials!J10</f>
         <v>-0.11660362592930743</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J26" s="63" t="n">
         <f>Financials!K10</f>
-        <v>1.6683891923815149E-2</v>
-      </c>
-      <c r="K26" s="63">
+        <v>0.01668389192381515</v>
+      </c>
+      <c r="K26" s="63" t="n">
         <f>Financials!L10</f>
         <v>0.43973279117049086</v>
       </c>
-      <c r="L26" s="63">
+      <c r="L26" s="63" t="n">
         <f>Financials!M10</f>
         <v>0.12154528948961066</v>
       </c>
@@ -20624,90 +20633,90 @@
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="24" t="n">
         <f t="shared" ref="C28:L28" si="3">C19/C16</f>
         <v>0.17410897173289636</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.212878497508624</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.2296923076923077</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>0.26888556469708302</v>
-      </c>
-      <c r="G28" s="24">
+        <v>0.268885564697083</v>
+      </c>
+      <c r="G28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.24383396831762583</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>0.35079827673593511</v>
-      </c>
-      <c r="I28" s="24">
+        <v>0.3507982767359351</v>
+      </c>
+      <c r="I28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>0.34658972397969823</v>
-      </c>
-      <c r="J28" s="24">
+        <v>0.3465897239796982</v>
+      </c>
+      <c r="J28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.38503561302814465</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.4217182730047972</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>0.43484122228879568</v>
+        <v>0.4348412222887957</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="15" thickBot="1">
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="24" t="n">
         <f t="shared" ref="C29:L29" si="4">C22/C19</f>
         <v>1.4084705882352941</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.3723442563917898</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.3248492967180174</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.1357440890125174</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.2905701754385965</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.0957197038107278</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.1699097291875626</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.98670977011494254</v>
-      </c>
-      <c r="K29" s="24">
+        <v>0.9867097701149425</v>
+      </c>
+      <c r="K29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.82329369183040335</v>
-      </c>
-      <c r="L29" s="24">
+        <v>0.8232936918304034</v>
+      </c>
+      <c r="L29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.68044551613273629</v>
+        <v>0.6804455161327363</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="20" thickBot="1">
@@ -20754,87 +20763,87 @@
       <c r="B36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="21" t="n">
         <f>L16*(C37+1)</f>
-        <v>17957.104811221368</v>
-      </c>
-      <c r="D36" s="21">
+        <v>17957.10481122137</v>
+      </c>
+      <c r="D36" s="21" t="n">
         <f>C36*(D37+1)</f>
         <v>19451.135935582304</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="21" t="n">
         <f>D36*(E37+1)</f>
         <v>20758.252223846368</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="21" t="n">
         <f t="shared" ref="F36:L36" si="5">E36*(F37+1)</f>
-        <v>21796.164850504789</v>
-      </c>
-      <c r="G36" s="21">
+        <v>21796.164850504865</v>
+      </c>
+      <c r="G36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>22885.973109269438</v>
-      </c>
-      <c r="H36" s="21">
+        <v>22885.973109269595</v>
+      </c>
+      <c r="H36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>24030.271781784289</v>
-      </c>
-      <c r="I36" s="21">
+        <v>24030.271781784504</v>
+      </c>
+      <c r="I36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>25231.785388777451</v>
-      </c>
-      <c r="J36" s="21">
+        <v>25231.78538877772</v>
+      </c>
+      <c r="J36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>26493.374677015468</v>
-      </c>
-      <c r="K36" s="21">
+        <v>26493.374677015778</v>
+      </c>
+      <c r="K36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>27818.043430605343</v>
-      </c>
-      <c r="L36" s="21">
+        <v>27818.043430605743</v>
+      </c>
+      <c r="L36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>29208.945622861669</v>
+        <v>29208.945622862095</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="68">
+      <c r="C37" s="68" t="n">
         <v>-0.10339999943971634</v>
       </c>
-      <c r="D37" s="68">
-        <v>8.320000022649765E-2</v>
-      </c>
-      <c r="E37" s="68">
-        <v>6.719999760389328E-2</v>
-      </c>
-      <c r="F37" s="27">
+      <c r="D37" s="68" t="n">
+        <v>0.08320000022649765</v>
+      </c>
+      <c r="E37" s="68" t="n">
+        <v>0.06719999760389328</v>
+      </c>
+      <c r="F37" s="27" t="n">
         <f>C6</f>
-        <v>5.0000000745057997E-2</v>
-      </c>
-      <c r="G37" s="27">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="G37" s="27" t="n">
         <f>C6</f>
-        <v>5.0000000745057997E-2</v>
-      </c>
-      <c r="H37" s="27">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="H37" s="27" t="n">
         <f>C6</f>
-        <v>5.0000000745057997E-2</v>
-      </c>
-      <c r="I37" s="27">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="I37" s="27" t="n">
         <f>C6</f>
-        <v>5.0000000745057997E-2</v>
-      </c>
-      <c r="J37" s="27">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="J37" s="27" t="n">
         <f>C6</f>
-        <v>5.0000000745057997E-2</v>
-      </c>
-      <c r="K37" s="27">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="K37" s="27" t="n">
         <f>C6</f>
-        <v>5.0000000745057997E-2</v>
-      </c>
-      <c r="L37" s="27">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="L37" s="27" t="n">
         <f>C6</f>
-        <v>5.0000000745057997E-2</v>
+        <v>0.05000000074505806</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -20854,88 +20863,88 @@
       <c r="B39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="21" t="n">
         <f>C36*C7</f>
         <v>5509.9264698639045</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="21" t="n">
         <f>D36*C7</f>
         <v>5968.352353404578</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="21" t="n">
         <f>E36*C7</f>
         <v>6369.4256172525465</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="21" t="n">
         <f>F36*C7</f>
-        <v>6687.8969028607498</v>
-      </c>
-      <c r="G39" s="21">
+        <v>6687.896902860789</v>
+      </c>
+      <c r="G39" s="21" t="n">
         <f>G36*C7</f>
-        <v>7022.291752986659</v>
-      </c>
-      <c r="H39" s="21">
+        <v>7022.2917529867145</v>
+      </c>
+      <c r="H39" s="21" t="n">
         <f>H36*C7</f>
-        <v>7373.4063458680075</v>
-      </c>
-      <c r="I39" s="21">
+        <v>7373.406345868078</v>
+      </c>
+      <c r="I39" s="21" t="n">
         <f>I36*C7</f>
-        <v>7742.0766686550232</v>
-      </c>
-      <c r="J39" s="21">
+        <v>7742.076668655106</v>
+      </c>
+      <c r="J39" s="21" t="n">
         <f>J36*C7</f>
-        <v>8129.180507856071</v>
-      </c>
-      <c r="K39" s="21">
+        <v>8129.180507856179</v>
+      </c>
+      <c r="K39" s="21" t="n">
         <f>K36*C7</f>
-        <v>8535.6395393055864</v>
-      </c>
-      <c r="L39" s="21">
+        <v>8535.639539305703</v>
+      </c>
+      <c r="L39" s="21" t="n">
         <f>L36*C7</f>
-        <v>8962.4215226304132</v>
+        <v>8962.421522630551</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="18"/>
-      <c r="C40" s="20">
+      <c r="C40" s="20" t="n">
         <f>(C39-L19)/L19</f>
         <v>-0.36732960502194284</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="20" t="n">
         <f>(D39-C39)/C39</f>
-        <v>8.3200000226499857E-2</v>
-      </c>
-      <c r="E40" s="20">
+        <v>0.08320000022649986</v>
+      </c>
+      <c r="E40" s="20" t="n">
         <f t="shared" ref="E40:L40" si="6">(E39-D39)/D39</f>
-        <v>6.719999760389167E-2</v>
-      </c>
-      <c r="F40" s="20">
+        <v>0.06719999760389167</v>
+      </c>
+      <c r="F40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>5.0000000745055562E-2</v>
-      </c>
-      <c r="G40" s="20">
+        <v>0.05000000074506161</v>
+      </c>
+      <c r="G40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>5.0000000745058094E-2</v>
-      </c>
-      <c r="H40" s="20">
+        <v>0.0500000007450603</v>
+      </c>
+      <c r="H40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>5.0000000745058122E-2</v>
-      </c>
-      <c r="I40" s="20">
+        <v>0.05000000074505983</v>
+      </c>
+      <c r="I40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>5.0000000745057997E-2</v>
-      </c>
-      <c r="J40" s="20">
+        <v>0.05000000074505917</v>
+      </c>
+      <c r="J40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="K40" s="20">
+        <v>0.05000000074506076</v>
+      </c>
+      <c r="K40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>5.0000000745058101E-2</v>
-      </c>
-      <c r="L40" s="20">
+        <v>0.0500000007450585</v>
+      </c>
+      <c r="L40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>5.0000000745058115E-2</v>
+        <v>0.050000000745060044</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -20955,177 +20964,177 @@
       <c r="B42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="21" t="n">
         <f>C39*C8</f>
-        <v>6219.6363048613975</v>
-      </c>
-      <c r="D42" s="21">
+        <v>6219.636304861398</v>
+      </c>
+      <c r="D42" s="21" t="n">
         <f>D39*C8</f>
-        <v>6737.1100468346194</v>
-      </c>
-      <c r="E42" s="21">
+        <v>6737.110046834619</v>
+      </c>
+      <c r="E42" s="21" t="n">
         <f>E39*C8</f>
         <v>7189.8438258390615</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="21" t="n">
         <f>F39*C8</f>
-        <v>7549.3360224878361</v>
-      </c>
-      <c r="G42" s="21">
+        <v>7549.336022487889</v>
+      </c>
+      <c r="G42" s="21" t="n">
         <f>G39*C8</f>
-        <v>7926.8028292369218</v>
-      </c>
-      <c r="H42" s="21">
+        <v>7926.802829236987</v>
+      </c>
+      <c r="H42" s="21" t="n">
         <f>H39*C8</f>
-        <v>8323.1429766046967</v>
-      </c>
-      <c r="I42" s="21">
+        <v>8323.142976604788</v>
+      </c>
+      <c r="I42" s="21" t="n">
         <f>I39*C8</f>
-        <v>8739.3001316361569</v>
-      </c>
-      <c r="J42" s="21">
+        <v>8739.300131636262</v>
+      </c>
+      <c r="J42" s="21" t="n">
         <f>J39*C8</f>
-        <v>9176.2651447292501</v>
-      </c>
-      <c r="K42" s="21">
+        <v>9176.265144729381</v>
+      </c>
+      <c r="K42" s="21" t="n">
         <f>K39*C8</f>
-        <v>9635.078408802563</v>
-      </c>
-      <c r="L42" s="21">
+        <v>9635.078408802701</v>
+      </c>
+      <c r="L42" s="21" t="n">
         <f>L39*C8</f>
-        <v>10116.832336421385</v>
+        <v>10116.832336421548</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="20" t="n">
         <f>(C42-L22)/L22</f>
-        <v>4.9550507064022614E-2</v>
-      </c>
-      <c r="D43" s="20">
+        <v>0.049550507064022614</v>
+      </c>
+      <c r="D43" s="20" t="n">
         <f>(D42-C42)/C42</f>
-        <v>8.3200000226500953E-2</v>
-      </c>
-      <c r="E43" s="20">
+        <v>0.08320000022650095</v>
+      </c>
+      <c r="E43" s="20" t="n">
         <f t="shared" ref="E43:L43" si="7">(E42-D42)/D42</f>
-        <v>6.7199997603891823E-2</v>
-      </c>
-      <c r="F43" s="20">
+        <v>0.06719999760389182</v>
+      </c>
+      <c r="F43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>5.0000000745053938E-2</v>
-      </c>
-      <c r="G43" s="20">
+        <v>0.050000000745061245</v>
+      </c>
+      <c r="G43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>5.0000000745058087E-2</v>
-      </c>
-      <c r="H43" s="20">
+        <v>0.050000000745059364</v>
+      </c>
+      <c r="H43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>5.0000000745058129E-2</v>
-      </c>
-      <c r="I43" s="20">
+        <v>0.050000000745060856</v>
+      </c>
+      <c r="I43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>5.0000000745058136E-2</v>
-      </c>
-      <c r="J43" s="20">
+        <v>0.05000000074505935</v>
+      </c>
+      <c r="J43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>5.0000000745057976E-2</v>
-      </c>
-      <c r="K43" s="20">
+        <v>0.05000000074506035</v>
+      </c>
+      <c r="K43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>5.0000000745058067E-2</v>
-      </c>
-      <c r="L43" s="20">
+        <v>0.050000000745058136</v>
+      </c>
+      <c r="L43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>5.0000000745058143E-2</v>
+        <v>0.05000000074506005</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21">
-        <v>9106</v>
-      </c>
-      <c r="D45" s="21">
-        <v>10181</v>
-      </c>
-      <c r="E45" s="21">
-        <v>11444</v>
-      </c>
-      <c r="F45" s="21">
+      <c r="C45" s="60" t="n">
+        <v>9064.0</v>
+      </c>
+      <c r="D45" s="60" t="n">
+        <v>10092.0</v>
+      </c>
+      <c r="E45" s="60" t="n">
+        <v>11973.0</v>
+      </c>
+      <c r="F45" s="21" t="n">
         <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
-        <v>12016.2</v>
-      </c>
-      <c r="G45" s="21">
+        <v>13170.300017841208</v>
+      </c>
+      <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>12617.010000000002</v>
-      </c>
-      <c r="H45" s="21">
+        <v>14487.330039250648</v>
+      </c>
+      <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>13247.860500000003</v>
-      </c>
-      <c r="I45" s="21">
+        <v>15936.06306476352</v>
+      </c>
+      <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>13910.253525000004</v>
-      </c>
-      <c r="J45" s="21">
+        <v>17529.669394986497</v>
+      </c>
+      <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>14605.766201250004</v>
-      </c>
-      <c r="K45" s="21">
+        <v>19282.636360606462</v>
+      </c>
+      <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>15336.054511312504</v>
-      </c>
-      <c r="L45" s="21">
+        <v>21210.90002540059</v>
+      </c>
+      <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>16102.85723687813</v>
+        <v>23331.990059547446</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="20" t="n">
         <f>C10</f>
-        <v>0.05</v>
-      </c>
-      <c r="D46" s="20">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="D46" s="20" t="n">
         <f>C10</f>
-        <v>0.05</v>
-      </c>
-      <c r="E46" s="20">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="E46" s="20" t="n">
         <f>C10</f>
-        <v>0.05</v>
-      </c>
-      <c r="F46" s="20">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="F46" s="20" t="n">
         <f>C10</f>
-        <v>0.05</v>
-      </c>
-      <c r="G46" s="20">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="G46" s="20" t="n">
         <f>C10</f>
-        <v>0.05</v>
-      </c>
-      <c r="H46" s="20">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="H46" s="20" t="n">
         <f>C10</f>
-        <v>0.05</v>
-      </c>
-      <c r="I46" s="20">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="I46" s="20" t="n">
         <f>C10</f>
-        <v>0.05</v>
-      </c>
-      <c r="J46" s="20">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="J46" s="20" t="n">
         <f>C10</f>
-        <v>0.05</v>
-      </c>
-      <c r="K46" s="20">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="K46" s="20" t="n">
         <f>C10</f>
-        <v>0.05</v>
-      </c>
-      <c r="L46" s="20">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="L46" s="20" t="n">
         <f>C10</f>
-        <v>0.05</v>
+        <v>0.10000000149011612</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21175,43 +21184,43 @@
       <c r="B51" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="61" t="n">
         <f>POWER((1+C4),1)</f>
         <v>1.1145641207743031</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="61" t="n">
         <f>POWER((1+C4),2)</f>
         <v>1.2422531793173954</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="61" t="n">
         <f>POWER((1+C4),3)</f>
         <v>1.3845708225849755</v>
       </c>
-      <c r="F51" s="61">
+      <c r="F51" s="61" t="n">
         <f>POWER((1+C4),4)</f>
         <v>1.5431929615241768</v>
       </c>
-      <c r="G51" s="61">
+      <c r="G51" s="61" t="n">
         <f>POWER((1+C4),5)</f>
-        <v>1.7199875063462871</v>
-      </c>
-      <c r="H51" s="61">
+        <v>1.719987506346287</v>
+      </c>
+      <c r="H51" s="61" t="n">
         <f>POWER((1+C4),6)</f>
         <v>1.9170363627536355</v>
       </c>
-      <c r="I51" s="61">
+      <c r="I51" s="61" t="n">
         <f>POWER((1+C4),7)</f>
         <v>2.1366599481448736</v>
       </c>
-      <c r="J51" s="61">
+      <c r="J51" s="61" t="n">
         <f>POWER((1+C4),8)</f>
         <v>2.3814445164977593</v>
       </c>
-      <c r="K51" s="61">
+      <c r="K51" s="61" t="n">
         <f>POWER((1+C4),9)</f>
         <v>2.6542726137031103</v>
       </c>
-      <c r="L51" s="61">
+      <c r="L51" s="61" t="n">
         <f>POWER((1+C4),10)</f>
         <v>2.958357021987319</v>
       </c>
@@ -21233,45 +21242,45 @@
       <c r="B53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="21" t="n">
         <f t="shared" ref="C53:L53" si="9">C42/C51</f>
-        <v>5580.3306323377337</v>
-      </c>
-      <c r="D53" s="21">
+        <v>5580.330632337734</v>
+      </c>
+      <c r="D53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>5423.2986954692788</v>
-      </c>
-      <c r="E53" s="21">
+        <v>5423.298695469279</v>
+      </c>
+      <c r="E53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>5192.8321098199176</v>
-      </c>
-      <c r="F53" s="21">
+        <v>5192.832109819918</v>
+      </c>
+      <c r="F53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>4892.0233637091806</v>
-      </c>
-      <c r="G53" s="21">
+        <v>4892.023363709206</v>
+      </c>
+      <c r="G53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>4608.6397720850709</v>
-      </c>
-      <c r="H53" s="21">
+        <v>4608.639772085103</v>
+      </c>
+      <c r="H53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>4341.6719360760144</v>
-      </c>
-      <c r="I53" s="21">
+        <v>4341.671936076053</v>
+      </c>
+      <c r="I53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>4090.1689289509718</v>
-      </c>
-      <c r="J53" s="21">
+        <v>4090.1689289510273</v>
+      </c>
+      <c r="J53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>3853.2349089636596</v>
-      </c>
-      <c r="K53" s="21">
+        <v>3853.234908963713</v>
+      </c>
+      <c r="K53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>3630.0259284068702</v>
-      </c>
-      <c r="L53" s="21">
+        <v>3630.025928406922</v>
+      </c>
+      <c r="L53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>3419.7469275108847</v>
+        <v>3419.7469275109224</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -21291,9 +21300,9 @@
       <c r="B55" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C55" s="74" t="n">
         <f>POWER((1+C4),11)</f>
-        <v>3.2972785931477819</v>
+        <v>3.297278593147782</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
@@ -21350,18 +21359,18 @@
       <c r="B59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="25" t="n">
         <f>L53*(1+C5)/(C4-C5)</f>
-        <v>39136.66064485439</v>
+        <v>39136.66064485475</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" thickBot="1">
       <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="23" t="n">
         <f>C59/C55</f>
-        <v>11869.382443505376</v>
+        <v>11869.382443505508</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15" thickTop="1"/>
@@ -21369,9 +21378,9 @@
       <c r="B62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="71">
+      <c r="C62" s="71" t="n">
         <f>(SUM(C53:L53)+C59)</f>
-        <v>84168.633848183963</v>
+        <v>84168.63384818463</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="15" thickTop="1">
@@ -21381,9 +21390,9 @@
       <c r="B64" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="70">
+      <c r="C64" s="70" t="n">
         <f>C62/(C11/1000000)</f>
-        <v>92.880261436262813</v>
+        <v>92.88026143626351</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="30"/>
@@ -21420,18 +21429,18 @@
       <c r="B69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="25">
+      <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>209337.14407941568</v>
+        <v>326647.8608336636</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
       <c r="B70" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>63487.854655183917</v>
+        <v>99065.8968012243</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21442,9 +21451,9 @@
       <c r="B72" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="72">
+      <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>108519.8278585135</v>
+        <v>144097.87000455416</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21452,9 +21461,9 @@
       <c r="B74" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="70">
+      <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>119.75185436295926</v>
+        <v>159.01229741440505</v>
       </c>
     </row>
   </sheetData>
@@ -21478,7 +21487,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="29.90625"/>
   </cols>
   <sheetData>
     <row r="13" spans="2:3" ht="20" thickBot="1">
@@ -21492,15 +21501,15 @@
       <c r="B15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="78">
-        <v>7.5100002288818359</v>
+      <c r="C15" s="78" t="n">
+        <v>7.510000228881836</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>7</v>
       </c>
     </row>
@@ -21508,15 +21517,15 @@
       <c r="B17" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="78">
-        <v>10</v>
+      <c r="C17" s="78" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>4.42</v>
       </c>
       <c r="D18" s="77" t="s">
@@ -21530,7 +21539,7 @@
       <c r="B20" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="79" t="n">
         <f>(C15*(C16+C17)*4.4)/C18</f>
         <v>127.09231156569231</v>
       </c>
@@ -21550,24 +21559,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.54296875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="6.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="117">
-        <v>4.9600000381469727</v>
+      <c r="C2" s="117" t="n">
+        <v>4.960000038146973</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1"/>
@@ -21643,120 +21652,120 @@
       <c r="O6" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="106">
+      <c r="P6" s="106" t="n">
         <f>C2</f>
-        <v>4.9600000381469727</v>
+        <v>4.960000038146973</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1">
       <c r="B7" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="90" t="n">
         <f>P6*(1+P7)</f>
-        <v>5.0964000384569221</v>
-      </c>
-      <c r="D7" s="90">
+        <v>5.096400038456922</v>
+      </c>
+      <c r="D7" s="90" t="n">
         <f>C7*(1+P7)</f>
-        <v>5.2365510387550707</v>
-      </c>
-      <c r="E7" s="90">
+        <v>5.236551038755071</v>
+      </c>
+      <c r="E7" s="90" t="n">
         <f>D7*(1+P7)</f>
-        <v>5.3805561915405358</v>
-      </c>
-      <c r="F7" s="90">
+        <v>5.380556191540536</v>
+      </c>
+      <c r="F7" s="90" t="n">
         <f>E7*(1+P7)</f>
-        <v>5.5285214860061478</v>
-      </c>
-      <c r="G7" s="90">
+        <v>5.528521486006148</v>
+      </c>
+      <c r="G7" s="90" t="n">
         <f>F7*(1+P7)</f>
         <v>5.680555826047514</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="90" t="n">
         <f>G7*(1+P7)</f>
-        <v>5.8367711104173567</v>
-      </c>
-      <c r="I7" s="90">
+        <v>5.836771110417357</v>
+      </c>
+      <c r="I7" s="90" t="n">
         <f>H7*(1+P7)</f>
-        <v>5.9972823150841004</v>
-      </c>
-      <c r="J7" s="90">
+        <v>5.9972823150841</v>
+      </c>
+      <c r="J7" s="90" t="n">
         <f>I7*(1+P7)</f>
-        <v>6.1622075778552574</v>
-      </c>
-      <c r="K7" s="90">
+        <v>6.162207577855257</v>
+      </c>
+      <c r="K7" s="90" t="n">
         <f>J7*(1+P7)</f>
-        <v>6.3316682853280488</v>
-      </c>
-      <c r="L7" s="90">
+        <v>6.331668285328049</v>
+      </c>
+      <c r="L7" s="90" t="n">
         <f>K7*(1+P7)</f>
-        <v>6.5057891622310891</v>
-      </c>
-      <c r="M7" s="159">
+        <v>6.505789162231089</v>
+      </c>
+      <c r="M7" s="159" t="n">
         <f>L7*(1+P7)/(P8-P7)</f>
-        <v>76.779025531204013</v>
+        <v>76.77902553120401</v>
       </c>
       <c r="N7" s="160"/>
       <c r="O7" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="104">
-        <v>2.7499999850988388E-2</v>
+      <c r="P7" s="104" t="n">
+        <v>0.027499999850988388</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
       <c r="B8" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="90" t="n">
         <f>C7/(1+P8)</f>
-        <v>4.5725498815773777</v>
-      </c>
-      <c r="D8" s="90">
+        <v>4.572549881577378</v>
+      </c>
+      <c r="D8" s="90" t="n">
         <f>D7/(1+P8)^2</f>
-        <v>4.2153653747398563</v>
-      </c>
-      <c r="E8" s="90">
+        <v>4.215365374739856</v>
+      </c>
+      <c r="E8" s="90" t="n">
         <f>E7/(1+P8)^3</f>
         <v>3.8860823179092385</v>
       </c>
-      <c r="F8" s="90">
+      <c r="F8" s="90" t="n">
         <f>F7/(1+P8)^4</f>
-        <v>3.5825211907043322</v>
-      </c>
-      <c r="G8" s="90">
+        <v>3.582521190704332</v>
+      </c>
+      <c r="G8" s="90" t="n">
         <f>G7/(1+P8)^5</f>
-        <v>3.3026727258702699</v>
-      </c>
-      <c r="H8" s="90">
+        <v>3.30267272587027</v>
+      </c>
+      <c r="H8" s="90" t="n">
         <f>H7/(1+P8)^6</f>
-        <v>3.0446846099639941</v>
-      </c>
-      <c r="I8" s="90">
+        <v>3.044684609963994</v>
+      </c>
+      <c r="I8" s="90" t="n">
         <f>I7/(1+P8)^7</f>
         <v>2.8068492229150315</v>
       </c>
-      <c r="J8" s="90">
+      <c r="J8" s="90" t="n">
         <f>J7/(1+P8)^8</f>
         <v>2.5875923353098433</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="90" t="n">
         <f>K7/(1+P8)^9</f>
-        <v>2.3854626885873711</v>
-      </c>
-      <c r="L8" s="90">
+        <v>2.385462688587371</v>
+      </c>
+      <c r="L8" s="90" t="n">
         <f>L7/(1+P8)^10</f>
-        <v>2.1991223891769258</v>
-      </c>
-      <c r="M8" s="159">
+        <v>2.199122389176926</v>
+      </c>
+      <c r="M8" s="159" t="n">
         <f>M7/POWER((1+P8),10)</f>
-        <v>25.953265599980408</v>
+        <v>25.95326559998041</v>
       </c>
       <c r="N8" s="160"/>
       <c r="O8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="105">
+      <c r="P8" s="105" t="n">
         <f>WACC!$C$25</f>
         <v>0.11456412077430318</v>
       </c>
@@ -21769,9 +21778,9 @@
       <c r="B10" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="95" t="n">
         <f>SUM(C8:N8)*(1-P9)</f>
-        <v>58.536168336734598</v>
+        <v>58.5361683367346</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -21864,56 +21873,56 @@
       <c r="O15" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="106">
+      <c r="P15" s="106" t="n">
         <f>C2</f>
-        <v>4.9600000381469727</v>
+        <v>4.960000038146973</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" thickBot="1">
       <c r="B16" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="90" t="n">
         <f>P15*(1+P16)</f>
         <v>5.1088000359654515</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="90" t="n">
         <f>C16*(1+P16)</f>
         <v>5.2620640336187074</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="90" t="n">
         <f>D16*(1+P16)</f>
         <v>5.4199259510987945</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="90" t="n">
         <f>E16*(1+P16)</f>
-        <v>5.5825237259974223</v>
-      </c>
-      <c r="G16" s="90">
+        <v>5.582523725997422</v>
+      </c>
+      <c r="G16" s="90" t="n">
         <f>F16*(1+P16)</f>
-        <v>5.7499994340339811</v>
-      </c>
-      <c r="H16" s="90">
+        <v>5.749999434033981</v>
+      </c>
+      <c r="H16" s="90" t="n">
         <f>G16*(1+P16)</f>
-        <v>5.9224994131993371</v>
-      </c>
-      <c r="I16" s="90">
+        <v>5.922499413199337</v>
+      </c>
+      <c r="I16" s="90" t="n">
         <f>H16*(1+P16)</f>
-        <v>6.1001743916239883</v>
-      </c>
-      <c r="J16" s="90">
+        <v>6.100174391623988</v>
+      </c>
+      <c r="J16" s="90" t="n">
         <f>I16*(1+P16)</f>
-        <v>6.2831796192822376</v>
-      </c>
-      <c r="K16" s="90">
+        <v>6.283179619282238</v>
+      </c>
+      <c r="K16" s="90" t="n">
         <f>J16*(1+P16)</f>
-        <v>6.4716750036475208</v>
-      </c>
-      <c r="L16" s="90">
+        <v>6.471675003647521</v>
+      </c>
+      <c r="L16" s="90" t="n">
         <f>K16*(1+P16)</f>
         <v>6.665825249417364</v>
       </c>
-      <c r="M16" s="159">
+      <c r="M16" s="159" t="n">
         <f>L16*(1+P16)/(P17-P16)</f>
         <v>81.19046097945126</v>
       </c>
@@ -21921,55 +21930,55 @@
       <c r="O16" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="104">
-        <v>2.9999999329447746E-2</v>
+      <c r="P16" s="104" t="n">
+        <v>0.029999999329447746</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="90" t="n">
         <f>C16/(1+P17)</f>
-        <v>4.5836753047606722</v>
-      </c>
-      <c r="D17" s="90">
+        <v>4.583675304760672</v>
+      </c>
+      <c r="D17" s="90" t="n">
         <f>D16/(1+P17)^2</f>
-        <v>4.2359030519931027</v>
-      </c>
-      <c r="E17" s="90">
+        <v>4.235903051993103</v>
+      </c>
+      <c r="E17" s="90" t="n">
         <f>E16/(1+P17)^3</f>
-        <v>3.9145169482770421</v>
-      </c>
-      <c r="F17" s="90">
+        <v>3.914516948277042</v>
+      </c>
+      <c r="F17" s="90" t="n">
         <f>F16/(1+P17)^4</f>
         <v>3.6175150257837334</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="90" t="n">
         <f>G16/(1+P17)^5</f>
-        <v>3.3430472098303232</v>
-      </c>
-      <c r="H17" s="90">
+        <v>3.343047209830323</v>
+      </c>
+      <c r="H17" s="90" t="n">
         <f>H16/(1+P17)^6</f>
         <v>3.0894037944550172</v>
       </c>
-      <c r="I17" s="90">
+      <c r="I17" s="90" t="n">
         <f>I16/(1+P17)^7</f>
-        <v>2.8550047923725042</v>
-      </c>
-      <c r="J17" s="90">
+        <v>2.855004792372504</v>
+      </c>
+      <c r="J17" s="90" t="n">
         <f>J16/(1+P17)^8</f>
-        <v>2.6383900929686641</v>
-      </c>
-      <c r="K17" s="90">
+        <v>2.638390092968664</v>
+      </c>
+      <c r="K17" s="90" t="n">
         <f>K16/(1+P17)^9</f>
-        <v>2.4382103670272808</v>
-      </c>
-      <c r="L17" s="90">
+        <v>2.438210367027281</v>
+      </c>
+      <c r="L17" s="90" t="n">
         <f>L16/(1+P17)^10</f>
         <v>2.2532186615324385</v>
       </c>
-      <c r="M17" s="159">
+      <c r="M17" s="159" t="n">
         <f>M16/POWER((1+P17),10)</f>
         <v>27.44444310677229</v>
       </c>
@@ -21977,7 +21986,7 @@
       <c r="O17" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="105">
+      <c r="P17" s="105" t="n">
         <f>WACC!$C$25</f>
         <v>0.11456412077430318</v>
       </c>
@@ -21990,9 +21999,9 @@
       <c r="B19" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="95">
+      <c r="C19" s="95" t="n">
         <f>SUM(C17:N17)*(1-P18)</f>
-        <v>60.413328355773103</v>
+        <v>60.4133283557731</v>
       </c>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
@@ -22079,120 +22088,120 @@
       <c r="O24" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="106">
+      <c r="P24" s="106" t="n">
         <f>C2</f>
-        <v>4.9600000381469727</v>
+        <v>4.960000038146973</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" thickBot="1">
       <c r="B25" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="90" t="n">
         <f>P24*(1+P25)</f>
-        <v>5.1336000402212036</v>
-      </c>
-      <c r="D25" s="90">
+        <v>5.133600040221204</v>
+      </c>
+      <c r="D25" s="90" t="n">
         <f>C25*(1+P25)</f>
-        <v>5.3132760423939001</v>
-      </c>
-      <c r="E25" s="90">
+        <v>5.3132760423939</v>
+      </c>
+      <c r="E25" s="90" t="n">
         <f>D25*(1+P25)</f>
-        <v>5.4992407046694174</v>
-      </c>
-      <c r="F25" s="90">
+        <v>5.499240704669417</v>
+      </c>
+      <c r="F25" s="90" t="n">
         <f>E25*(1+P25)</f>
-        <v>5.6917141301522918</v>
-      </c>
-      <c r="G25" s="90">
+        <v>5.691714130152292</v>
+      </c>
+      <c r="G25" s="90" t="n">
         <f>F25*(1+P25)</f>
-        <v>5.8909241255557427</v>
-      </c>
-      <c r="H25" s="90">
+        <v>5.890924125555743</v>
+      </c>
+      <c r="H25" s="90" t="n">
         <f>G25*(1+P25)</f>
-        <v>6.0971064708279972</v>
-      </c>
-      <c r="I25" s="90">
+        <v>6.097106470827997</v>
+      </c>
+      <c r="I25" s="90" t="n">
         <f>H25*(1+P25)</f>
-        <v>6.3105051982155098</v>
-      </c>
-      <c r="J25" s="90">
+        <v>6.31050519821551</v>
+      </c>
+      <c r="J25" s="90" t="n">
         <f>I25*(1+P25)</f>
         <v>6.5313728810933815</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="90" t="n">
         <f>J25*(1+P25)</f>
         <v>6.7599709329048885</v>
       </c>
-      <c r="L25" s="90">
+      <c r="L25" s="90" t="n">
         <f>K25*(1+P25)</f>
-        <v>6.9965699165638648</v>
-      </c>
-      <c r="M25" s="159">
+        <v>6.996569916563865</v>
+      </c>
+      <c r="M25" s="159" t="n">
         <f>L25*(1+P25)/(P26-P25)</f>
-        <v>91.014012443999292</v>
+        <v>91.01401244399929</v>
       </c>
       <c r="N25" s="160"/>
       <c r="O25" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P25" s="104">
-        <v>3.5000000149011612E-2</v>
+      <c r="P25" s="104" t="n">
+        <v>0.03500000014901161</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1">
       <c r="B26" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="90" t="n">
         <f>C25/(1+P26)</f>
-        <v>4.6059261594163212</v>
-      </c>
-      <c r="D26" s="90">
+        <v>4.605926159416321</v>
+      </c>
+      <c r="D26" s="90" t="n">
         <f>D25/(1+P26)^2</f>
-        <v>4.2771281497653062</v>
-      </c>
-      <c r="E26" s="90">
+        <v>4.277128149765306</v>
+      </c>
+      <c r="E26" s="90" t="n">
         <f>E25/(1+P26)^3</f>
-        <v>3.9718016694894609</v>
-      </c>
-      <c r="F26" s="90">
+        <v>3.971801669489461</v>
+      </c>
+      <c r="F26" s="90" t="n">
         <f>F25/(1+P26)^4</f>
-        <v>3.6882711832295429</v>
-      </c>
-      <c r="G26" s="90">
+        <v>3.688271183229543</v>
+      </c>
+      <c r="G26" s="90" t="n">
         <f>G25/(1+P26)^5</f>
-        <v>3.4249807651624322</v>
-      </c>
-      <c r="H26" s="90">
+        <v>3.424980765162432</v>
+      </c>
+      <c r="H26" s="90" t="n">
         <f>H25/(1+P26)^6</f>
-        <v>3.1804855605712601</v>
-      </c>
-      <c r="I26" s="90">
+        <v>3.18048556057126</v>
+      </c>
+      <c r="I26" s="90" t="n">
         <f>I25/(1+P26)^7</f>
         <v>2.9534438569387387</v>
       </c>
-      <c r="J26" s="90">
+      <c r="J26" s="90" t="n">
         <f>J25/(1+P26)^8</f>
-        <v>2.7426097210522702</v>
-      </c>
-      <c r="K26" s="90">
+        <v>2.74260972105227</v>
+      </c>
+      <c r="K26" s="90" t="n">
         <f>K25/(1+P26)^9</f>
         <v>2.546826161715813</v>
       </c>
-      <c r="L26" s="90">
+      <c r="L26" s="90" t="n">
         <f>L25/(1+P26)^10</f>
-        <v>2.3650187805472549</v>
-      </c>
-      <c r="M26" s="159">
+        <v>2.365018780547255</v>
+      </c>
+      <c r="M26" s="159" t="n">
         <f>M25/POWER((1+P26),10)</f>
-        <v>30.765053631984991</v>
+        <v>30.76505363198499</v>
       </c>
       <c r="N26" s="160"/>
       <c r="O26" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="105">
+      <c r="P26" s="105" t="n">
         <f>WACC!$C$25</f>
         <v>0.11456412077430318</v>
       </c>
@@ -22205,9 +22214,9 @@
       <c r="B28" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="95">
+      <c r="C28" s="95" t="n">
         <f>SUM(C26:N26)*(1-P27)</f>
-        <v>64.521545639873395</v>
+        <v>64.5215456398734</v>
       </c>
       <c r="D28" s="96"/>
       <c r="E28" s="96"/>
@@ -22250,12 +22259,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="110" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="11.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6328125" style="110" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="110" width="10.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="110" width="13.26953125"/>
+    <col min="5" max="11" bestFit="true" customWidth="true" style="110" width="11.26953125"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="110" width="11.6328125"/>
+    <col min="19" max="19" customWidth="true" width="11.7265625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.5" thickBot="1">
@@ -22298,38 +22307,38 @@
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="120">
-        <v>12825</v>
-      </c>
-      <c r="D3" s="110">
-        <v>12205</v>
-      </c>
-      <c r="E3" s="110">
-        <v>13045</v>
-      </c>
-      <c r="F3" s="110">
-        <v>13000</v>
-      </c>
-      <c r="G3" s="110">
-        <v>13370</v>
-      </c>
-      <c r="H3" s="110">
-        <v>14961</v>
-      </c>
-      <c r="I3" s="110">
-        <v>15784</v>
-      </c>
-      <c r="J3" s="110">
-        <v>14383</v>
-      </c>
-      <c r="K3" s="110">
-        <v>14461</v>
-      </c>
-      <c r="L3" s="110">
-        <v>18344</v>
-      </c>
-      <c r="M3" s="110">
-        <v>20028</v>
+      <c r="C3" s="120" t="n">
+        <v>12825.0</v>
+      </c>
+      <c r="D3" s="110" t="n">
+        <v>12205.0</v>
+      </c>
+      <c r="E3" s="110" t="n">
+        <v>13045.0</v>
+      </c>
+      <c r="F3" s="110" t="n">
+        <v>13000.0</v>
+      </c>
+      <c r="G3" s="110" t="n">
+        <v>13370.0</v>
+      </c>
+      <c r="H3" s="110" t="n">
+        <v>14961.0</v>
+      </c>
+      <c r="I3" s="110" t="n">
+        <v>15784.0</v>
+      </c>
+      <c r="J3" s="110" t="n">
+        <v>14383.0</v>
+      </c>
+      <c r="K3" s="110" t="n">
+        <v>14461.0</v>
+      </c>
+      <c r="L3" s="110" t="n">
+        <v>18344.0</v>
+      </c>
+      <c r="M3" s="110" t="n">
+        <v>20028.0</v>
       </c>
       <c r="Q3" s="107"/>
     </row>
@@ -22338,45 +22347,45 @@
         <v>27</v>
       </c>
       <c r="C4" s="113"/>
-      <c r="D4" s="121">
+      <c r="D4" s="121" t="n">
         <f t="shared" ref="D4:M4" si="0">(D3-C3)/C3</f>
-        <v>-4.8343079922027292E-2</v>
-      </c>
-      <c r="E4" s="121">
+        <v>-0.04834307992202729</v>
+      </c>
+      <c r="E4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>6.8824252355591975E-2</v>
-      </c>
-      <c r="F4" s="121">
+        <v>0.06882425235559197</v>
+      </c>
+      <c r="F4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-3.4495975469528554E-3</v>
-      </c>
-      <c r="G4" s="121">
+        <v>-0.0034495975469528554</v>
+      </c>
+      <c r="G4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>2.8461538461538462E-2</v>
-      </c>
-      <c r="H4" s="121">
+        <v>0.02846153846153846</v>
+      </c>
+      <c r="H4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.11899775617053104</v>
       </c>
-      <c r="I4" s="121">
+      <c r="I4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>5.5009691865517012E-2</v>
-      </c>
-      <c r="J4" s="121">
+        <v>0.05500969186551701</v>
+      </c>
+      <c r="J4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-8.8760770400405475E-2</v>
-      </c>
-      <c r="K4" s="121">
+        <v>-0.08876077040040548</v>
+      </c>
+      <c r="K4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>5.4230689007856497E-3</v>
-      </c>
-      <c r="L4" s="121">
+        <v>0.00542306890078565</v>
+      </c>
+      <c r="L4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.26851531705967774</v>
       </c>
-      <c r="M4" s="121">
+      <c r="M4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>9.1801133885739211E-2</v>
+        <v>0.09180113388573921</v>
       </c>
       <c r="Q4" s="107"/>
     </row>
@@ -22399,38 +22408,38 @@
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="110">
-        <v>1728</v>
-      </c>
-      <c r="D6" s="110">
-        <v>2125</v>
-      </c>
-      <c r="E6" s="110">
-        <v>2777</v>
-      </c>
-      <c r="F6" s="110">
-        <v>2986</v>
-      </c>
-      <c r="G6" s="110">
-        <v>3595</v>
-      </c>
-      <c r="H6" s="110">
-        <v>3648</v>
-      </c>
-      <c r="I6" s="110">
-        <v>5537</v>
-      </c>
-      <c r="J6" s="110">
-        <v>4985</v>
-      </c>
-      <c r="K6" s="110">
-        <v>5568</v>
-      </c>
-      <c r="L6" s="110">
-        <v>7736</v>
-      </c>
-      <c r="M6" s="110">
-        <v>8709</v>
+      <c r="C6" s="110" t="n">
+        <v>1728.0</v>
+      </c>
+      <c r="D6" s="110" t="n">
+        <v>2125.0</v>
+      </c>
+      <c r="E6" s="110" t="n">
+        <v>2777.0</v>
+      </c>
+      <c r="F6" s="110" t="n">
+        <v>2986.0</v>
+      </c>
+      <c r="G6" s="110" t="n">
+        <v>3595.0</v>
+      </c>
+      <c r="H6" s="110" t="n">
+        <v>3648.0</v>
+      </c>
+      <c r="I6" s="110" t="n">
+        <v>5537.0</v>
+      </c>
+      <c r="J6" s="110" t="n">
+        <v>4985.0</v>
+      </c>
+      <c r="K6" s="110" t="n">
+        <v>5568.0</v>
+      </c>
+      <c r="L6" s="110" t="n">
+        <v>7736.0</v>
+      </c>
+      <c r="M6" s="110" t="n">
+        <v>8709.0</v>
       </c>
       <c r="Q6" s="107"/>
     </row>
@@ -22439,43 +22448,43 @@
         <v>27</v>
       </c>
       <c r="C7" s="113"/>
-      <c r="D7" s="121">
+      <c r="D7" s="121" t="n">
         <f t="shared" ref="D7" si="1">(D6-C6)/C6</f>
         <v>0.22974537037037038</v>
       </c>
-      <c r="E7" s="121">
+      <c r="E7" s="121" t="n">
         <f t="shared" ref="E7" si="2">(E6-D6)/D6</f>
-        <v>0.30682352941176472</v>
-      </c>
-      <c r="F7" s="121">
+        <v>0.3068235294117647</v>
+      </c>
+      <c r="F7" s="121" t="n">
         <f t="shared" ref="F7" si="3">(F6-E6)/E6</f>
-        <v>7.5261073100468132E-2</v>
-      </c>
-      <c r="G7" s="121">
+        <v>0.07526107310046813</v>
+      </c>
+      <c r="G7" s="121" t="n">
         <f t="shared" ref="G7" si="4">(G6-F6)/F6</f>
         <v>0.20395177494976557</v>
       </c>
-      <c r="H7" s="121">
+      <c r="H7" s="121" t="n">
         <f t="shared" ref="H7" si="5">(H6-G6)/G6</f>
-        <v>1.474269819193324E-2</v>
-      </c>
-      <c r="I7" s="121">
+        <v>0.01474269819193324</v>
+      </c>
+      <c r="I7" s="121" t="n">
         <f t="shared" ref="I7" si="6">(I6-H6)/H6</f>
         <v>0.5178179824561403</v>
       </c>
-      <c r="J7" s="121">
+      <c r="J7" s="121" t="n">
         <f t="shared" ref="J7" si="7">(J6-I6)/I6</f>
-        <v>-9.9692974534946716E-2</v>
-      </c>
-      <c r="K7" s="121">
+        <v>-0.09969297453494672</v>
+      </c>
+      <c r="K7" s="121" t="n">
         <f t="shared" ref="K7" si="8">(K6-J6)/J6</f>
         <v>0.11695085255767301</v>
       </c>
-      <c r="L7" s="121">
+      <c r="L7" s="121" t="n">
         <f t="shared" ref="L7" si="9">(L6-K6)/K6</f>
         <v>0.38936781609195403</v>
       </c>
-      <c r="M7" s="121">
+      <c r="M7" s="121" t="n">
         <f t="shared" ref="M7" si="10">(M6-L6)/L6</f>
         <v>0.12577559462254395</v>
       </c>
@@ -22498,38 +22507,38 @@
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="110">
-        <v>3374</v>
-      </c>
-      <c r="D9" s="110">
-        <v>4129</v>
-      </c>
-      <c r="E9" s="110">
-        <v>5177</v>
-      </c>
-      <c r="F9" s="110">
-        <v>5455</v>
-      </c>
-      <c r="G9" s="110">
-        <v>5810</v>
-      </c>
-      <c r="H9" s="110">
-        <v>6987</v>
-      </c>
-      <c r="I9" s="110">
-        <v>7667</v>
-      </c>
-      <c r="J9" s="110">
-        <v>6773</v>
-      </c>
-      <c r="K9" s="110">
-        <v>6886</v>
-      </c>
-      <c r="L9" s="110">
-        <v>9914</v>
-      </c>
-      <c r="M9" s="110">
-        <v>11119</v>
+      <c r="C9" s="110" t="n">
+        <v>3374.0</v>
+      </c>
+      <c r="D9" s="110" t="n">
+        <v>4129.0</v>
+      </c>
+      <c r="E9" s="110" t="n">
+        <v>5177.0</v>
+      </c>
+      <c r="F9" s="110" t="n">
+        <v>5455.0</v>
+      </c>
+      <c r="G9" s="110" t="n">
+        <v>5810.0</v>
+      </c>
+      <c r="H9" s="110" t="n">
+        <v>6987.0</v>
+      </c>
+      <c r="I9" s="110" t="n">
+        <v>7667.0</v>
+      </c>
+      <c r="J9" s="110" t="n">
+        <v>6773.0</v>
+      </c>
+      <c r="K9" s="110" t="n">
+        <v>6886.0</v>
+      </c>
+      <c r="L9" s="110" t="n">
+        <v>9914.0</v>
+      </c>
+      <c r="M9" s="110" t="n">
+        <v>11119.0</v>
       </c>
       <c r="Q9" s="107"/>
     </row>
@@ -22538,43 +22547,43 @@
         <v>27</v>
       </c>
       <c r="C10" s="113"/>
-      <c r="D10" s="121">
+      <c r="D10" s="121" t="n">
         <f t="shared" ref="D10" si="11">(D9-C9)/C9</f>
-        <v>0.22377000592768229</v>
-      </c>
-      <c r="E10" s="121">
+        <v>0.2237700059276823</v>
+      </c>
+      <c r="E10" s="121" t="n">
         <f t="shared" ref="E10" si="12">(E9-D9)/D9</f>
         <v>0.25381448292564784</v>
       </c>
-      <c r="F10" s="121">
+      <c r="F10" s="121" t="n">
         <f t="shared" ref="F10" si="13">(F9-E9)/E9</f>
-        <v>5.3699053505891443E-2</v>
-      </c>
-      <c r="G10" s="121">
+        <v>0.05369905350589144</v>
+      </c>
+      <c r="G10" s="121" t="n">
         <f t="shared" ref="G10" si="14">(G9-F9)/F9</f>
-        <v>6.5077910174152154E-2</v>
-      </c>
-      <c r="H10" s="121">
+        <v>0.06507791017415215</v>
+      </c>
+      <c r="H10" s="121" t="n">
         <f t="shared" ref="H10" si="15">(H9-G9)/G9</f>
-        <v>0.20258175559380379</v>
-      </c>
-      <c r="I10" s="121">
+        <v>0.2025817555938038</v>
+      </c>
+      <c r="I10" s="121" t="n">
         <f t="shared" ref="I10" si="16">(I9-H9)/H9</f>
-        <v>9.7323600973236016E-2</v>
-      </c>
-      <c r="J10" s="121">
+        <v>0.09732360097323602</v>
+      </c>
+      <c r="J10" s="121" t="n">
         <f t="shared" ref="J10" si="17">(J9-I9)/I9</f>
         <v>-0.11660362592930743</v>
       </c>
-      <c r="K10" s="121">
+      <c r="K10" s="121" t="n">
         <f t="shared" ref="K10" si="18">(K9-J9)/J9</f>
-        <v>1.6683891923815149E-2</v>
-      </c>
-      <c r="L10" s="121">
+        <v>0.01668389192381515</v>
+      </c>
+      <c r="L10" s="121" t="n">
         <f t="shared" ref="L10" si="19">(L9-K9)/K9</f>
         <v>0.43973279117049086</v>
       </c>
-      <c r="M10" s="121">
+      <c r="M10" s="121" t="n">
         <f t="shared" ref="M10" si="20">(M9-L9)/L9</f>
         <v>0.12154528948961066</v>
       </c>
@@ -22589,38 +22598,38 @@
       <c r="B12" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="110">
-        <v>1146</v>
-      </c>
-      <c r="D12" s="110">
-        <v>1113</v>
-      </c>
-      <c r="E12" s="110">
-        <v>1080</v>
-      </c>
-      <c r="F12" s="110">
-        <v>1043</v>
-      </c>
-      <c r="G12" s="110">
-        <v>1021</v>
-      </c>
-      <c r="H12" s="110">
-        <v>1012</v>
-      </c>
-      <c r="I12" s="110">
-        <v>990</v>
-      </c>
-      <c r="J12" s="110">
-        <v>952</v>
-      </c>
-      <c r="K12" s="110">
-        <v>921</v>
-      </c>
-      <c r="L12" s="110">
-        <v>923</v>
-      </c>
-      <c r="M12" s="110">
-        <v>916</v>
+      <c r="C12" s="110" t="n">
+        <v>1146.0</v>
+      </c>
+      <c r="D12" s="110" t="n">
+        <v>1113.0</v>
+      </c>
+      <c r="E12" s="110" t="n">
+        <v>1080.0</v>
+      </c>
+      <c r="F12" s="110" t="n">
+        <v>1043.0</v>
+      </c>
+      <c r="G12" s="110" t="n">
+        <v>1021.0</v>
+      </c>
+      <c r="H12" s="110" t="n">
+        <v>1012.0</v>
+      </c>
+      <c r="I12" s="110" t="n">
+        <v>990.0</v>
+      </c>
+      <c r="J12" s="110" t="n">
+        <v>952.0</v>
+      </c>
+      <c r="K12" s="110" t="n">
+        <v>921.0</v>
+      </c>
+      <c r="L12" s="110" t="n">
+        <v>923.0</v>
+      </c>
+      <c r="M12" s="110" t="n">
+        <v>916.0</v>
       </c>
       <c r="Q12" s="107"/>
     </row>
@@ -22629,45 +22638,45 @@
         <v>27</v>
       </c>
       <c r="C13" s="113"/>
-      <c r="D13" s="121">
+      <c r="D13" s="121" t="n">
         <f t="shared" ref="D13" si="21">(D12-C12)/C12</f>
-        <v>-2.8795811518324606E-2</v>
-      </c>
-      <c r="E13" s="121">
+        <v>-0.028795811518324606</v>
+      </c>
+      <c r="E13" s="121" t="n">
         <f t="shared" ref="E13" si="22">(E12-D12)/D12</f>
-        <v>-2.9649595687331536E-2</v>
-      </c>
-      <c r="F13" s="121">
+        <v>-0.029649595687331536</v>
+      </c>
+      <c r="F13" s="121" t="n">
         <f t="shared" ref="F13" si="23">(F12-E12)/E12</f>
-        <v>-3.425925925925926E-2</v>
-      </c>
-      <c r="G13" s="121">
+        <v>-0.03425925925925926</v>
+      </c>
+      <c r="G13" s="121" t="n">
         <f t="shared" ref="G13" si="24">(G12-F12)/F12</f>
-        <v>-2.109300095877277E-2</v>
-      </c>
-      <c r="H13" s="121">
+        <v>-0.02109300095877277</v>
+      </c>
+      <c r="H13" s="121" t="n">
         <f t="shared" ref="H13" si="25">(H12-G12)/G12</f>
-        <v>-8.8148873653281102E-3</v>
-      </c>
-      <c r="I13" s="121">
+        <v>-0.00881488736532811</v>
+      </c>
+      <c r="I13" s="121" t="n">
         <f t="shared" ref="I13" si="26">(I12-H12)/H12</f>
-        <v>-2.1739130434782608E-2</v>
-      </c>
-      <c r="J13" s="121">
+        <v>-0.021739130434782608</v>
+      </c>
+      <c r="J13" s="121" t="n">
         <f t="shared" ref="J13" si="27">(J12-I12)/I12</f>
-        <v>-3.8383838383838381E-2</v>
-      </c>
-      <c r="K13" s="121">
+        <v>-0.03838383838383838</v>
+      </c>
+      <c r="K13" s="121" t="n">
         <f t="shared" ref="K13" si="28">(K12-J12)/J12</f>
-        <v>-3.2563025210084036E-2</v>
-      </c>
-      <c r="L13" s="121">
+        <v>-0.032563025210084036</v>
+      </c>
+      <c r="L13" s="121" t="n">
         <f t="shared" ref="L13" si="29">(L12-K12)/K12</f>
-        <v>2.1715526601520088E-3</v>
-      </c>
-      <c r="M13" s="121">
+        <v>0.002171552660152009</v>
+      </c>
+      <c r="M13" s="121" t="n">
         <f t="shared" ref="M13" si="30">(M12-L12)/L12</f>
-        <v>-7.5839653304442039E-3</v>
+        <v>-0.007583965330444204</v>
       </c>
       <c r="Q13" s="107"/>
     </row>
@@ -22680,38 +22689,38 @@
       <c r="B15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="110" t="n">
         <v>1.5099999904632568</v>
       </c>
-      <c r="D15" s="110">
-        <v>1.9099999666213989</v>
-      </c>
-      <c r="E15" s="110">
-        <v>2.5699999332427979</v>
-      </c>
-      <c r="F15" s="110">
-        <v>2.8199999332427979</v>
-      </c>
-      <c r="G15" s="110">
+      <c r="D15" s="110" t="n">
+        <v>1.909999966621399</v>
+      </c>
+      <c r="E15" s="110" t="n">
+        <v>2.569999933242798</v>
+      </c>
+      <c r="F15" s="110" t="n">
+        <v>2.819999933242798</v>
+      </c>
+      <c r="G15" s="110" t="n">
         <v>3.4800000190734863</v>
       </c>
-      <c r="H15" s="110">
-        <v>3.6099998950958252</v>
-      </c>
-      <c r="I15" s="110">
-        <v>5.5900001525878906</v>
-      </c>
-      <c r="J15" s="110">
-        <v>5.2399997711181641</v>
-      </c>
-      <c r="K15" s="110">
-        <v>5.9699997901916504</v>
-      </c>
-      <c r="L15" s="110">
-        <v>8.2600002288818359</v>
-      </c>
-      <c r="M15" s="110">
-        <v>9.4099998474121094</v>
+      <c r="H15" s="110" t="n">
+        <v>3.609999895095825</v>
+      </c>
+      <c r="I15" s="110" t="n">
+        <v>5.590000152587891</v>
+      </c>
+      <c r="J15" s="110" t="n">
+        <v>5.239999771118164</v>
+      </c>
+      <c r="K15" s="110" t="n">
+        <v>5.96999979019165</v>
+      </c>
+      <c r="L15" s="110" t="n">
+        <v>8.260000228881836</v>
+      </c>
+      <c r="M15" s="110" t="n">
+        <v>9.40999984741211</v>
       </c>
       <c r="Q15" s="107"/>
     </row>
@@ -22719,43 +22728,43 @@
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="121">
+      <c r="D16" s="121" t="n">
         <f t="shared" ref="D16" si="31">(D15-C15)/C15</f>
         <v>0.2649006481353845</v>
       </c>
-      <c r="E16" s="121">
+      <c r="E16" s="121" t="n">
         <f t="shared" ref="E16" si="32">(E15-D15)/D15</f>
-        <v>0.34554972678291368</v>
-      </c>
-      <c r="F16" s="121">
+        <v>0.3455497267829137</v>
+      </c>
+      <c r="F16" s="121" t="n">
         <f t="shared" ref="F16" si="33">(F15-E15)/E15</f>
-        <v>9.7276267118245607E-2</v>
-      </c>
-      <c r="G16" s="121">
+        <v>0.09727626711824561</v>
+      </c>
+      <c r="G16" s="121" t="n">
         <f t="shared" ref="G16" si="34">(G15-F15)/F15</f>
         <v>0.23404258916833898</v>
       </c>
-      <c r="H16" s="121">
+      <c r="H16" s="121" t="n">
         <f t="shared" ref="H16" si="35">(H15-G15)/G15</f>
-        <v>3.7356286008570189E-2</v>
-      </c>
-      <c r="I16" s="121">
+        <v>0.03735628600857019</v>
+      </c>
+      <c r="I16" s="121" t="n">
         <f t="shared" ref="I16" si="36">(I15-H15)/H15</f>
-        <v>0.54847654155943115</v>
-      </c>
-      <c r="J16" s="121">
+        <v>0.5484765415594312</v>
+      </c>
+      <c r="J16" s="121" t="n">
         <f t="shared" ref="J16" si="37">(J15-I15)/I15</f>
-        <v>-6.261187333021706E-2</v>
-      </c>
-      <c r="K16" s="121">
+        <v>-0.06261187333021706</v>
+      </c>
+      <c r="K16" s="121" t="n">
         <f t="shared" ref="K16" si="38">(K15-J15)/J15</f>
-        <v>0.13931298682436999</v>
-      </c>
-      <c r="L16" s="121">
+        <v>0.13931298682437</v>
+      </c>
+      <c r="L16" s="121" t="n">
         <f t="shared" ref="L16" si="39">(L15-K15)/K15</f>
         <v>0.38358467657779866</v>
       </c>
-      <c r="M16" s="121">
+      <c r="M16" s="121" t="n">
         <f t="shared" ref="M16" si="40">(M15-L15)/L15</f>
         <v>0.13922513155740504</v>
       </c>
@@ -22805,38 +22814,38 @@
       <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="110">
-        <v>2919</v>
-      </c>
-      <c r="D20" s="128">
-        <v>2993</v>
-      </c>
-      <c r="E20" s="128">
-        <v>3811</v>
-      </c>
-      <c r="F20" s="128">
-        <v>3956</v>
-      </c>
-      <c r="G20" s="128">
-        <v>4083</v>
-      </c>
-      <c r="H20" s="128">
-        <v>4708</v>
-      </c>
-      <c r="I20" s="128">
-        <v>6067</v>
-      </c>
-      <c r="J20" s="128">
-        <v>5832</v>
-      </c>
-      <c r="K20" s="128">
-        <v>5494</v>
-      </c>
-      <c r="L20" s="128">
-        <v>6369</v>
-      </c>
-      <c r="M20" s="128">
-        <v>5926</v>
+      <c r="C20" s="110" t="n">
+        <v>2919.0</v>
+      </c>
+      <c r="D20" s="128" t="n">
+        <v>2993.0</v>
+      </c>
+      <c r="E20" s="128" t="n">
+        <v>3811.0</v>
+      </c>
+      <c r="F20" s="128" t="n">
+        <v>3956.0</v>
+      </c>
+      <c r="G20" s="128" t="n">
+        <v>4083.0</v>
+      </c>
+      <c r="H20" s="128" t="n">
+        <v>4708.0</v>
+      </c>
+      <c r="I20" s="128" t="n">
+        <v>6067.0</v>
+      </c>
+      <c r="J20" s="128" t="n">
+        <v>5832.0</v>
+      </c>
+      <c r="K20" s="128" t="n">
+        <v>5494.0</v>
+      </c>
+      <c r="L20" s="128" t="n">
+        <v>6369.0</v>
+      </c>
+      <c r="M20" s="128" t="n">
+        <v>5926.0</v>
       </c>
       <c r="O20" s="107"/>
       <c r="P20" s="107"/>
@@ -22865,42 +22874,43 @@
       <c r="B21" s="31" t="s">
         <v>27</v>
       </c>
+      <c r="C21" s="110"/>
       <c r="D21" s="129"/>
-      <c r="E21" s="131">
+      <c r="E21" s="131" t="n">
         <f t="shared" ref="E21" si="41">(E20-D20)/D20</f>
         <v>0.27330437687938525</v>
       </c>
-      <c r="F21" s="131">
+      <c r="F21" s="131" t="n">
         <f t="shared" ref="F21" si="42">(F20-E20)/E20</f>
-        <v>3.8047756494358438E-2</v>
-      </c>
-      <c r="G21" s="131">
+        <v>0.03804775649435844</v>
+      </c>
+      <c r="G21" s="131" t="n">
         <f t="shared" ref="G21" si="43">(G20-F20)/F20</f>
-        <v>3.2103134479271989E-2</v>
-      </c>
-      <c r="H21" s="131">
+        <v>0.03210313447927199</v>
+      </c>
+      <c r="H21" s="131" t="n">
         <f t="shared" ref="H21" si="44">(H20-G20)/G20</f>
         <v>0.15307372030369826</v>
       </c>
-      <c r="I21" s="131">
+      <c r="I21" s="131" t="n">
         <f t="shared" ref="I21" si="45">(I20-H20)/H20</f>
-        <v>0.28865760407816482</v>
-      </c>
-      <c r="J21" s="131">
+        <v>0.2886576040781648</v>
+      </c>
+      <c r="J21" s="131" t="n">
         <f t="shared" ref="J21" si="46">(J20-I20)/I20</f>
-        <v>-3.8734135487061151E-2</v>
-      </c>
-      <c r="K21" s="131">
+        <v>-0.03873413548706115</v>
+      </c>
+      <c r="K21" s="131" t="n">
         <f t="shared" ref="K21" si="47">(K20-J20)/J20</f>
-        <v>-5.7956104252400546E-2</v>
-      </c>
-      <c r="L21" s="131">
+        <v>-0.057956104252400546</v>
+      </c>
+      <c r="L21" s="131" t="n">
         <f t="shared" ref="L21" si="48">(L20-K20)/K20</f>
-        <v>0.15926465234801601</v>
-      </c>
-      <c r="M21" s="131">
+        <v>0.159264652348016</v>
+      </c>
+      <c r="M21" s="131" t="n">
         <f t="shared" ref="M21" si="49">(M20-L20)/L20</f>
-        <v>-6.9555660229235358E-2</v>
+        <v>-0.06955566022923536</v>
       </c>
       <c r="O21" s="107"/>
       <c r="P21" s="107"/>
@@ -22963,38 +22973,38 @@
       <c r="B23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="113">
-        <v>819</v>
-      </c>
-      <c r="D23" s="130">
-        <v>1175</v>
-      </c>
-      <c r="E23" s="130">
-        <v>1323</v>
-      </c>
-      <c r="F23" s="130">
-        <v>1444</v>
-      </c>
-      <c r="G23" s="130">
-        <v>1646</v>
-      </c>
-      <c r="H23" s="130">
-        <v>2104</v>
-      </c>
-      <c r="I23" s="130">
-        <v>2555</v>
-      </c>
-      <c r="J23" s="130">
-        <v>3008</v>
-      </c>
-      <c r="K23" s="130">
-        <v>3426</v>
-      </c>
-      <c r="L23" s="130">
-        <v>3886</v>
-      </c>
-      <c r="M23" s="130">
-        <v>4297</v>
+      <c r="C23" s="113" t="n">
+        <v>819.0</v>
+      </c>
+      <c r="D23" s="130" t="n">
+        <v>1175.0</v>
+      </c>
+      <c r="E23" s="130" t="n">
+        <v>1323.0</v>
+      </c>
+      <c r="F23" s="130" t="n">
+        <v>1444.0</v>
+      </c>
+      <c r="G23" s="130" t="n">
+        <v>1646.0</v>
+      </c>
+      <c r="H23" s="130" t="n">
+        <v>2104.0</v>
+      </c>
+      <c r="I23" s="130" t="n">
+        <v>2555.0</v>
+      </c>
+      <c r="J23" s="130" t="n">
+        <v>3008.0</v>
+      </c>
+      <c r="K23" s="130" t="n">
+        <v>3426.0</v>
+      </c>
+      <c r="L23" s="130" t="n">
+        <v>3886.0</v>
+      </c>
+      <c r="M23" s="130" t="n">
+        <v>4297.0</v>
       </c>
       <c r="O23" s="107"/>
       <c r="P23" s="107"/>
@@ -23020,43 +23030,43 @@
       <c r="AJ23" s="107"/>
     </row>
     <row r="24" spans="2:36">
-      <c r="D24" s="121">
+      <c r="D24" s="121" t="n">
         <f t="shared" ref="D24" si="50">(D23-C23)/C23</f>
-        <v>0.43467643467643469</v>
-      </c>
-      <c r="E24" s="121">
+        <v>0.4346764346764347</v>
+      </c>
+      <c r="E24" s="121" t="n">
         <f t="shared" ref="E24" si="51">(E23-D23)/D23</f>
         <v>0.12595744680851065</v>
       </c>
-      <c r="F24" s="121">
+      <c r="F24" s="121" t="n">
         <f t="shared" ref="F24" si="52">(F23-E23)/E23</f>
-        <v>9.1458805744520033E-2</v>
-      </c>
-      <c r="G24" s="121">
+        <v>0.09145880574452003</v>
+      </c>
+      <c r="G24" s="121" t="n">
         <f t="shared" ref="G24" si="53">(G23-F23)/F23</f>
         <v>0.13988919667590027</v>
       </c>
-      <c r="H24" s="121">
+      <c r="H24" s="121" t="n">
         <f t="shared" ref="H24" si="54">(H23-G23)/G23</f>
-        <v>0.27825030376670717</v>
-      </c>
-      <c r="I24" s="121">
+        <v>0.2782503037667072</v>
+      </c>
+      <c r="I24" s="121" t="n">
         <f t="shared" ref="I24" si="55">(I23-H23)/H23</f>
         <v>0.21435361216730037</v>
       </c>
-      <c r="J24" s="121">
+      <c r="J24" s="121" t="n">
         <f t="shared" ref="J24" si="56">(J23-I23)/I23</f>
         <v>0.17729941291585127</v>
       </c>
-      <c r="K24" s="121">
+      <c r="K24" s="121" t="n">
         <f t="shared" ref="K24" si="57">(K23-J23)/J23</f>
         <v>0.1389627659574468</v>
       </c>
-      <c r="L24" s="121">
+      <c r="L24" s="121" t="n">
         <f t="shared" ref="L24" si="58">(L23-K23)/K23</f>
         <v>0.1342673671920607</v>
       </c>
-      <c r="M24" s="121">
+      <c r="M24" s="121" t="n">
         <f t="shared" ref="M24" si="59">(M23-L23)/L23</f>
         <v>0.10576428203808544</v>
       </c>
@@ -23195,38 +23205,38 @@
       <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="110">
-        <v>8230</v>
-      </c>
-      <c r="D28" s="110">
-        <v>8019</v>
-      </c>
-      <c r="E28" s="110">
-        <v>7421</v>
-      </c>
-      <c r="F28" s="110">
-        <v>7074</v>
-      </c>
-      <c r="G28" s="110">
-        <v>7457</v>
-      </c>
-      <c r="H28" s="110">
-        <v>8734</v>
-      </c>
-      <c r="I28" s="110">
-        <v>8097</v>
-      </c>
-      <c r="J28" s="110">
-        <v>8761</v>
-      </c>
-      <c r="K28" s="110">
-        <v>10239</v>
-      </c>
-      <c r="L28" s="110">
-        <v>13685</v>
-      </c>
-      <c r="M28" s="110">
-        <v>14021</v>
+      <c r="C28" s="110" t="n">
+        <v>8230.0</v>
+      </c>
+      <c r="D28" s="110" t="n">
+        <v>8019.0</v>
+      </c>
+      <c r="E28" s="110" t="n">
+        <v>7421.0</v>
+      </c>
+      <c r="F28" s="110" t="n">
+        <v>7074.0</v>
+      </c>
+      <c r="G28" s="110" t="n">
+        <v>7457.0</v>
+      </c>
+      <c r="H28" s="110" t="n">
+        <v>8734.0</v>
+      </c>
+      <c r="I28" s="110" t="n">
+        <v>8097.0</v>
+      </c>
+      <c r="J28" s="110" t="n">
+        <v>8761.0</v>
+      </c>
+      <c r="K28" s="110" t="n">
+        <v>10239.0</v>
+      </c>
+      <c r="L28" s="110" t="n">
+        <v>13685.0</v>
+      </c>
+      <c r="M28" s="110" t="n">
+        <v>14021.0</v>
       </c>
       <c r="O28" s="107"/>
       <c r="P28" s="107"/>
@@ -23256,45 +23266,45 @@
         <v>27</v>
       </c>
       <c r="C29" s="113"/>
-      <c r="D29" s="121">
+      <c r="D29" s="121" t="n">
         <f t="shared" ref="D29" si="60">(D28-C28)/C28</f>
-        <v>-2.5637910085054678E-2</v>
-      </c>
-      <c r="E29" s="121">
+        <v>-0.02563791008505468</v>
+      </c>
+      <c r="E29" s="121" t="n">
         <f t="shared" ref="E29" si="61">(E28-D28)/D28</f>
-        <v>-7.4572889387704205E-2</v>
-      </c>
-      <c r="F29" s="121">
+        <v>-0.0745728893877042</v>
+      </c>
+      <c r="F29" s="121" t="n">
         <f t="shared" ref="F29" si="62">(F28-E28)/E28</f>
-        <v>-4.675919687373669E-2</v>
-      </c>
-      <c r="G29" s="121">
+        <v>-0.04675919687373669</v>
+      </c>
+      <c r="G29" s="121" t="n">
         <f t="shared" ref="G29" si="63">(G28-F28)/F28</f>
-        <v>5.4141928187729713E-2</v>
-      </c>
-      <c r="H29" s="121">
+        <v>0.05414192818772971</v>
+      </c>
+      <c r="H29" s="121" t="n">
         <f t="shared" ref="H29" si="64">(H28-G28)/G28</f>
-        <v>0.17124849135040901</v>
-      </c>
-      <c r="I29" s="121">
+        <v>0.171248491350409</v>
+      </c>
+      <c r="I29" s="121" t="n">
         <f t="shared" ref="I29" si="65">(I28-H28)/H28</f>
-        <v>-7.293336386535379E-2</v>
-      </c>
-      <c r="J29" s="121">
+        <v>-0.07293336386535379</v>
+      </c>
+      <c r="J29" s="121" t="n">
         <f t="shared" ref="J29" si="66">(J28-I28)/I28</f>
-        <v>8.2005681116462892E-2</v>
-      </c>
-      <c r="K29" s="121">
+        <v>0.08200568111646289</v>
+      </c>
+      <c r="K29" s="121" t="n">
         <f t="shared" ref="K29" si="67">(K28-J28)/J28</f>
         <v>0.16870220294486932</v>
       </c>
-      <c r="L29" s="121">
+      <c r="L29" s="121" t="n">
         <f t="shared" ref="L29" si="68">(L28-K28)/K28</f>
-        <v>0.33655630432659439</v>
-      </c>
-      <c r="M29" s="121">
+        <v>0.3365563043265944</v>
+      </c>
+      <c r="M29" s="121" t="n">
         <f t="shared" ref="M29" si="69">(M28-L28)/L28</f>
-        <v>2.4552429667519183E-2</v>
+        <v>0.024552429667519183</v>
       </c>
       <c r="O29" s="107"/>
       <c r="P29" s="107"/>
@@ -23347,38 +23357,38 @@
       <c r="B31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="110">
-        <v>11791</v>
-      </c>
-      <c r="D31" s="110">
-        <v>10919</v>
-      </c>
-      <c r="E31" s="110">
-        <v>9951</v>
-      </c>
-      <c r="F31" s="110">
-        <v>9156</v>
-      </c>
-      <c r="G31" s="110">
-        <v>8974</v>
-      </c>
-      <c r="H31" s="110">
-        <v>8908</v>
-      </c>
-      <c r="I31" s="110">
-        <v>9040</v>
-      </c>
-      <c r="J31" s="110">
-        <v>9257</v>
-      </c>
-      <c r="K31" s="110">
-        <v>9112</v>
-      </c>
-      <c r="L31" s="110">
-        <v>10991</v>
-      </c>
-      <c r="M31" s="110">
-        <v>13186</v>
+      <c r="C31" s="110" t="n">
+        <v>11791.0</v>
+      </c>
+      <c r="D31" s="110" t="n">
+        <v>10919.0</v>
+      </c>
+      <c r="E31" s="110" t="n">
+        <v>9951.0</v>
+      </c>
+      <c r="F31" s="110" t="n">
+        <v>9156.0</v>
+      </c>
+      <c r="G31" s="110" t="n">
+        <v>8974.0</v>
+      </c>
+      <c r="H31" s="110" t="n">
+        <v>8908.0</v>
+      </c>
+      <c r="I31" s="110" t="n">
+        <v>9040.0</v>
+      </c>
+      <c r="J31" s="110" t="n">
+        <v>9257.0</v>
+      </c>
+      <c r="K31" s="110" t="n">
+        <v>9112.0</v>
+      </c>
+      <c r="L31" s="110" t="n">
+        <v>10991.0</v>
+      </c>
+      <c r="M31" s="110" t="n">
+        <v>13186.0</v>
       </c>
       <c r="O31" s="107"/>
       <c r="P31" s="107"/>
@@ -23408,43 +23418,43 @@
         <v>27</v>
       </c>
       <c r="C32" s="113"/>
-      <c r="D32" s="121">
+      <c r="D32" s="121" t="n">
         <f t="shared" ref="D32" si="70">(D31-C31)/C31</f>
-        <v>-7.3954711220422353E-2</v>
-      </c>
-      <c r="E32" s="121">
+        <v>-0.07395471122042235</v>
+      </c>
+      <c r="E32" s="121" t="n">
         <f t="shared" ref="E32" si="71">(E31-D31)/D31</f>
-        <v>-8.8652807033611142E-2</v>
-      </c>
-      <c r="F32" s="121">
+        <v>-0.08865280703361114</v>
+      </c>
+      <c r="F32" s="121" t="n">
         <f t="shared" ref="F32" si="72">(F31-E31)/E31</f>
-        <v>-7.9891468194151341E-2</v>
-      </c>
-      <c r="G32" s="121">
+        <v>-0.07989146819415134</v>
+      </c>
+      <c r="G32" s="121" t="n">
         <f t="shared" ref="G32" si="73">(G31-F31)/F31</f>
-        <v>-1.9877675840978593E-2</v>
-      </c>
-      <c r="H32" s="121">
+        <v>-0.019877675840978593</v>
+      </c>
+      <c r="H32" s="121" t="n">
         <f t="shared" ref="H32" si="74">(H31-G31)/G31</f>
-        <v>-7.3545798974816133E-3</v>
-      </c>
-      <c r="I32" s="121">
+        <v>-0.007354579897481613</v>
+      </c>
+      <c r="I32" s="121" t="n">
         <f t="shared" ref="I32" si="75">(I31-H31)/H31</f>
-        <v>1.4818140996856757E-2</v>
-      </c>
-      <c r="J32" s="121">
+        <v>0.014818140996856757</v>
+      </c>
+      <c r="J32" s="121" t="n">
         <f t="shared" ref="J32" si="76">(J31-I31)/I31</f>
-        <v>2.4004424778761062E-2</v>
-      </c>
-      <c r="K32" s="121">
+        <v>0.024004424778761062</v>
+      </c>
+      <c r="K32" s="121" t="n">
         <f t="shared" ref="K32" si="77">(K31-J31)/J31</f>
-        <v>-1.5663821972561304E-2</v>
-      </c>
-      <c r="L32" s="121">
+        <v>-0.015663821972561304</v>
+      </c>
+      <c r="L32" s="121" t="n">
         <f t="shared" ref="L32" si="78">(L31-K31)/K31</f>
         <v>0.20621158911325724</v>
       </c>
-      <c r="M32" s="121">
+      <c r="M32" s="121" t="n">
         <f t="shared" ref="M32" si="79">(M31-L31)/L31</f>
         <v>0.19970885269766173</v>
       </c>
@@ -23500,45 +23510,45 @@
         <v>50</v>
       </c>
       <c r="C34" s="111"/>
-      <c r="D34" s="111">
+      <c r="D34" s="111" t="n">
         <f>D28+D31</f>
-        <v>18938</v>
-      </c>
-      <c r="E34" s="111">
+        <v>18938.0</v>
+      </c>
+      <c r="E34" s="111" t="n">
         <f t="shared" ref="E34:M34" si="80">E28+E31</f>
-        <v>17372</v>
-      </c>
-      <c r="F34" s="111">
+        <v>17372.0</v>
+      </c>
+      <c r="F34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>16230</v>
-      </c>
-      <c r="G34" s="111">
+        <v>16230.0</v>
+      </c>
+      <c r="G34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>16431</v>
-      </c>
-      <c r="H34" s="111">
+        <v>16431.0</v>
+      </c>
+      <c r="H34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>17642</v>
-      </c>
-      <c r="I34" s="111">
+        <v>17642.0</v>
+      </c>
+      <c r="I34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>17137</v>
-      </c>
-      <c r="J34" s="111">
+        <v>17137.0</v>
+      </c>
+      <c r="J34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>18018</v>
-      </c>
-      <c r="K34" s="111">
+        <v>18018.0</v>
+      </c>
+      <c r="K34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>19351</v>
-      </c>
-      <c r="L34" s="111">
+        <v>19351.0</v>
+      </c>
+      <c r="L34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>24676</v>
-      </c>
-      <c r="M34" s="111">
+        <v>24676.0</v>
+      </c>
+      <c r="M34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>27207</v>
+        <v>27207.0</v>
       </c>
       <c r="O34" s="107"/>
       <c r="P34" s="107"/>
@@ -23591,38 +23601,38 @@
       <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="113">
-        <v>3430</v>
-      </c>
-      <c r="D36" s="118">
-        <v>2747</v>
-      </c>
-      <c r="E36" s="110">
-        <v>2658</v>
-      </c>
-      <c r="F36" s="110">
-        <v>2555</v>
-      </c>
-      <c r="G36" s="110">
-        <v>2264</v>
-      </c>
-      <c r="H36" s="110">
-        <v>2258</v>
-      </c>
-      <c r="I36" s="110">
-        <v>2474</v>
-      </c>
-      <c r="J36" s="110">
-        <v>2123</v>
-      </c>
-      <c r="K36" s="110">
-        <v>2390</v>
-      </c>
-      <c r="L36" s="110">
-        <v>2569</v>
-      </c>
-      <c r="M36" s="110">
-        <v>2985</v>
+      <c r="C36" s="113" t="n">
+        <v>3430.0</v>
+      </c>
+      <c r="D36" s="118" t="n">
+        <v>2747.0</v>
+      </c>
+      <c r="E36" s="110" t="n">
+        <v>2658.0</v>
+      </c>
+      <c r="F36" s="110" t="n">
+        <v>2555.0</v>
+      </c>
+      <c r="G36" s="110" t="n">
+        <v>2264.0</v>
+      </c>
+      <c r="H36" s="110" t="n">
+        <v>2258.0</v>
+      </c>
+      <c r="I36" s="110" t="n">
+        <v>2474.0</v>
+      </c>
+      <c r="J36" s="110" t="n">
+        <v>2123.0</v>
+      </c>
+      <c r="K36" s="110" t="n">
+        <v>2390.0</v>
+      </c>
+      <c r="L36" s="110" t="n">
+        <v>2569.0</v>
+      </c>
+      <c r="M36" s="110" t="n">
+        <v>2985.0</v>
       </c>
       <c r="O36" s="107"/>
       <c r="P36" s="107"/>
@@ -23652,43 +23662,43 @@
         <v>27</v>
       </c>
       <c r="C37" s="113"/>
-      <c r="D37" s="121">
+      <c r="D37" s="121" t="n">
         <f t="shared" ref="D37" si="81">(D36-C36)/C36</f>
         <v>-0.19912536443148687</v>
       </c>
-      <c r="E37" s="121">
+      <c r="E37" s="121" t="n">
         <f t="shared" ref="E37" si="82">(E36-D36)/D36</f>
-        <v>-3.2398980706224975E-2</v>
-      </c>
-      <c r="F37" s="121">
+        <v>-0.032398980706224975</v>
+      </c>
+      <c r="F37" s="121" t="n">
         <f t="shared" ref="F37" si="83">(F36-E36)/E36</f>
-        <v>-3.8750940556809631E-2</v>
-      </c>
-      <c r="G37" s="121">
+        <v>-0.03875094055680963</v>
+      </c>
+      <c r="G37" s="121" t="n">
         <f t="shared" ref="G37" si="84">(G36-F36)/F36</f>
         <v>-0.11389432485322896</v>
       </c>
-      <c r="H37" s="121">
+      <c r="H37" s="121" t="n">
         <f t="shared" ref="H37" si="85">(H36-G36)/G36</f>
-        <v>-2.6501766784452299E-3</v>
-      </c>
-      <c r="I37" s="121">
+        <v>-0.00265017667844523</v>
+      </c>
+      <c r="I37" s="121" t="n">
         <f t="shared" ref="I37" si="86">(I36-H36)/H36</f>
-        <v>9.5659875996457047E-2</v>
-      </c>
-      <c r="J37" s="121">
+        <v>0.09565987599645705</v>
+      </c>
+      <c r="J37" s="121" t="n">
         <f t="shared" ref="J37" si="87">(J36-I36)/I36</f>
         <v>-0.14187550525464834</v>
       </c>
-      <c r="K37" s="121">
+      <c r="K37" s="121" t="n">
         <f t="shared" ref="K37" si="88">(K36-J36)/J36</f>
-        <v>0.12576542628356099</v>
-      </c>
-      <c r="L37" s="121">
+        <v>0.125765426283561</v>
+      </c>
+      <c r="L37" s="121" t="n">
         <f t="shared" ref="L37" si="89">(L36-K36)/K36</f>
-        <v>7.4895397489539745E-2</v>
-      </c>
-      <c r="M37" s="121">
+        <v>0.07489539748953974</v>
+      </c>
+      <c r="M37" s="121" t="n">
         <f t="shared" ref="M37" si="90">(M36-L36)/L36</f>
         <v>0.16193071233943168</v>
       </c>
@@ -23743,38 +23753,38 @@
       <c r="B39" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="113">
-        <v>5630</v>
-      </c>
-      <c r="D39" s="110">
-        <v>5384</v>
-      </c>
-      <c r="E39" s="110">
-        <v>4324</v>
-      </c>
-      <c r="F39" s="110">
-        <v>3729</v>
-      </c>
-      <c r="G39" s="110">
-        <v>3694</v>
-      </c>
-      <c r="H39" s="110">
-        <v>5047</v>
-      </c>
-      <c r="I39" s="110">
-        <v>5669</v>
-      </c>
-      <c r="J39" s="110">
-        <v>6988</v>
-      </c>
-      <c r="K39" s="110">
-        <v>7774</v>
-      </c>
-      <c r="L39" s="110">
-        <v>8774</v>
-      </c>
-      <c r="M39" s="110">
-        <v>9645</v>
+      <c r="C39" s="113" t="n">
+        <v>5630.0</v>
+      </c>
+      <c r="D39" s="110" t="n">
+        <v>5384.0</v>
+      </c>
+      <c r="E39" s="110" t="n">
+        <v>4324.0</v>
+      </c>
+      <c r="F39" s="110" t="n">
+        <v>3729.0</v>
+      </c>
+      <c r="G39" s="110" t="n">
+        <v>3694.0</v>
+      </c>
+      <c r="H39" s="110" t="n">
+        <v>5047.0</v>
+      </c>
+      <c r="I39" s="110" t="n">
+        <v>5669.0</v>
+      </c>
+      <c r="J39" s="110" t="n">
+        <v>6988.0</v>
+      </c>
+      <c r="K39" s="110" t="n">
+        <v>7774.0</v>
+      </c>
+      <c r="L39" s="110" t="n">
+        <v>8774.0</v>
+      </c>
+      <c r="M39" s="110" t="n">
+        <v>9645.0</v>
       </c>
       <c r="O39" s="107"/>
       <c r="P39" s="107"/>
@@ -23804,45 +23814,45 @@
         <v>27</v>
       </c>
       <c r="C40" s="113"/>
-      <c r="D40" s="121">
+      <c r="D40" s="121" t="n">
         <f t="shared" ref="D40" si="91">(D39-C39)/C39</f>
-        <v>-4.3694493783303728E-2</v>
-      </c>
-      <c r="E40" s="121">
+        <v>-0.04369449378330373</v>
+      </c>
+      <c r="E40" s="121" t="n">
         <f t="shared" ref="E40" si="92">(E39-D39)/D39</f>
         <v>-0.19687964338781574</v>
       </c>
-      <c r="F40" s="121">
+      <c r="F40" s="121" t="n">
         <f t="shared" ref="F40" si="93">(F39-E39)/E39</f>
         <v>-0.13760407030527289</v>
       </c>
-      <c r="G40" s="121">
+      <c r="G40" s="121" t="n">
         <f t="shared" ref="G40" si="94">(G39-F39)/F39</f>
-        <v>-9.3858943416465536E-3</v>
-      </c>
-      <c r="H40" s="121">
+        <v>-0.009385894341646554</v>
+      </c>
+      <c r="H40" s="121" t="n">
         <f t="shared" ref="H40" si="95">(H39-G39)/G39</f>
-        <v>0.36626962642122363</v>
-      </c>
-      <c r="I40" s="121">
+        <v>0.3662696264212236</v>
+      </c>
+      <c r="I40" s="121" t="n">
         <f t="shared" ref="I40" si="96">(I39-H39)/H39</f>
         <v>0.12324152962155736</v>
       </c>
-      <c r="J40" s="121">
+      <c r="J40" s="121" t="n">
         <f t="shared" ref="J40" si="97">(J39-I39)/I39</f>
         <v>0.23266890104074792</v>
       </c>
-      <c r="K40" s="121">
+      <c r="K40" s="121" t="n">
         <f t="shared" ref="K40" si="98">(K39-J39)/J39</f>
         <v>0.11247853463079564</v>
       </c>
-      <c r="L40" s="121">
+      <c r="L40" s="121" t="n">
         <f t="shared" ref="L40" si="99">(L39-K39)/K39</f>
         <v>0.12863390789812196</v>
       </c>
-      <c r="M40" s="121">
+      <c r="M40" s="121" t="n">
         <f t="shared" ref="M40" si="100">(M39-L39)/L39</f>
-        <v>9.9270572144973784E-2</v>
+        <v>0.09927057214497378</v>
       </c>
       <c r="O40" s="107"/>
       <c r="P40" s="107"/>
@@ -23898,45 +23908,45 @@
       <c r="C42" s="116">
         <v>1</v>
       </c>
-      <c r="D42" s="111">
+      <c r="D42" s="111" t="n">
         <f>D36+D39</f>
-        <v>8131</v>
-      </c>
-      <c r="E42" s="111">
+        <v>8131.0</v>
+      </c>
+      <c r="E42" s="111" t="n">
         <f t="shared" ref="E42:M42" si="101">E36+E39</f>
-        <v>6982</v>
-      </c>
-      <c r="F42" s="111">
+        <v>6982.0</v>
+      </c>
+      <c r="F42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>6284</v>
-      </c>
-      <c r="G42" s="111">
+        <v>6284.0</v>
+      </c>
+      <c r="G42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>5958</v>
-      </c>
-      <c r="H42" s="111">
+        <v>5958.0</v>
+      </c>
+      <c r="H42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>7305</v>
-      </c>
-      <c r="I42" s="111">
+        <v>7305.0</v>
+      </c>
+      <c r="I42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>8143</v>
-      </c>
-      <c r="J42" s="111">
+        <v>8143.0</v>
+      </c>
+      <c r="J42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>9111</v>
-      </c>
-      <c r="K42" s="111">
+        <v>9111.0</v>
+      </c>
+      <c r="K42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>10164</v>
-      </c>
-      <c r="L42" s="111">
+        <v>10164.0</v>
+      </c>
+      <c r="L42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>11343</v>
-      </c>
-      <c r="M42" s="111">
+        <v>11343.0</v>
+      </c>
+      <c r="M42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>12630</v>
+        <v>12630.0</v>
       </c>
       <c r="O42" s="107"/>
       <c r="P42" s="107"/>
@@ -23994,45 +24004,45 @@
       <c r="C44" s="134">
         <v>1</v>
       </c>
-      <c r="D44" s="134">
+      <c r="D44" s="134" t="n">
         <f>D34-D42</f>
-        <v>10807</v>
-      </c>
-      <c r="E44" s="134">
+        <v>10807.0</v>
+      </c>
+      <c r="E44" s="134" t="n">
         <f t="shared" ref="E44:M44" si="102">E34-E42</f>
-        <v>10390</v>
-      </c>
-      <c r="F44" s="134">
+        <v>10390.0</v>
+      </c>
+      <c r="F44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>9946</v>
-      </c>
-      <c r="G44" s="134">
+        <v>9946.0</v>
+      </c>
+      <c r="G44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>10473</v>
-      </c>
-      <c r="H44" s="134">
+        <v>10473.0</v>
+      </c>
+      <c r="H44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>10337</v>
-      </c>
-      <c r="I44" s="134">
+        <v>10337.0</v>
+      </c>
+      <c r="I44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>8994</v>
-      </c>
-      <c r="J44" s="134">
+        <v>8994.0</v>
+      </c>
+      <c r="J44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>8907</v>
-      </c>
-      <c r="K44" s="134">
+        <v>8907.0</v>
+      </c>
+      <c r="K44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>9187</v>
-      </c>
-      <c r="L44" s="134">
+        <v>9187.0</v>
+      </c>
+      <c r="L44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>13333</v>
-      </c>
-      <c r="M44" s="134">
+        <v>13333.0</v>
+      </c>
+      <c r="M44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>14577</v>
+        <v>14577.0</v>
       </c>
       <c r="O44" s="107"/>
       <c r="P44" s="107"/>
@@ -24094,40 +24104,40 @@
     </row>
     <row r="46" spans="2:36">
       <c r="B46" s="122" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="133">
-        <v>4186</v>
-      </c>
-      <c r="D46" s="133">
-        <v>4158</v>
-      </c>
-      <c r="E46" s="133">
-        <v>3630</v>
-      </c>
-      <c r="F46" s="133">
-        <v>3120</v>
-      </c>
-      <c r="G46" s="133">
-        <v>2978</v>
-      </c>
-      <c r="H46" s="133">
-        <v>3577</v>
-      </c>
-      <c r="I46" s="133">
-        <v>4319</v>
-      </c>
-      <c r="J46" s="133">
-        <v>5303</v>
-      </c>
-      <c r="K46" s="136">
-        <v>6248</v>
-      </c>
-      <c r="L46" s="133">
-        <v>7241</v>
-      </c>
-      <c r="M46" s="133">
-        <v>8235</v>
+        <v>158</v>
+      </c>
+      <c r="C46" s="133" t="n">
+        <v>4186.0</v>
+      </c>
+      <c r="D46" s="133" t="n">
+        <v>4158.0</v>
+      </c>
+      <c r="E46" s="133" t="n">
+        <v>3630.0</v>
+      </c>
+      <c r="F46" s="133" t="n">
+        <v>3120.0</v>
+      </c>
+      <c r="G46" s="133" t="n">
+        <v>2978.0</v>
+      </c>
+      <c r="H46" s="133" t="n">
+        <v>3577.0</v>
+      </c>
+      <c r="I46" s="133" t="n">
+        <v>4319.0</v>
+      </c>
+      <c r="J46" s="133" t="n">
+        <v>5303.0</v>
+      </c>
+      <c r="K46" s="136" t="n">
+        <v>6248.0</v>
+      </c>
+      <c r="L46" s="133" t="n">
+        <v>7241.0</v>
+      </c>
+      <c r="M46" s="133" t="n">
+        <v>8235.0</v>
       </c>
       <c r="Q46" s="107"/>
       <c r="R46" s="107"/>
@@ -24261,45 +24271,45 @@
         <v>57</v>
       </c>
       <c r="C50" s="113"/>
-      <c r="D50" s="126">
+      <c r="D50" s="126" t="n">
         <f t="shared" ref="D50:M50" si="103">D6/D3</f>
         <v>0.17410897173289636</v>
       </c>
-      <c r="E50" s="126">
+      <c r="E50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.212878497508624</v>
       </c>
-      <c r="F50" s="126">
+      <c r="F50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.2296923076923077</v>
       </c>
-      <c r="G50" s="126">
+      <c r="G50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>0.26888556469708302</v>
-      </c>
-      <c r="H50" s="126">
+        <v>0.268885564697083</v>
+      </c>
+      <c r="H50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.24383396831762583</v>
       </c>
-      <c r="I50" s="126">
+      <c r="I50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>0.35079827673593511</v>
-      </c>
-      <c r="J50" s="126">
+        <v>0.3507982767359351</v>
+      </c>
+      <c r="J50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>0.34658972397969823</v>
-      </c>
-      <c r="K50" s="126">
+        <v>0.3465897239796982</v>
+      </c>
+      <c r="K50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.38503561302814465</v>
       </c>
-      <c r="L50" s="126">
+      <c r="L50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.4217182730047972</v>
       </c>
-      <c r="M50" s="126">
+      <c r="M50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>0.43484122228879568</v>
+        <v>0.4348412222887957</v>
       </c>
       <c r="O50" s="107"/>
       <c r="P50" s="107"/>
@@ -24329,43 +24339,43 @@
         <v>58</v>
       </c>
       <c r="C51" s="113"/>
-      <c r="D51" s="126">
+      <c r="D51" s="126" t="n">
         <f t="shared" ref="D51:M51" si="104">D9/D3</f>
-        <v>0.33830397378123722</v>
-      </c>
-      <c r="E51" s="126">
+        <v>0.3383039737812372</v>
+      </c>
+      <c r="E51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.39685703334610961</v>
-      </c>
-      <c r="F51" s="126">
+        <v>0.3968570333461096</v>
+      </c>
+      <c r="F51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.41961538461538461</v>
-      </c>
-      <c r="G51" s="126">
+        <v>0.4196153846153846</v>
+      </c>
+      <c r="G51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.43455497382198954</v>
       </c>
-      <c r="H51" s="126">
+      <c r="H51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.46701423701624223</v>
       </c>
-      <c r="I51" s="126">
+      <c r="I51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.48574505828687276</v>
       </c>
-      <c r="J51" s="126">
+      <c r="J51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.47090314955155393</v>
       </c>
-      <c r="K51" s="126">
+      <c r="K51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.47617730447410278</v>
-      </c>
-      <c r="L51" s="126">
+        <v>0.4761773044741028</v>
+      </c>
+      <c r="L51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.54044919319668561</v>
-      </c>
-      <c r="M51" s="126">
+        <v>0.5404491931966856</v>
+      </c>
+      <c r="M51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.555172758138606</v>
       </c>
@@ -24397,43 +24407,43 @@
         <v>59</v>
       </c>
       <c r="C52" s="113"/>
-      <c r="D52" s="126">
+      <c r="D52" s="126" t="n">
         <f t="shared" ref="D52:M52" si="105">D20/D3</f>
         <v>0.24522736583367472</v>
       </c>
-      <c r="E52" s="126">
+      <c r="E52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.29214258336527404</v>
       </c>
-      <c r="F52" s="126">
+      <c r="F52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.30430769230769233</v>
       </c>
-      <c r="G52" s="126">
+      <c r="G52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.30538519072550485</v>
       </c>
-      <c r="H52" s="126">
+      <c r="H52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.31468484726956752</v>
-      </c>
-      <c r="I52" s="126">
+        <v>0.3146848472695675</v>
+      </c>
+      <c r="I52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.38437658388241258</v>
-      </c>
-      <c r="J52" s="126">
+        <v>0.3843765838824126</v>
+      </c>
+      <c r="J52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.40547869012028087</v>
       </c>
-      <c r="K52" s="126">
+      <c r="K52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.3799184012170666</v>
       </c>
-      <c r="L52" s="126">
+      <c r="L52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.34719799389446143</v>
       </c>
-      <c r="M52" s="126">
+      <c r="M52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.29588575993608945</v>
       </c>
@@ -24547,45 +24557,45 @@
         <v>62</v>
       </c>
       <c r="C55" s="114"/>
-      <c r="D55" s="126">
+      <c r="D55" s="126" t="n">
         <f>D23/D20</f>
-        <v>0.39258269295021719</v>
-      </c>
-      <c r="E55" s="126">
+        <v>0.3925826929502172</v>
+      </c>
+      <c r="E55" s="126" t="n">
         <f t="shared" ref="E55:M55" si="106">E23/E20</f>
-        <v>0.34715297822093938</v>
-      </c>
-      <c r="F55" s="126">
+        <v>0.3471529782209394</v>
+      </c>
+      <c r="F55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.36501516683518703</v>
       </c>
-      <c r="G55" s="126">
+      <c r="G55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.40313494979181974</v>
       </c>
-      <c r="H55" s="126">
+      <c r="H55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.44689889549702633</v>
-      </c>
-      <c r="I55" s="126">
+        <v>0.4468988954970263</v>
+      </c>
+      <c r="I55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.4211307071040053</v>
       </c>
-      <c r="J55" s="126">
+      <c r="J55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.51577503429355276</v>
-      </c>
-      <c r="K55" s="126">
+        <v>0.5157750342935528</v>
+      </c>
+      <c r="K55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.6235893702220604</v>
       </c>
-      <c r="L55" s="126">
+      <c r="L55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.61014287957293134</v>
-      </c>
-      <c r="M55" s="126">
+        <v>0.6101428795729313</v>
+      </c>
+      <c r="M55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.72510968612892335</v>
+        <v>0.7251096861289233</v>
       </c>
       <c r="O55" s="107"/>
       <c r="P55" s="107"/>
@@ -24697,45 +24707,45 @@
         <v>64</v>
       </c>
       <c r="C58" s="113"/>
-      <c r="D58" s="112">
+      <c r="D58" s="112" t="n">
         <f>D42/D44</f>
         <v>0.7523827149070047</v>
       </c>
-      <c r="E58" s="112">
+      <c r="E58" s="112" t="n">
         <f t="shared" ref="E58:M58" si="107">E42/E44</f>
-        <v>0.67199230028873913</v>
-      </c>
-      <c r="F58" s="112">
+        <v>0.6719923002887391</v>
+      </c>
+      <c r="F58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.63181178363161072</v>
-      </c>
-      <c r="G58" s="112">
+        <v>0.6318117836316107</v>
+      </c>
+      <c r="G58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.56889143511887708</v>
-      </c>
-      <c r="H58" s="112">
+        <v>0.5688914351188771</v>
+      </c>
+      <c r="H58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.70668472477507982</v>
-      </c>
-      <c r="I58" s="112">
+        <v>0.7066847247750798</v>
+      </c>
+      <c r="I58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.90538136535468094</v>
-      </c>
-      <c r="J58" s="112">
+        <v>0.905381365354681</v>
+      </c>
+      <c r="J58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.0229033344560459</v>
       </c>
-      <c r="K58" s="112">
+      <c r="K58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.1063459235876782</v>
       </c>
-      <c r="L58" s="112">
+      <c r="L58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.85074626865671643</v>
-      </c>
-      <c r="M58" s="112">
+        <v>0.8507462686567164</v>
+      </c>
+      <c r="M58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.86643342251492073</v>
+        <v>0.8664334225149207</v>
       </c>
       <c r="O58" s="107"/>
       <c r="P58" s="107"/>
@@ -24765,45 +24775,45 @@
         <v>65</v>
       </c>
       <c r="C59" s="113"/>
-      <c r="D59" s="112">
+      <c r="D59" s="112" t="n">
         <f>D28/D36</f>
         <v>2.9191845649799784</v>
       </c>
-      <c r="E59" s="112">
+      <c r="E59" s="112" t="n">
         <f t="shared" ref="E59:M59" si="108">E28/E36</f>
-        <v>2.7919488337095562</v>
-      </c>
-      <c r="F59" s="112">
+        <v>2.791948833709556</v>
+      </c>
+      <c r="F59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>2.768688845401174</v>
       </c>
-      <c r="G59" s="112">
+      <c r="G59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>3.2937279151943462</v>
-      </c>
-      <c r="H59" s="112">
+        <v>3.293727915194346</v>
+      </c>
+      <c r="H59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>3.8680248007085916</v>
       </c>
-      <c r="I59" s="112">
+      <c r="I59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>3.2728375101050928</v>
-      </c>
-      <c r="J59" s="112">
+        <v>3.272837510105093</v>
+      </c>
+      <c r="J59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>4.1267074894017899</v>
-      </c>
-      <c r="K59" s="112">
+        <v>4.12670748940179</v>
+      </c>
+      <c r="K59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>4.2841004184100422</v>
-      </c>
-      <c r="L59" s="112">
+        <v>4.284100418410042</v>
+      </c>
+      <c r="L59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>5.3269754768392374</v>
       </c>
-      <c r="M59" s="112">
+      <c r="M59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>4.6971524288107203</v>
+        <v>4.69715242881072</v>
       </c>
       <c r="O59" s="107"/>
       <c r="P59" s="107"/>
@@ -24830,47 +24840,47 @@
     </row>
     <row r="60" spans="2:36">
       <c r="B60" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="112">
+        <v>160</v>
+      </c>
+      <c r="D60" s="112" t="n">
         <f>D46/D9</f>
         <v>1.0070234923710342</v>
       </c>
-      <c r="E60" s="112">
+      <c r="E60" s="112" t="n">
         <f t="shared" ref="E60:M60" si="109">E46/E9</f>
-        <v>0.70117828858412212</v>
-      </c>
-      <c r="F60" s="112">
+        <v>0.7011782885841221</v>
+      </c>
+      <c r="F60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.57195233730522455</v>
-      </c>
-      <c r="G60" s="112">
+        <v>0.5719523373052245</v>
+      </c>
+      <c r="G60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.51256454388984507</v>
-      </c>
-      <c r="H60" s="112">
+        <v>0.5125645438898451</v>
+      </c>
+      <c r="H60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.51195076570774301</v>
-      </c>
-      <c r="I60" s="112">
+        <v>0.511950765707743</v>
+      </c>
+      <c r="I60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.56332333376809707</v>
-      </c>
-      <c r="J60" s="112">
+        <v>0.5633233337680971</v>
+      </c>
+      <c r="J60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.78296175992913042</v>
-      </c>
-      <c r="K60" s="112">
+        <v>0.7829617599291304</v>
+      </c>
+      <c r="K60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.90734824281150162</v>
-      </c>
-      <c r="L60" s="112">
+        <v>0.9073482428115016</v>
+      </c>
+      <c r="L60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.73038127899939476</v>
-      </c>
-      <c r="M60" s="112">
+        <v>0.7303812789993948</v>
+      </c>
+      <c r="M60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.74062415684863747</v>
+        <v>0.7406241568486375</v>
       </c>
       <c r="O60" s="107"/>
       <c r="P60" s="107"/>
@@ -24953,9 +24963,9 @@
         <v>73</v>
       </c>
       <c r="C63" s="113"/>
-      <c r="D63" s="121">
+      <c r="D63" s="121" t="n">
         <f>(M20/I20)^0.2 - 1</f>
-        <v>-4.6919183617391003E-3</v>
+        <v>-0.0046919183617391</v>
       </c>
       <c r="O63" s="107"/>
       <c r="P63" s="107"/>
@@ -24985,9 +24995,9 @@
         <v>83</v>
       </c>
       <c r="C64" s="113"/>
-      <c r="D64" s="121">
+      <c r="D64" s="121" t="n">
         <f>(M20/D20)^0.1 - 1</f>
-        <v>7.0694305867646801E-2</v>
+        <v>0.0706943058676468</v>
       </c>
     </row>
     <row r="65" spans="2:13">
@@ -24995,9 +25005,9 @@
         <v>74</v>
       </c>
       <c r="C65" s="114"/>
-      <c r="D65" s="121">
+      <c r="D65" s="121" t="n">
         <f>(M6/I6)^0.2 - 1</f>
-        <v>9.4809994463398217E-2</v>
+        <v>0.09480999446339822</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -25005,9 +25015,9 @@
         <v>84</v>
       </c>
       <c r="C66" s="114"/>
-      <c r="D66" s="121">
+      <c r="D66" s="121" t="n">
         <f>(M6/D6)^0.1 - 1</f>
-        <v>0.15149202802592021</v>
+        <v>0.1514920280259202</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -25015,9 +25025,9 @@
         <v>75</v>
       </c>
       <c r="C67" s="114"/>
-      <c r="D67" s="121">
+      <c r="D67" s="121" t="n">
         <f>(M3/I3)^0.2 - 1</f>
-        <v>4.8779288168724122E-2</v>
+        <v>0.04877928816872412</v>
       </c>
     </row>
     <row r="68" spans="2:13">
@@ -25025,9 +25035,9 @@
         <v>85</v>
       </c>
       <c r="C68" s="114"/>
-      <c r="D68" s="121">
+      <c r="D68" s="121" t="n">
         <f>(M3/D3)^0.1 - 1</f>
-        <v>5.0775600952138955E-2</v>
+        <v>0.050775600952138955</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -25035,9 +25045,9 @@
         <v>88</v>
       </c>
       <c r="C69" s="114"/>
-      <c r="D69" s="121">
+      <c r="D69" s="121" t="n">
         <f>(M9/I9)^0.2 - 1</f>
-        <v>7.7179434804034441E-2</v>
+        <v>0.07717943480403444</v>
       </c>
     </row>
     <row r="70" spans="2:13">
@@ -25045,7 +25055,7 @@
         <v>89</v>
       </c>
       <c r="C70" s="114"/>
-      <c r="D70" s="121">
+      <c r="D70" s="121" t="n">
         <f>(M9/D9)^0.2 - 1</f>
         <v>0.21911358130616465</v>
       </c>
@@ -25054,7 +25064,7 @@
       <c r="B71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="121">
+      <c r="D71" s="121" t="n">
         <f>(M23/I23)^0.2 - 1</f>
         <v>0.10957046973041251</v>
       </c>
@@ -25063,16 +25073,16 @@
       <c r="B72" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="121">
+      <c r="D72" s="121" t="n">
         <f>AVERAGE(I24:M24)</f>
-        <v>0.15412948805414889</v>
+        <v>0.1541294880541489</v>
       </c>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="121">
+      <c r="D73" s="121" t="n">
         <f>AVERAGE(I55:M55)</f>
         <v>0.5791495354642946</v>
       </c>
@@ -25120,43 +25130,43 @@
       <c r="C76" s="110">
         <v>0</v>
       </c>
-      <c r="D76" s="110">
+      <c r="D76" s="110" t="n">
         <f t="shared" ref="D76:M76" si="110">100*D6/D34</f>
         <v>11.220825852782765</v>
       </c>
-      <c r="E76" s="110">
+      <c r="E76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>15.985493898227032</v>
       </c>
-      <c r="F76" s="110">
+      <c r="F76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>18.398028342575479</v>
-      </c>
-      <c r="G76" s="110">
+        <v>18.39802834257548</v>
+      </c>
+      <c r="G76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>21.879374353356461</v>
-      </c>
-      <c r="H76" s="110">
+        <v>21.87937435335646</v>
+      </c>
+      <c r="H76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>20.677927672599477</v>
       </c>
-      <c r="I76" s="110">
+      <c r="I76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>32.31020598704557</v>
       </c>
-      <c r="J76" s="110">
+      <c r="J76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>27.666777666777666</v>
       </c>
-      <c r="K76" s="110">
+      <c r="K76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>28.773706785179062</v>
       </c>
-      <c r="L76" s="110">
+      <c r="L76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>31.35029988652942</v>
       </c>
-      <c r="M76" s="110">
+      <c r="M76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>32.010144448119966</v>
       </c>
@@ -25168,82 +25178,82 @@
       <c r="C77" s="110">
         <v>0</v>
       </c>
-      <c r="D77" s="110">
+      <c r="D77" s="110" t="n">
         <f t="shared" ref="D77:M77" si="111">100*D6/D44</f>
         <v>19.66318127139817</v>
       </c>
-      <c r="E77" s="110">
+      <c r="E77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>26.727622714148218</v>
       </c>
-      <c r="F77" s="110">
+      <c r="F77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>30.022119445003018</v>
       </c>
-      <c r="G77" s="110">
+      <c r="G77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>34.326363028740573</v>
-      </c>
-      <c r="H77" s="110">
+        <v>34.32636302874057</v>
+      </c>
+      <c r="H77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>35.290703298829449</v>
-      </c>
-      <c r="I77" s="110">
+        <v>35.29070329882945</v>
+      </c>
+      <c r="I77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>61.563264398487881</v>
-      </c>
-      <c r="J77" s="110">
+        <v>61.56326439848788</v>
+      </c>
+      <c r="J77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>55.967216795778604</v>
       </c>
-      <c r="K77" s="110">
+      <c r="K77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>60.607379993469031</v>
-      </c>
-      <c r="L77" s="110">
+        <v>60.60737999346903</v>
+      </c>
+      <c r="L77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>58.021450536263409</v>
-      </c>
-      <c r="M77" s="110">
+        <v>58.02145053626341</v>
+      </c>
+      <c r="M77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>59.744803457501547</v>
+        <v>59.74480345750155</v>
       </c>
     </row>
     <row r="78" spans="2:13">
       <c r="B78" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="110">
-        <v>0</v>
-      </c>
-      <c r="D78" s="40">
+      <c r="C78" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="40" t="n">
         <v>13.489999771118164</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="40" t="n">
         <v>18.299999237060547</v>
       </c>
-      <c r="F78" s="40">
+      <c r="F78" s="40" t="n">
         <v>20.600000381469727</v>
       </c>
-      <c r="G78" s="40">
+      <c r="G78" s="40" t="n">
         <v>25.600000381469727</v>
       </c>
-      <c r="H78" s="40">
+      <c r="H78" s="40" t="n">
         <v>25.940000534057617</v>
       </c>
-      <c r="I78" s="40">
+      <c r="I78" s="40" t="n">
         <v>39.619998931884766</v>
       </c>
-      <c r="J78" s="40">
-        <v>35.590000152587891</v>
-      </c>
-      <c r="K78" s="40">
-        <v>36.990001678466797</v>
-      </c>
-      <c r="L78" s="40">
+      <c r="J78" s="40" t="n">
+        <v>35.59000015258789</v>
+      </c>
+      <c r="K78" s="40" t="n">
+        <v>36.9900016784668</v>
+      </c>
+      <c r="L78" s="40" t="n">
         <v>41.900001525878906</v>
       </c>
-      <c r="M78" s="40">
+      <c r="M78" s="40" t="n">
         <v>39.439998626708984</v>
       </c>
     </row>
@@ -25287,75 +25297,75 @@
       <c r="B81" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="110">
-        <v>0</v>
-      </c>
-      <c r="D81" s="40">
+      <c r="C81" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="40" t="n">
         <v>25.979999542236328</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="40" t="n">
         <v>23.549999237060547</v>
       </c>
-      <c r="F81" s="40">
+      <c r="F81" s="40" t="n">
         <v>19.719999313354492</v>
       </c>
-      <c r="G81" s="40">
+      <c r="G81" s="40" t="n">
         <v>23.239999771118164</v>
       </c>
-      <c r="H81" s="40">
+      <c r="H81" s="40" t="n">
         <v>24.399999618530273</v>
       </c>
-      <c r="I81" s="40">
+      <c r="I81" s="40" t="n">
         <v>20.239999771118164</v>
       </c>
-      <c r="J81" s="40">
+      <c r="J81" s="40" t="n">
         <v>23.799999237060547</v>
       </c>
-      <c r="K81" s="40">
+      <c r="K81" s="40" t="n">
         <v>31.030000686645508</v>
       </c>
-      <c r="L81" s="40">
+      <c r="L81" s="40" t="n">
         <v>24.190000534057617</v>
       </c>
-      <c r="M81" s="40">
-        <v>17.319999694824219</v>
+      <c r="M81" s="40" t="n">
+        <v>17.31999969482422</v>
       </c>
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="110">
-        <v>0</v>
-      </c>
-      <c r="D82" s="40">
+      <c r="C82" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="40" t="n">
         <v>15.029999732971191</v>
       </c>
-      <c r="E82" s="40">
+      <c r="E82" s="40" t="n">
         <v>15.25</v>
       </c>
-      <c r="F82" s="40">
+      <c r="F82" s="40" t="n">
         <v>14.039999961853027</v>
       </c>
-      <c r="G82" s="40">
-        <v>16.680000305175781</v>
-      </c>
-      <c r="H82" s="40">
+      <c r="G82" s="40" t="n">
+        <v>16.68000030517578</v>
+      </c>
+      <c r="H82" s="40" t="n">
         <v>21.989999771118164</v>
       </c>
-      <c r="I82" s="40">
+      <c r="I82" s="40" t="n">
         <v>13.539999961853027</v>
       </c>
-      <c r="J82" s="40">
+      <c r="J82" s="40" t="n">
         <v>17.440000534057617</v>
       </c>
-      <c r="K82" s="40">
-        <v>26.659999847412109</v>
-      </c>
-      <c r="L82" s="40">
-        <v>20.680000305175781</v>
-      </c>
-      <c r="M82" s="40">
+      <c r="K82" s="40" t="n">
+        <v>26.65999984741211</v>
+      </c>
+      <c r="L82" s="40" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="M82" s="40" t="n">
         <v>17.020000457763672</v>
       </c>
     </row>
@@ -25363,8 +25373,8 @@
       <c r="B83" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="110">
-        <v>2.9900000095367432</v>
+      <c r="C83" s="110" t="n">
+        <v>2.990000009536743</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/companies/tech/TexasInstruments/TXN_TexasInstruments.xlsx
+++ b/target/classes/companies/tech/TexasInstruments/TXN_TexasInstruments.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A7264F-E626-4D7A-9F7F-84A5C3BBA3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
   <si>
     <t>WACC</t>
   </si>
@@ -497,15 +497,6 @@
   </si>
   <si>
     <t>EPS Growth esitmation (%)</t>
-  </si>
-  <si>
-    <t>CE_Celanese</t>
-  </si>
-  <si>
-    <t>sector median (19.16)</t>
-  </si>
-  <si>
-    <t>sector median (14.4)</t>
   </si>
   <si>
     <t>Long Term Debt</t>
@@ -1253,7 +1244,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1363,7 +1354,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1372,7 +1363,7 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1387,11 +1378,11 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1413,18 +1404,18 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1433,7 +1424,7 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1755,34 +1746,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16912442396313365</c:v>
+                  <c:v>0.17410897173289636</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1737724198765067E-2</c:v>
+                  <c:v>0.212878497508624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3577722946774764E-2</c:v>
+                  <c:v>0.2296923076923077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16700686583781776</c:v>
+                  <c:v>0.26888556469708302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13729641693811076</c:v>
+                  <c:v>0.24383396831762583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16869322152341021</c:v>
+                  <c:v>0.35079827673593511</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13530252501191042</c:v>
+                  <c:v>0.34658972397969823</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35101679929266139</c:v>
+                  <c:v>0.38503561302814465</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22138924680801217</c:v>
+                  <c:v>0.4217182730047972</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1958027499224646</c:v>
+                  <c:v>0.43484122228879568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,34 +1911,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.28064516129032258</c:v>
+                  <c:v>0.33830397378123722</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15524845633637166</c:v>
+                  <c:v>0.39685703334610961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1214310891787099</c:v>
+                  <c:v>0.41961538461538461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22805715346075339</c:v>
+                  <c:v>0.43455497382198954</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19006514657980456</c:v>
+                  <c:v>0.46701423701624223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23522012578616353</c:v>
+                  <c:v>0.48574505828687276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18897887883118947</c:v>
+                  <c:v>0.47090314955155393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18037135278514588</c:v>
+                  <c:v>0.47617730447410278</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2722267775565187</c:v>
+                  <c:v>0.54044919319668561</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19187428925876149</c:v>
+                  <c:v>0.555172758138606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2085,34 +2076,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.9139784946236562E-2</c:v>
+                  <c:v>0.24522736583367472</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1752425757130257E-2</c:v>
+                  <c:v>0.29214258336527404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0274938315121609E-2</c:v>
+                  <c:v>0.30430769230769233</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12005938021896456</c:v>
+                  <c:v>0.30538519072550485</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7296416938110744E-2</c:v>
+                  <c:v>0.31468484726956752</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17064989517819706</c:v>
+                  <c:v>0.38437658388241258</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17214546609496587</c:v>
+                  <c:v>0.40547869012028087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17312113174182139</c:v>
+                  <c:v>0.3799184012170666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15110694623404006</c:v>
+                  <c:v>0.34719799389446143</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13191357386539854</c:v>
+                  <c:v>0.29588575993608945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2643,34 +2634,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17.280000686645508</c:v>
+                  <c:v>25.979999542236328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9099998474121094</c:v>
+                  <c:v>23.549999237060547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.739999771118164</c:v>
+                  <c:v>19.719999313354492</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.079999923706055</c:v>
+                  <c:v>23.239999771118164</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.399999618530273</c:v>
+                  <c:v>24.399999618530273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.2899999618530273</c:v>
+                  <c:v>20.239999771118164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.959999084472656</c:v>
+                  <c:v>23.799999237060547</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.139999389648438</c:v>
+                  <c:v>31.030000686645508</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8400001525878906</c:v>
+                  <c:v>24.190000534057617</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7399997711181641</c:v>
+                  <c:v>17.319999694824219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2857,34 +2848,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.220000267028809</c:v>
+                  <c:v>15.029999732971191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8900003433227539</c:v>
+                  <c:v>15.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.619999885559082</c:v>
+                  <c:v>14.039999961853027</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.770000457763672</c:v>
+                  <c:v>16.680000305175781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.469999313354492</c:v>
+                  <c:v>21.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7899999618530273</c:v>
+                  <c:v>13.539999961853027</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.529999732971191</c:v>
+                  <c:v>17.440000534057617</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.140000343322754</c:v>
+                  <c:v>26.659999847412109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.199999809265137</c:v>
+                  <c:v>20.680000305175781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0100002288818359</c:v>
+                  <c:v>17.020000457763672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3312,34 +3303,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.9099998474121094</c:v>
+                  <c:v>1.9099999666213989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>2.5699999332427979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.8199999332427979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.179999828338623</c:v>
+                  <c:v>3.4800000190734863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0900001525878906</c:v>
+                  <c:v>3.6099998950958252</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9099998474121094</c:v>
+                  <c:v>5.5900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8400001525878906</c:v>
+                  <c:v>5.2399997711181641</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.75</c:v>
+                  <c:v>5.9699997901916504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.860000610351563</c:v>
+                  <c:v>8.2600002288818359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.340000152587891</c:v>
+                  <c:v>9.4099998474121094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3767,34 +3758,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6510</c:v>
+                  <c:v>12205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6802</c:v>
+                  <c:v>13045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5674</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5389</c:v>
+                  <c:v>13370</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6140</c:v>
+                  <c:v>14961</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7155</c:v>
+                  <c:v>15784</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6297</c:v>
+                  <c:v>14383</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5655</c:v>
+                  <c:v>14461</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8537</c:v>
+                  <c:v>18344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9673</c:v>
+                  <c:v>20028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4201,34 +4192,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2887</c:v>
+                  <c:v>4158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2586</c:v>
+                  <c:v>3630</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2468</c:v>
+                  <c:v>3120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2890</c:v>
+                  <c:v>2978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3315</c:v>
+                  <c:v>3577</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2970</c:v>
+                  <c:v>4319</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3409</c:v>
+                  <c:v>5303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3227</c:v>
+                  <c:v>6248</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3176</c:v>
+                  <c:v>7241</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13373</c:v>
+                  <c:v>8235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4338,34 +4329,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1827</c:v>
+                  <c:v>4129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1056</c:v>
+                  <c:v>5177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>689</c:v>
+                  <c:v>5455</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1229</c:v>
+                  <c:v>5810</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1167</c:v>
+                  <c:v>6987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1683</c:v>
+                  <c:v>7667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1190</c:v>
+                  <c:v>6773</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1020</c:v>
+                  <c:v>6886</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2324</c:v>
+                  <c:v>9914</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1856</c:v>
+                  <c:v>11119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4461,34 +4452,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.5801860974274768</c:v>
+                  <c:v>1.0070234923710342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4488636363636362</c:v>
+                  <c:v>0.70117828858412212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5820029027576199</c:v>
+                  <c:v>0.57195233730522455</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3515052888527257</c:v>
+                  <c:v>0.51256454388984507</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8406169665809768</c:v>
+                  <c:v>0.51195076570774301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7647058823529411</c:v>
+                  <c:v>0.56332333376809707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8647058823529412</c:v>
+                  <c:v>0.78296175992913042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1637254901960783</c:v>
+                  <c:v>0.90734824281150162</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3666092943201378</c:v>
+                  <c:v>0.73038127899939476</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2052801724137927</c:v>
+                  <c:v>0.74062415684863747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4957,34 +4948,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>385</c:v>
+                  <c:v>2993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284</c:v>
+                  <c:v>3811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>342</c:v>
+                  <c:v>3956</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>647</c:v>
+                  <c:v>4083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>536</c:v>
+                  <c:v>4708</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1221</c:v>
+                  <c:v>6067</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1084</c:v>
+                  <c:v>5832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>979</c:v>
+                  <c:v>5494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1290</c:v>
+                  <c:v>6369</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1276</c:v>
+                  <c:v>5926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5094,34 +5085,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>83</c:v>
+                  <c:v>1175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>1323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174</c:v>
+                  <c:v>1444</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>201</c:v>
+                  <c:v>1646</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>241</c:v>
+                  <c:v>2104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>280</c:v>
+                  <c:v>2555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>3008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>293</c:v>
+                  <c:v>3426</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>304</c:v>
+                  <c:v>3886</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>297</c:v>
+                  <c:v>4297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5233,34 +5224,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.21558441558441557</c:v>
+                  <c:v>0.39258269295021719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50704225352112675</c:v>
+                  <c:v>0.34715297822093938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50877192982456143</c:v>
+                  <c:v>0.36501516683518703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31066460587326122</c:v>
+                  <c:v>0.40313494979181974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44962686567164178</c:v>
+                  <c:v>0.44689889549702633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22932022932022933</c:v>
+                  <c:v>0.4211307071040053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2767527675276753</c:v>
+                  <c:v>0.51577503429355276</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2992849846782431</c:v>
+                  <c:v>0.6235893702220604</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23565891472868217</c:v>
+                  <c:v>0.61014287957293134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23275862068965517</c:v>
+                  <c:v>0.72510968612892335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5753,34 +5744,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5836</c:v>
+                  <c:v>10919</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6098</c:v>
+                  <c:v>9951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5799</c:v>
+                  <c:v>9156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5885</c:v>
+                  <c:v>8974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6746</c:v>
+                  <c:v>8908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6439</c:v>
+                  <c:v>9040</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6711</c:v>
+                  <c:v>9257</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7146</c:v>
+                  <c:v>9112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8168</c:v>
+                  <c:v>10991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19661</c:v>
+                  <c:v>13186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5890,34 +5881,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3182</c:v>
+                  <c:v>8019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2698</c:v>
+                  <c:v>7421</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2787</c:v>
+                  <c:v>7074</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2472</c:v>
+                  <c:v>7457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792</c:v>
+                  <c:v>8734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2874</c:v>
+                  <c:v>8097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2765</c:v>
+                  <c:v>8761</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3763</c:v>
+                  <c:v>10239</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3807</c:v>
+                  <c:v>13685</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6611</c:v>
+                  <c:v>14021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6319,34 +6310,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1545</c:v>
+                  <c:v>2747</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1338</c:v>
+                  <c:v>2658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1550</c:v>
+                  <c:v>2555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1077</c:v>
+                  <c:v>2264</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1559</c:v>
+                  <c:v>2258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1779</c:v>
+                  <c:v>2474</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1754</c:v>
+                  <c:v>2123</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1973</c:v>
+                  <c:v>2390</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2505</c:v>
+                  <c:v>2569</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4068</c:v>
+                  <c:v>2985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6456,34 +6447,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4774</c:v>
+                  <c:v>5384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4380</c:v>
+                  <c:v>4324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4207</c:v>
+                  <c:v>3729</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4259</c:v>
+                  <c:v>3694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4680</c:v>
+                  <c:v>5047</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4155</c:v>
+                  <c:v>5669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4824</c:v>
+                  <c:v>6988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5041</c:v>
+                  <c:v>7774</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4933</c:v>
+                  <c:v>8774</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16099</c:v>
+                  <c:v>9645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6885,34 +6876,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2699</c:v>
+                  <c:v>10807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3078</c:v>
+                  <c:v>10390</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2829</c:v>
+                  <c:v>9946</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3021</c:v>
+                  <c:v>10473</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3299</c:v>
+                  <c:v>10337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3379</c:v>
+                  <c:v>8994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2898</c:v>
+                  <c:v>8907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3895</c:v>
+                  <c:v>9187</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4537</c:v>
+                  <c:v>13333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6105</c:v>
+                  <c:v>14577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7002,34 +6993,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6319</c:v>
+                  <c:v>8131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5718</c:v>
+                  <c:v>6982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5757</c:v>
+                  <c:v>6284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5336</c:v>
+                  <c:v>5958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6239</c:v>
+                  <c:v>7305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5934</c:v>
+                  <c:v>8143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6578</c:v>
+                  <c:v>9111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7014</c:v>
+                  <c:v>10164</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7438</c:v>
+                  <c:v>11343</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20167</c:v>
+                  <c:v>12630</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7141,34 +7132,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.341237495368655</c:v>
+                  <c:v>0.7523827149070047</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8576998050682261</c:v>
+                  <c:v>0.67199230028873913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0349946977730649</c:v>
+                  <c:v>0.63181178363161072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7663025488248925</c:v>
+                  <c:v>0.56889143511887708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8911791451955138</c:v>
+                  <c:v>0.70668472477507982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7561408700799053</c:v>
+                  <c:v>0.90538136535468094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2698412698412698</c:v>
+                  <c:v>1.0229033344560459</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8007702182284981</c:v>
+                  <c:v>1.1063459235876782</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6394093013004187</c:v>
+                  <c:v>0.85074626865671643</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3033579033579032</c:v>
+                  <c:v>0.86643342251492073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7604,34 +7595,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3182</c:v>
+                  <c:v>8019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2698</c:v>
+                  <c:v>7421</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2787</c:v>
+                  <c:v>7074</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2472</c:v>
+                  <c:v>7457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792</c:v>
+                  <c:v>8734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2874</c:v>
+                  <c:v>8097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2765</c:v>
+                  <c:v>8761</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3763</c:v>
+                  <c:v>10239</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3807</c:v>
+                  <c:v>13685</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6611</c:v>
+                  <c:v>14021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7721,34 +7712,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1545</c:v>
+                  <c:v>2747</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1338</c:v>
+                  <c:v>2658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1550</c:v>
+                  <c:v>2555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1077</c:v>
+                  <c:v>2264</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1559</c:v>
+                  <c:v>2258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1779</c:v>
+                  <c:v>2474</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1754</c:v>
+                  <c:v>2123</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1973</c:v>
+                  <c:v>2390</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2505</c:v>
+                  <c:v>2569</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4068</c:v>
+                  <c:v>2985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7899,34 +7890,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.0595469255663432</c:v>
+                  <c:v>2.9191845649799784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0164424514200299</c:v>
+                  <c:v>2.7919488337095562</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7980645161290323</c:v>
+                  <c:v>2.768688845401174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2952646239554317</c:v>
+                  <c:v>3.2937279151943462</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.790891597177678</c:v>
+                  <c:v>3.8680248007085916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.615514333895447</c:v>
+                  <c:v>3.2728375101050928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5763968072976056</c:v>
+                  <c:v>4.1267074894017899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9072478459199189</c:v>
+                  <c:v>4.2841004184100422</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5197604790419161</c:v>
+                  <c:v>5.3269754768392374</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6251229105211407</c:v>
+                  <c:v>4.6971524288107203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8479,34 +8470,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1827</c:v>
+                  <c:v>4129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1056</c:v>
+                  <c:v>5177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>689</c:v>
+                  <c:v>5455</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1229</c:v>
+                  <c:v>5810</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1167</c:v>
+                  <c:v>6987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1683</c:v>
+                  <c:v>7667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1190</c:v>
+                  <c:v>6773</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1020</c:v>
+                  <c:v>6886</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2324</c:v>
+                  <c:v>9914</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1856</c:v>
+                  <c:v>11119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8672,34 +8663,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1101</c:v>
+                  <c:v>2125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>624</c:v>
+                  <c:v>2777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>304</c:v>
+                  <c:v>2986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>900</c:v>
+                  <c:v>3595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>843</c:v>
+                  <c:v>3648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1207</c:v>
+                  <c:v>5537</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>852</c:v>
+                  <c:v>4985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1985</c:v>
+                  <c:v>5568</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1890</c:v>
+                  <c:v>7736</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1894</c:v>
+                  <c:v>8709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8868,34 +8859,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>385</c:v>
+                  <c:v>2993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284</c:v>
+                  <c:v>3811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>342</c:v>
+                  <c:v>3956</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>647</c:v>
+                  <c:v>4083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>536</c:v>
+                  <c:v>4708</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1221</c:v>
+                  <c:v>6067</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1084</c:v>
+                  <c:v>5832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>979</c:v>
+                  <c:v>5494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1290</c:v>
+                  <c:v>6369</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1276</c:v>
+                  <c:v>5926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9308,34 +9299,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.208915502328676</c:v>
+                  <c:v>11.220825852782765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.094133697135061</c:v>
+                  <c:v>15.985493898227032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5406475658047984</c:v>
+                  <c:v>18.398028342575479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.769414861792509</c:v>
+                  <c:v>21.879374353356461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8383308869784027</c:v>
+                  <c:v>20.677927672599477</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.960377966283689</c:v>
+                  <c:v>32.31020598704557</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.99113550021106</c:v>
+                  <c:v>27.666777666777666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.195984966541388</c:v>
+                  <c:v>28.773706785179062</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.782881002087683</c:v>
+                  <c:v>31.35029988652942</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2091961023142508</c:v>
+                  <c:v>32.010144448119966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9472,34 +9463,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40.792886254168209</c:v>
+                  <c:v>19.66318127139817</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.2729044834308</c:v>
+                  <c:v>26.727622714148218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.745846588900672</c:v>
+                  <c:v>30.022119445003018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.791459781529294</c:v>
+                  <c:v>34.326363028740573</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.553197938769323</c:v>
+                  <c:v>35.290703298829449</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.720627404557561</c:v>
+                  <c:v>61.563264398487881</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.399585921325052</c:v>
+                  <c:v>55.967216795778604</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.96277278562259</c:v>
+                  <c:v>60.607379993469031</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.657482918227906</c:v>
+                  <c:v>58.021450536263409</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.023751023751025</c:v>
+                  <c:v>59.744803457501547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9636,34 +9627,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>22.989999771118164</c:v>
+                  <c:v>13.489999771118164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.75</c:v>
+                  <c:v>18.299999237060547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8600001335144043</c:v>
+                  <c:v>20.600000381469727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.329999923706055</c:v>
+                  <c:v>25.600000381469727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.489999771118164</c:v>
+                  <c:v>25.940000534057617</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.989999771118164</c:v>
+                  <c:v>39.619998931884766</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.409999847412109</c:v>
+                  <c:v>35.590000152587891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.430000305175781</c:v>
+                  <c:v>36.990001678466797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.680000305175781</c:v>
+                  <c:v>41.900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.380000114440918</c:v>
+                  <c:v>39.439998626708984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10119,34 +10110,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>159.33399963378906</c:v>
+                  <c:v>1113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.16700744628906</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152.28799438476563</c:v>
+                  <c:v>1043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145.66799926757813</c:v>
+                  <c:v>1021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>138.31700134277344</c:v>
+                  <c:v>1012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135.41700744628906</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124.65200042724609</c:v>
+                  <c:v>952</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>118.48100280761719</c:v>
+                  <c:v>921</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112.08399963378906</c:v>
+                  <c:v>923</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109.23500061035156</c:v>
+                  <c:v>916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18077,7 +18068,7 @@
                   <m:oMathParaPr>
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
-                  <m:oMath>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                     <m:r>
                       <a:rPr lang="en-US" sz="2000" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -18171,7 +18162,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -18693,24 +18684,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.90625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.453125"/>
-    <col min="4" max="4" customWidth="true" width="7.08984375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.1796875"/>
-    <col min="6" max="6" customWidth="true" width="19.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
       <c r="B3" s="139" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
@@ -18864,47 +18855,47 @@
       <c r="E12" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="123" t="n">
+      <c r="F12" s="123">
         <f>AVERAGE(L12:P12)</f>
         <v>30.422226954730338</v>
       </c>
-      <c r="G12" s="119" t="n">
+      <c r="G12" s="119">
         <f>Financials!D76</f>
         <v>11.220825852782765</v>
       </c>
-      <c r="H12" s="119" t="n">
+      <c r="H12" s="119">
         <f>Financials!E76</f>
         <v>15.985493898227032</v>
       </c>
-      <c r="I12" s="119" t="n">
+      <c r="I12" s="119">
         <f>Financials!F76</f>
-        <v>18.39802834257548</v>
-      </c>
-      <c r="J12" s="119" t="n">
+        <v>18.398028342575479</v>
+      </c>
+      <c r="J12" s="119">
         <f>Financials!G76</f>
-        <v>21.87937435335646</v>
-      </c>
-      <c r="K12" s="119" t="n">
+        <v>21.879374353356461</v>
+      </c>
+      <c r="K12" s="119">
         <f>Financials!H76</f>
         <v>20.677927672599477</v>
       </c>
-      <c r="L12" s="119" t="n">
+      <c r="L12" s="119">
         <f>Financials!I76</f>
         <v>32.31020598704557</v>
       </c>
-      <c r="M12" s="119" t="n">
+      <c r="M12" s="119">
         <f>Financials!J76</f>
         <v>27.666777666777666</v>
       </c>
-      <c r="N12" s="119" t="n">
+      <c r="N12" s="119">
         <f>Financials!K76</f>
         <v>28.773706785179062</v>
       </c>
-      <c r="O12" s="119" t="n">
+      <c r="O12" s="119">
         <f>Financials!L76</f>
         <v>31.35029988652942</v>
       </c>
-      <c r="P12" s="119" t="n">
+      <c r="P12" s="119">
         <f>Financials!M76</f>
         <v>32.010144448119966</v>
       </c>
@@ -18938,49 +18929,49 @@
       <c r="E14" s="46">
         <v>0.08</v>
       </c>
-      <c r="F14" s="124" t="n">
+      <c r="F14" s="124">
         <f>AVERAGE(L14:P14)</f>
         <v>59.180823036300104</v>
       </c>
-      <c r="G14" s="40" t="n">
+      <c r="G14" s="40">
         <f>Financials!D77</f>
         <v>19.66318127139817</v>
       </c>
-      <c r="H14" s="40" t="n">
+      <c r="H14" s="40">
         <f>Financials!E77</f>
         <v>26.727622714148218</v>
       </c>
-      <c r="I14" s="40" t="n">
+      <c r="I14" s="40">
         <f>Financials!F77</f>
         <v>30.022119445003018</v>
       </c>
-      <c r="J14" s="40" t="n">
+      <c r="J14" s="40">
         <f>Financials!G77</f>
-        <v>34.32636302874057</v>
-      </c>
-      <c r="K14" s="40" t="n">
+        <v>34.326363028740573</v>
+      </c>
+      <c r="K14" s="40">
         <f>Financials!H77</f>
-        <v>35.29070329882945</v>
-      </c>
-      <c r="L14" s="40" t="n">
+        <v>35.290703298829449</v>
+      </c>
+      <c r="L14" s="40">
         <f>Financials!I77</f>
-        <v>61.56326439848788</v>
-      </c>
-      <c r="M14" s="40" t="n">
+        <v>61.563264398487881</v>
+      </c>
+      <c r="M14" s="40">
         <f>Financials!J77</f>
         <v>55.967216795778604</v>
       </c>
-      <c r="N14" s="40" t="n">
+      <c r="N14" s="40">
         <f>Financials!K77</f>
-        <v>60.60737999346903</v>
-      </c>
-      <c r="O14" s="40" t="n">
+        <v>60.607379993469031</v>
+      </c>
+      <c r="O14" s="40">
         <f>Financials!L77</f>
-        <v>58.02145053626341</v>
-      </c>
-      <c r="P14" s="40" t="n">
+        <v>58.021450536263409</v>
+      </c>
+      <c r="P14" s="40">
         <f>Financials!M77</f>
-        <v>59.74480345750155</v>
+        <v>59.744803457501547</v>
       </c>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
@@ -19015,51 +19006,51 @@
         <f>T11</f>
         <v>J</v>
       </c>
-      <c r="E16" s="47" t="n">
+      <c r="E16" s="47">
         <f>WACC!$C$25</f>
         <v>0.11456412077430318</v>
       </c>
-      <c r="F16" s="124" t="n">
+      <c r="F16" s="124">
         <f>AVERAGE(L16:P16)</f>
-        <v>38.70800018310547</v>
-      </c>
-      <c r="G16" s="40" t="n">
+        <v>38.708000183105469</v>
+      </c>
+      <c r="G16" s="40">
         <f>Financials!D78</f>
         <v>13.489999771118164</v>
       </c>
-      <c r="H16" s="40" t="n">
+      <c r="H16" s="40">
         <f>Financials!E78</f>
         <v>18.299999237060547</v>
       </c>
-      <c r="I16" s="40" t="n">
+      <c r="I16" s="40">
         <f>Financials!F78</f>
         <v>20.600000381469727</v>
       </c>
-      <c r="J16" s="40" t="n">
+      <c r="J16" s="40">
         <f>Financials!G78</f>
         <v>25.600000381469727</v>
       </c>
-      <c r="K16" s="40" t="n">
+      <c r="K16" s="40">
         <f>Financials!H78</f>
         <v>25.940000534057617</v>
       </c>
-      <c r="L16" s="40" t="n">
+      <c r="L16" s="40">
         <f>Financials!I78</f>
         <v>39.619998931884766</v>
       </c>
-      <c r="M16" s="40" t="n">
+      <c r="M16" s="40">
         <f>Financials!J78</f>
-        <v>35.59000015258789</v>
-      </c>
-      <c r="N16" s="40" t="n">
+        <v>35.590000152587891</v>
+      </c>
+      <c r="N16" s="40">
         <f>Financials!K78</f>
-        <v>36.9900016784668</v>
-      </c>
-      <c r="O16" s="40" t="n">
+        <v>36.990001678466797</v>
+      </c>
+      <c r="O16" s="40">
         <f>Financials!L78</f>
         <v>41.900001525878906</v>
       </c>
-      <c r="P16" s="40" t="n">
+      <c r="P16" s="40">
         <f>Financials!M78</f>
         <v>39.439998626708984</v>
       </c>
@@ -19102,49 +19093,49 @@
       <c r="E18" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="125" t="n">
+      <c r="F18" s="125">
         <f>AVERAGE(L18:P18)</f>
-        <v>4.341554664713376</v>
-      </c>
-      <c r="G18" s="42" t="n">
+        <v>4.3415546647133763</v>
+      </c>
+      <c r="G18" s="42">
         <f>Financials!D59</f>
         <v>2.9191845649799784</v>
       </c>
-      <c r="H18" s="42" t="n">
+      <c r="H18" s="42">
         <f>Financials!E59</f>
-        <v>2.791948833709556</v>
-      </c>
-      <c r="I18" s="42" t="n">
+        <v>2.7919488337095562</v>
+      </c>
+      <c r="I18" s="42">
         <f>Financials!F59</f>
         <v>2.768688845401174</v>
       </c>
-      <c r="J18" s="42" t="n">
+      <c r="J18" s="42">
         <f>Financials!G59</f>
-        <v>3.293727915194346</v>
-      </c>
-      <c r="K18" s="42" t="n">
+        <v>3.2937279151943462</v>
+      </c>
+      <c r="K18" s="42">
         <f>Financials!H59</f>
         <v>3.8680248007085916</v>
       </c>
-      <c r="L18" s="42" t="n">
+      <c r="L18" s="42">
         <f>Financials!I59</f>
-        <v>3.272837510105093</v>
-      </c>
-      <c r="M18" s="42" t="n">
+        <v>3.2728375101050928</v>
+      </c>
+      <c r="M18" s="42">
         <f>Financials!J59</f>
-        <v>4.12670748940179</v>
-      </c>
-      <c r="N18" s="42" t="n">
+        <v>4.1267074894017899</v>
+      </c>
+      <c r="N18" s="42">
         <f>Financials!K59</f>
-        <v>4.284100418410042</v>
-      </c>
-      <c r="O18" s="42" t="n">
+        <v>4.2841004184100422</v>
+      </c>
+      <c r="O18" s="42">
         <f>Financials!L59</f>
         <v>5.3269754768392374</v>
       </c>
-      <c r="P18" s="42" t="n">
+      <c r="P18" s="42">
         <f>Financials!M59</f>
-        <v>4.69715242881072</v>
+        <v>4.6971524288107203</v>
       </c>
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
@@ -19175,7 +19166,7 @@
     <row r="20" spans="2:20" ht="18.5">
       <c r="B20" s="152"/>
       <c r="C20" s="36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D20" s="54" t="str">
         <f>T11</f>
@@ -19184,49 +19175,49 @@
       <c r="E20" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="125" t="n">
+      <c r="F20" s="125">
         <f>AVERAGE(L20:P20)</f>
-        <v>0.9503620629140084</v>
-      </c>
-      <c r="G20" s="42" t="n">
+        <v>0.95036206291400838</v>
+      </c>
+      <c r="G20" s="42">
         <f>Financials!D58</f>
         <v>0.7523827149070047</v>
       </c>
-      <c r="H20" s="42" t="n">
+      <c r="H20" s="42">
         <f>Financials!E58</f>
-        <v>0.6719923002887391</v>
-      </c>
-      <c r="I20" s="42" t="n">
+        <v>0.67199230028873913</v>
+      </c>
+      <c r="I20" s="42">
         <f>Financials!F58</f>
-        <v>0.6318117836316107</v>
-      </c>
-      <c r="J20" s="42" t="n">
+        <v>0.63181178363161072</v>
+      </c>
+      <c r="J20" s="42">
         <f>Financials!G58</f>
-        <v>0.5688914351188771</v>
-      </c>
-      <c r="K20" s="42" t="n">
+        <v>0.56889143511887708</v>
+      </c>
+      <c r="K20" s="42">
         <f>Financials!H58</f>
-        <v>0.7066847247750798</v>
-      </c>
-      <c r="L20" s="42" t="n">
+        <v>0.70668472477507982</v>
+      </c>
+      <c r="L20" s="42">
         <f>Financials!I58</f>
-        <v>0.905381365354681</v>
-      </c>
-      <c r="M20" s="42" t="n">
+        <v>0.90538136535468094</v>
+      </c>
+      <c r="M20" s="42">
         <f>Financials!J58</f>
         <v>1.0229033344560459</v>
       </c>
-      <c r="N20" s="42" t="n">
+      <c r="N20" s="42">
         <f>Financials!K58</f>
         <v>1.1063459235876782</v>
       </c>
-      <c r="O20" s="42" t="n">
+      <c r="O20" s="42">
         <f>Financials!L58</f>
-        <v>0.8507462686567164</v>
-      </c>
-      <c r="P20" s="42" t="n">
+        <v>0.85074626865671643</v>
+      </c>
+      <c r="P20" s="42">
         <f>Financials!M58</f>
-        <v>0.8664334225149207</v>
+        <v>0.86643342251492073</v>
       </c>
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
@@ -19257,58 +19248,58 @@
     <row r="22" spans="2:20" ht="18.5">
       <c r="B22" s="132"/>
       <c r="C22" s="36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D22" s="54" t="str">
         <f>T11</f>
         <v>J</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="125" t="n">
+        <v>158</v>
+      </c>
+      <c r="F22" s="125">
         <f>AVERAGE(L22:P22)</f>
-        <v>0.7449277544713523</v>
-      </c>
-      <c r="G22" s="42" t="n">
+        <v>0.74492775447135229</v>
+      </c>
+      <c r="G22" s="42">
         <f>Financials!D60</f>
         <v>1.0070234923710342</v>
       </c>
-      <c r="H22" s="42" t="n">
+      <c r="H22" s="42">
         <f>Financials!E60</f>
-        <v>0.7011782885841221</v>
-      </c>
-      <c r="I22" s="42" t="n">
+        <v>0.70117828858412212</v>
+      </c>
+      <c r="I22" s="42">
         <f>Financials!F60</f>
-        <v>0.5719523373052245</v>
-      </c>
-      <c r="J22" s="42" t="n">
+        <v>0.57195233730522455</v>
+      </c>
+      <c r="J22" s="42">
         <f>Financials!G60</f>
-        <v>0.5125645438898451</v>
-      </c>
-      <c r="K22" s="42" t="n">
+        <v>0.51256454388984507</v>
+      </c>
+      <c r="K22" s="42">
         <f>Financials!H60</f>
-        <v>0.511950765707743</v>
-      </c>
-      <c r="L22" s="42" t="n">
+        <v>0.51195076570774301</v>
+      </c>
+      <c r="L22" s="42">
         <f>Financials!I60</f>
-        <v>0.5633233337680971</v>
-      </c>
-      <c r="M22" s="42" t="n">
+        <v>0.56332333376809707</v>
+      </c>
+      <c r="M22" s="42">
         <f>Financials!J60</f>
-        <v>0.7829617599291304</v>
-      </c>
-      <c r="N22" s="42" t="n">
+        <v>0.78296175992913042</v>
+      </c>
+      <c r="N22" s="42">
         <f>Financials!K60</f>
-        <v>0.9073482428115016</v>
-      </c>
-      <c r="O22" s="42" t="n">
+        <v>0.90734824281150162</v>
+      </c>
+      <c r="O22" s="42">
         <f>Financials!L60</f>
-        <v>0.7303812789993948</v>
-      </c>
-      <c r="P22" s="42" t="n">
+        <v>0.73038127899939476</v>
+      </c>
+      <c r="P22" s="42">
         <f>Financials!M60</f>
-        <v>0.7406241568486375</v>
+        <v>0.74062415684863747</v>
       </c>
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
@@ -19351,45 +19342,45 @@
         <v>69</v>
       </c>
       <c r="F24" s="50"/>
-      <c r="G24" s="40" t="n">
+      <c r="G24" s="40">
         <f>Financials!D12</f>
-        <v>1113.0</v>
-      </c>
-      <c r="H24" s="40" t="n">
+        <v>1113</v>
+      </c>
+      <c r="H24" s="40">
         <f>Financials!E12</f>
-        <v>1080.0</v>
-      </c>
-      <c r="I24" s="40" t="n">
+        <v>1080</v>
+      </c>
+      <c r="I24" s="40">
         <f>Financials!F12</f>
-        <v>1043.0</v>
-      </c>
-      <c r="J24" s="40" t="n">
+        <v>1043</v>
+      </c>
+      <c r="J24" s="40">
         <f>Financials!G12</f>
-        <v>1021.0</v>
-      </c>
-      <c r="K24" s="40" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K24" s="40">
         <f>Financials!H12</f>
-        <v>1012.0</v>
-      </c>
-      <c r="L24" s="40" t="n">
+        <v>1012</v>
+      </c>
+      <c r="L24" s="40">
         <f>Financials!I12</f>
-        <v>990.0</v>
-      </c>
-      <c r="M24" s="40" t="n">
+        <v>990</v>
+      </c>
+      <c r="M24" s="40">
         <f>Financials!J12</f>
-        <v>952.0</v>
-      </c>
-      <c r="N24" s="40" t="n">
+        <v>952</v>
+      </c>
+      <c r="N24" s="40">
         <f>Financials!K12</f>
-        <v>921.0</v>
-      </c>
-      <c r="O24" s="40" t="n">
+        <v>921</v>
+      </c>
+      <c r="O24" s="40">
         <f>Financials!L12</f>
-        <v>923.0</v>
-      </c>
-      <c r="P24" s="40" t="n">
+        <v>923</v>
+      </c>
+      <c r="P24" s="40">
         <f>Financials!M12</f>
-        <v>916.0</v>
+        <v>916</v>
       </c>
       <c r="Q24" s="44"/>
       <c r="R24" s="44"/>
@@ -19429,51 +19420,51 @@
         <v>L</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="57" t="n">
+        <v>160</v>
+      </c>
+      <c r="F26" s="57">
         <f>AVERAGEIF(L26:P26,"&lt;100")</f>
-        <v>23.31599998474121</v>
-      </c>
-      <c r="G26" s="44" t="n">
+        <v>23.315999984741211</v>
+      </c>
+      <c r="G26" s="44">
         <f>Financials!D81</f>
         <v>25.979999542236328</v>
       </c>
-      <c r="H26" s="44" t="n">
+      <c r="H26" s="44">
         <f>Financials!E81</f>
         <v>23.549999237060547</v>
       </c>
-      <c r="I26" s="44" t="n">
+      <c r="I26" s="44">
         <f>Financials!F81</f>
         <v>19.719999313354492</v>
       </c>
-      <c r="J26" s="44" t="n">
+      <c r="J26" s="44">
         <f>Financials!G81</f>
         <v>23.239999771118164</v>
       </c>
-      <c r="K26" s="44" t="n">
+      <c r="K26" s="44">
         <f>Financials!H81</f>
         <v>24.399999618530273</v>
       </c>
-      <c r="L26" s="44" t="n">
+      <c r="L26" s="44">
         <f>Financials!I81</f>
         <v>20.239999771118164</v>
       </c>
-      <c r="M26" s="44" t="n">
+      <c r="M26" s="44">
         <f>Financials!J81</f>
         <v>23.799999237060547</v>
       </c>
-      <c r="N26" s="44" t="n">
+      <c r="N26" s="44">
         <f>Financials!K81</f>
         <v>31.030000686645508</v>
       </c>
-      <c r="O26" s="44" t="n">
+      <c r="O26" s="44">
         <f>Financials!L81</f>
         <v>24.190000534057617</v>
       </c>
-      <c r="P26" s="44" t="n">
+      <c r="P26" s="44">
         <f>Financials!M81</f>
-        <v>17.31999969482422</v>
+        <v>17.319999694824219</v>
       </c>
       <c r="Q26" s="44"/>
       <c r="R26" s="44"/>
@@ -19511,49 +19502,49 @@
         <v>L</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" s="57" t="n">
+        <v>161</v>
+      </c>
+      <c r="F28" s="57">
         <f>AVERAGEIF(L28:P28, "&lt;100")</f>
         <v>19.06800022125244</v>
       </c>
-      <c r="G28" s="44" t="n">
+      <c r="G28" s="44">
         <f>Financials!D82</f>
         <v>15.029999732971191</v>
       </c>
-      <c r="H28" s="44" t="n">
+      <c r="H28" s="44">
         <f>Financials!E82</f>
         <v>15.25</v>
       </c>
-      <c r="I28" s="44" t="n">
+      <c r="I28" s="44">
         <f>Financials!F82</f>
         <v>14.039999961853027</v>
       </c>
-      <c r="J28" s="44" t="n">
+      <c r="J28" s="44">
         <f>Financials!G82</f>
-        <v>16.68000030517578</v>
-      </c>
-      <c r="K28" s="44" t="n">
+        <v>16.680000305175781</v>
+      </c>
+      <c r="K28" s="44">
         <f>Financials!H82</f>
         <v>21.989999771118164</v>
       </c>
-      <c r="L28" s="44" t="n">
+      <c r="L28" s="44">
         <f>Financials!I82</f>
         <v>13.539999961853027</v>
       </c>
-      <c r="M28" s="44" t="n">
+      <c r="M28" s="44">
         <f>Financials!J82</f>
         <v>17.440000534057617</v>
       </c>
-      <c r="N28" s="44" t="n">
+      <c r="N28" s="44">
         <f>Financials!K82</f>
-        <v>26.65999984741211</v>
-      </c>
-      <c r="O28" s="44" t="n">
+        <v>26.659999847412109</v>
+      </c>
+      <c r="O28" s="44">
         <f>Financials!L82</f>
-        <v>20.68000030517578</v>
-      </c>
-      <c r="P28" s="44" t="n">
+        <v>20.680000305175781</v>
+      </c>
+      <c r="P28" s="44">
         <f>Financials!M82</f>
         <v>17.020000457763672</v>
       </c>
@@ -19591,9 +19582,9 @@
       <c r="E30" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="127" t="n">
+      <c r="F30" s="127">
         <f>Financials!$C$83</f>
-        <v>2.990000009536743</v>
+        <v>2.9900000095367432</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
@@ -19627,9 +19618,9 @@
       <c r="E32" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="52" t="n">
+      <c r="F32" s="52">
         <f>Financials!D63</f>
-        <v>-0.0046919183617391</v>
+        <v>-4.6919183617391003E-3</v>
       </c>
     </row>
     <row r="33" spans="2:17" ht="18.5">
@@ -19644,9 +19635,9 @@
       <c r="E33" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="52" t="n">
+      <c r="F33" s="52">
         <f>Financials!D64</f>
-        <v>0.0706943058676468</v>
+        <v>7.0694305867646801E-2</v>
       </c>
     </row>
     <row r="34" spans="2:17">
@@ -19668,9 +19659,9 @@
       <c r="E35" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="52" t="n">
+      <c r="F35" s="52">
         <f>Financials!D69</f>
-        <v>0.07717943480403444</v>
+        <v>7.7179434804034441E-2</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="18.5">
@@ -19685,7 +19676,7 @@
       <c r="E36" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="52" t="n">
+      <c r="F36" s="52">
         <f>Financials!D70</f>
         <v>0.21911358130616465</v>
       </c>
@@ -19710,9 +19701,9 @@
       <c r="E38" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="52" t="n">
+      <c r="F38" s="52">
         <f>Financials!D65</f>
-        <v>0.09480999446339822</v>
+        <v>9.4809994463398217E-2</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="18.5">
@@ -19727,9 +19718,9 @@
       <c r="E39" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="52" t="n">
+      <c r="F39" s="52">
         <f>Financials!D66</f>
-        <v>0.1514920280259202</v>
+        <v>0.15149202802592021</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -19751,9 +19742,9 @@
       <c r="E41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="52" t="n">
+      <c r="F41" s="52">
         <f>Financials!D67</f>
-        <v>0.04877928816872412</v>
+        <v>4.8779288168724122E-2</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="18.5">
@@ -19768,9 +19759,9 @@
       <c r="E42" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="52" t="n">
+      <c r="F42" s="52">
         <f>Financials!D68</f>
-        <v>0.050775600952138955</v>
+        <v>5.0775600952138955E-2</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -19790,7 +19781,7 @@
       <c r="E44" s="101">
         <v>0.75</v>
       </c>
-      <c r="F44" s="103" t="n">
+      <c r="F44" s="103">
         <f>Financials!$D$73</f>
         <v>0.5791495354642946</v>
       </c>
@@ -19807,7 +19798,7 @@
       <c r="E45" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="103" t="n">
+      <c r="F45" s="103">
         <f>Financials!D71</f>
         <v>0.10957046973041251</v>
       </c>
@@ -19824,9 +19815,9 @@
       <c r="E46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="103" t="n">
+      <c r="F46" s="103">
         <f>Financials!D72</f>
-        <v>0.1541294880541489</v>
+        <v>0.15412948805414889</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="18.5">
@@ -19841,7 +19832,7 @@
       <c r="E47" s="101">
         <v>0.12</v>
       </c>
-      <c r="F47" s="102" t="n">
+      <c r="F47" s="102">
         <f>F45+F46</f>
         <v>0.2636999577845614</v>
       </c>
@@ -19865,13 +19856,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B7" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19889,9 +19880,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="61.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="32.6328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.81640625"/>
+    <col min="2" max="2" width="61.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20" thickBot="1">
@@ -19919,7 +19910,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="P4" t="s" s="0">
+      <c r="P4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -19927,7 +19918,7 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="58" t="n">
+      <c r="C5" s="58">
         <v>153.69000244140625</v>
       </c>
     </row>
@@ -19935,47 +19926,47 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59" t="n">
-        <v>2985000.0</v>
+      <c r="C6" s="59">
+        <v>2985000</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="59" t="n">
-        <v>9645000.0</v>
+      <c r="C7" s="59">
+        <v>9645000</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59" t="n">
-        <v>214000.0</v>
+      <c r="C8" s="59">
+        <v>214000</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59" t="n">
-        <v>1.0032E7</v>
+      <c r="C9" s="59">
+        <v>10032000</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="59" t="n">
-        <v>1283000.0</v>
+      <c r="C10" s="59">
+        <v>1283000</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="60" t="n">
+      <c r="C11" s="60">
         <v>1.0299999713897705</v>
       </c>
       <c r="G11" s="33"/>
@@ -20001,7 +19992,7 @@
       <c r="C15" s="14">
         <v>0.12</v>
       </c>
-      <c r="K15" t="s" s="0">
+      <c r="K15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -20009,38 +20000,38 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="11">
         <f>SUM(C6:C7)</f>
-        <v>1.263E7</v>
+        <v>12630000</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12" t="n">
+      <c r="C18" s="12">
         <f>C8/C17</f>
-        <v>0.016943784639746634</v>
+        <v>1.6943784639746634E-2</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12" t="n">
+      <c r="C19" s="12">
         <f>C14+C11*(C15-C14)</f>
-        <v>0.12260999751091</v>
+        <v>0.12260999751090999</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12" t="n">
+      <c r="C20" s="12">
         <f>C8/C17</f>
-        <v>0.016943784639746634</v>
-      </c>
-      <c r="K20" t="s" s="0">
+        <v>1.6943784639746634E-2</v>
+      </c>
+      <c r="K20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -20048,11 +20039,11 @@
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="11">
         <f>C17+C5*1000000</f>
-        <v>1.66320002441406E8</v>
-      </c>
-      <c r="K21" t="s" s="0">
+        <v>166320002.44140601</v>
+      </c>
+      <c r="K21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -20060,11 +20051,11 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12" t="n">
+      <c r="C22" s="12">
         <f>C5*1000000/C21</f>
-        <v>0.9240620501767398</v>
-      </c>
-      <c r="K22" t="s" s="0">
+        <v>0.92406205017673981</v>
+      </c>
+      <c r="K22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -20072,9 +20063,9 @@
       <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12" t="n">
+      <c r="C23" s="12">
         <f>C17/C21</f>
-        <v>0.07593794982326019</v>
+        <v>7.5937949823260187E-2</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="14.5" customHeight="1" thickTop="1">
@@ -20088,7 +20079,7 @@
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="17" t="n">
+      <c r="C25" s="17">
         <f>C23*C20*(1-C18)+C22*C19</f>
         <v>0.11456412077430318</v>
       </c>
@@ -20123,20 +20114,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.90625"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.1796875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="9" max="12" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.81640625"/>
+    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="20" thickBot="1">
@@ -20149,7 +20140,7 @@
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="20">
         <f>WACC!C25</f>
         <v>0.11456412077430318</v>
       </c>
@@ -20166,15 +20157,15 @@
       <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="65" t="n">
-        <v>0.05000000074505806</v>
+      <c r="C6" s="65">
+        <v>5.000000074505806E-2</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="13">
         <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
         <v>0.30683824189859077</v>
       </c>
@@ -20183,24 +20174,24 @@
       <c r="B8" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="13">
         <f>AVERAGEIF(C29:L29,"&lt;2")</f>
-        <v>1.128805681687259</v>
+        <v>1.1288056816872589</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="66" t="n">
-        <v>14.0</v>
+      <c r="C9" s="66">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="67" t="n">
+      <c r="C10" s="67">
         <v>0.10000000149011612</v>
       </c>
     </row>
@@ -20208,8 +20199,8 @@
       <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="59" t="n">
-        <v>9.06205824E8</v>
+      <c r="C11" s="59">
+        <v>906205824</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -20259,45 +20250,45 @@
       <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21" t="n">
+      <c r="C16" s="21">
         <f>Financials!D3</f>
-        <v>12205.0</v>
-      </c>
-      <c r="D16" s="21" t="n">
+        <v>12205</v>
+      </c>
+      <c r="D16" s="21">
         <f>Financials!E3</f>
-        <v>13045.0</v>
-      </c>
-      <c r="E16" s="21" t="n">
+        <v>13045</v>
+      </c>
+      <c r="E16" s="21">
         <f>Financials!F3</f>
-        <v>13000.0</v>
-      </c>
-      <c r="F16" s="21" t="n">
+        <v>13000</v>
+      </c>
+      <c r="F16" s="21">
         <f>Financials!G3</f>
-        <v>13370.0</v>
-      </c>
-      <c r="G16" s="21" t="n">
+        <v>13370</v>
+      </c>
+      <c r="G16" s="21">
         <f>Financials!H3</f>
-        <v>14961.0</v>
-      </c>
-      <c r="H16" s="21" t="n">
+        <v>14961</v>
+      </c>
+      <c r="H16" s="21">
         <f>Financials!I3</f>
-        <v>15784.0</v>
-      </c>
-      <c r="I16" s="21" t="n">
+        <v>15784</v>
+      </c>
+      <c r="I16" s="21">
         <f>Financials!J3</f>
-        <v>14383.0</v>
-      </c>
-      <c r="J16" s="21" t="n">
+        <v>14383</v>
+      </c>
+      <c r="J16" s="21">
         <f>Financials!K3</f>
-        <v>14461.0</v>
-      </c>
-      <c r="K16" s="21" t="n">
+        <v>14461</v>
+      </c>
+      <c r="K16" s="21">
         <f>Financials!L3</f>
-        <v>18344.0</v>
-      </c>
-      <c r="L16" s="21" t="n">
+        <v>18344</v>
+      </c>
+      <c r="L16" s="21">
         <f>Financials!M3</f>
-        <v>20028.0</v>
+        <v>20028</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -20305,41 +20296,41 @@
         <v>27</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="20" t="n">
+      <c r="D17" s="20">
         <f t="shared" ref="D17:L17" si="0">(D16-C16)/C16</f>
-        <v>0.06882425235559197</v>
-      </c>
-      <c r="E17" s="20" t="n">
+        <v>6.8824252355591975E-2</v>
+      </c>
+      <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>-0.0034495975469528554</v>
-      </c>
-      <c r="F17" s="20" t="n">
+        <v>-3.4495975469528554E-3</v>
+      </c>
+      <c r="F17" s="20">
         <f t="shared" si="0"/>
-        <v>0.02846153846153846</v>
-      </c>
-      <c r="G17" s="20" t="n">
+        <v>2.8461538461538462E-2</v>
+      </c>
+      <c r="G17" s="20">
         <f t="shared" si="0"/>
         <v>0.11899775617053104</v>
       </c>
-      <c r="H17" s="20" t="n">
+      <c r="H17" s="20">
         <f t="shared" si="0"/>
-        <v>0.05500969186551701</v>
-      </c>
-      <c r="I17" s="20" t="n">
+        <v>5.5009691865517012E-2</v>
+      </c>
+      <c r="I17" s="20">
         <f t="shared" si="0"/>
-        <v>-0.08876077040040548</v>
-      </c>
-      <c r="J17" s="20" t="n">
+        <v>-8.8760770400405475E-2</v>
+      </c>
+      <c r="J17" s="20">
         <f t="shared" si="0"/>
-        <v>0.00542306890078565</v>
-      </c>
-      <c r="K17" s="20" t="n">
+        <v>5.4230689007856497E-3</v>
+      </c>
+      <c r="K17" s="20">
         <f t="shared" si="0"/>
         <v>0.26851531705967774</v>
       </c>
-      <c r="L17" s="20" t="n">
+      <c r="L17" s="20">
         <f t="shared" si="0"/>
-        <v>0.09180113388573921</v>
+        <v>9.1801133885739211E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -20359,45 +20350,45 @@
       <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="21" t="n">
+      <c r="C19" s="21">
         <f>Financials!D6</f>
-        <v>2125.0</v>
-      </c>
-      <c r="D19" s="21" t="n">
+        <v>2125</v>
+      </c>
+      <c r="D19" s="21">
         <f>Financials!E6</f>
-        <v>2777.0</v>
-      </c>
-      <c r="E19" s="21" t="n">
+        <v>2777</v>
+      </c>
+      <c r="E19" s="21">
         <f>Financials!F6</f>
-        <v>2986.0</v>
-      </c>
-      <c r="F19" s="21" t="n">
+        <v>2986</v>
+      </c>
+      <c r="F19" s="21">
         <f>Financials!G6</f>
-        <v>3595.0</v>
-      </c>
-      <c r="G19" s="21" t="n">
+        <v>3595</v>
+      </c>
+      <c r="G19" s="21">
         <f>Financials!H6</f>
-        <v>3648.0</v>
-      </c>
-      <c r="H19" s="21" t="n">
+        <v>3648</v>
+      </c>
+      <c r="H19" s="21">
         <f>Financials!I6</f>
-        <v>5537.0</v>
-      </c>
-      <c r="I19" s="21" t="n">
+        <v>5537</v>
+      </c>
+      <c r="I19" s="21">
         <f>Financials!J6</f>
-        <v>4985.0</v>
-      </c>
-      <c r="J19" s="21" t="n">
+        <v>4985</v>
+      </c>
+      <c r="J19" s="21">
         <f>Financials!K6</f>
-        <v>5568.0</v>
-      </c>
-      <c r="K19" s="21" t="n">
+        <v>5568</v>
+      </c>
+      <c r="K19" s="21">
         <f>Financials!L6</f>
-        <v>7736.0</v>
-      </c>
-      <c r="L19" s="21" t="n">
+        <v>7736</v>
+      </c>
+      <c r="L19" s="21">
         <f>Financials!M6</f>
-        <v>8709.0</v>
+        <v>8709</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -20405,39 +20396,39 @@
         <v>27</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="20" t="n">
+      <c r="D20" s="20">
         <f>(D19-C19)/C19</f>
-        <v>0.3068235294117647</v>
-      </c>
-      <c r="E20" s="20" t="n">
+        <v>0.30682352941176472</v>
+      </c>
+      <c r="E20" s="20">
         <f t="shared" ref="E20:L20" si="1">(E19-D19)/D19</f>
-        <v>0.07526107310046813</v>
-      </c>
-      <c r="F20" s="20" t="n">
+        <v>7.5261073100468132E-2</v>
+      </c>
+      <c r="F20" s="20">
         <f t="shared" si="1"/>
         <v>0.20395177494976557</v>
       </c>
-      <c r="G20" s="20" t="n">
+      <c r="G20" s="20">
         <f t="shared" si="1"/>
-        <v>0.01474269819193324</v>
-      </c>
-      <c r="H20" s="20" t="n">
+        <v>1.474269819193324E-2</v>
+      </c>
+      <c r="H20" s="20">
         <f t="shared" si="1"/>
         <v>0.5178179824561403</v>
       </c>
-      <c r="I20" s="20" t="n">
+      <c r="I20" s="20">
         <f t="shared" si="1"/>
-        <v>-0.09969297453494672</v>
-      </c>
-      <c r="J20" s="20" t="n">
+        <v>-9.9692974534946716E-2</v>
+      </c>
+      <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>0.11695085255767301</v>
       </c>
-      <c r="K20" s="20" t="n">
+      <c r="K20" s="20">
         <f t="shared" si="1"/>
         <v>0.38936781609195403</v>
       </c>
-      <c r="L20" s="20" t="n">
+      <c r="L20" s="20">
         <f t="shared" si="1"/>
         <v>0.12577559462254395</v>
       </c>
@@ -20446,45 +20437,45 @@
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="25" t="n">
+      <c r="C22" s="25">
         <f>Financials!D20</f>
-        <v>2993.0</v>
-      </c>
-      <c r="D22" s="25" t="n">
+        <v>2993</v>
+      </c>
+      <c r="D22" s="25">
         <f>Financials!E20</f>
-        <v>3811.0</v>
-      </c>
-      <c r="E22" s="25" t="n">
+        <v>3811</v>
+      </c>
+      <c r="E22" s="25">
         <f>Financials!F20</f>
-        <v>3956.0</v>
-      </c>
-      <c r="F22" s="25" t="n">
+        <v>3956</v>
+      </c>
+      <c r="F22" s="25">
         <f>Financials!G20</f>
-        <v>4083.0</v>
-      </c>
-      <c r="G22" s="25" t="n">
+        <v>4083</v>
+      </c>
+      <c r="G22" s="25">
         <f>Financials!H20</f>
-        <v>4708.0</v>
-      </c>
-      <c r="H22" s="25" t="n">
+        <v>4708</v>
+      </c>
+      <c r="H22" s="25">
         <f>Financials!I20</f>
-        <v>6067.0</v>
-      </c>
-      <c r="I22" s="25" t="n">
+        <v>6067</v>
+      </c>
+      <c r="I22" s="25">
         <f>Financials!J20</f>
-        <v>5832.0</v>
-      </c>
-      <c r="J22" s="25" t="n">
+        <v>5832</v>
+      </c>
+      <c r="J22" s="25">
         <f>Financials!K20</f>
-        <v>5494.0</v>
-      </c>
-      <c r="K22" s="25" t="n">
+        <v>5494</v>
+      </c>
+      <c r="K22" s="25">
         <f>Financials!L20</f>
-        <v>6369.0</v>
-      </c>
-      <c r="L22" s="25" t="n">
+        <v>6369</v>
+      </c>
+      <c r="L22" s="25">
         <f>Financials!M20</f>
-        <v>5926.0</v>
+        <v>5926</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -20492,41 +20483,41 @@
         <v>27</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="26" t="n">
+      <c r="D23" s="26">
         <f>(D22-C22)/C22</f>
         <v>0.27330437687938525</v>
       </c>
-      <c r="E23" s="26" t="n">
+      <c r="E23" s="26">
         <f t="shared" ref="E23:L23" si="2">(E22-D22)/D22</f>
-        <v>0.03804775649435844</v>
-      </c>
-      <c r="F23" s="26" t="n">
+        <v>3.8047756494358438E-2</v>
+      </c>
+      <c r="F23" s="26">
         <f t="shared" si="2"/>
-        <v>0.03210313447927199</v>
-      </c>
-      <c r="G23" s="26" t="n">
+        <v>3.2103134479271989E-2</v>
+      </c>
+      <c r="G23" s="26">
         <f t="shared" si="2"/>
         <v>0.15307372030369826</v>
       </c>
-      <c r="H23" s="26" t="n">
+      <c r="H23" s="26">
         <f t="shared" si="2"/>
-        <v>0.2886576040781648</v>
-      </c>
-      <c r="I23" s="26" t="n">
+        <v>0.28865760407816482</v>
+      </c>
+      <c r="I23" s="26">
         <f t="shared" si="2"/>
-        <v>-0.03873413548706115</v>
-      </c>
-      <c r="J23" s="26" t="n">
+        <v>-3.8734135487061151E-2</v>
+      </c>
+      <c r="J23" s="26">
         <f t="shared" si="2"/>
-        <v>-0.057956104252400546</v>
-      </c>
-      <c r="K23" s="26" t="n">
+        <v>-5.7956104252400546E-2</v>
+      </c>
+      <c r="K23" s="26">
         <f t="shared" si="2"/>
-        <v>0.159264652348016</v>
-      </c>
-      <c r="L23" s="26" t="n">
+        <v>0.15926465234801601</v>
+      </c>
+      <c r="L23" s="26">
         <f t="shared" si="2"/>
-        <v>-0.06955566022923536</v>
+        <v>-6.9555660229235358E-2</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -20546,45 +20537,45 @@
       <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="62" t="n">
+      <c r="C25" s="62">
         <f>Financials!D9</f>
-        <v>4129.0</v>
-      </c>
-      <c r="D25" s="62" t="n">
+        <v>4129</v>
+      </c>
+      <c r="D25" s="62">
         <f>Financials!E9</f>
-        <v>5177.0</v>
-      </c>
-      <c r="E25" s="62" t="n">
+        <v>5177</v>
+      </c>
+      <c r="E25" s="62">
         <f>Financials!F9</f>
-        <v>5455.0</v>
-      </c>
-      <c r="F25" s="62" t="n">
+        <v>5455</v>
+      </c>
+      <c r="F25" s="62">
         <f>Financials!G9</f>
-        <v>5810.0</v>
-      </c>
-      <c r="G25" s="62" t="n">
+        <v>5810</v>
+      </c>
+      <c r="G25" s="62">
         <f>Financials!H9</f>
-        <v>6987.0</v>
-      </c>
-      <c r="H25" s="62" t="n">
+        <v>6987</v>
+      </c>
+      <c r="H25" s="62">
         <f>Financials!I9</f>
-        <v>7667.0</v>
-      </c>
-      <c r="I25" s="62" t="n">
+        <v>7667</v>
+      </c>
+      <c r="I25" s="62">
         <f>Financials!J9</f>
-        <v>6773.0</v>
-      </c>
-      <c r="J25" s="62" t="n">
+        <v>6773</v>
+      </c>
+      <c r="J25" s="62">
         <f>Financials!K9</f>
-        <v>6886.0</v>
-      </c>
-      <c r="K25" s="62" t="n">
+        <v>6886</v>
+      </c>
+      <c r="K25" s="62">
         <f>Financials!L9</f>
-        <v>9914.0</v>
-      </c>
-      <c r="L25" s="62" t="n">
+        <v>9914</v>
+      </c>
+      <c r="L25" s="62">
         <f>Financials!M9</f>
-        <v>11119.0</v>
+        <v>11119</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -20592,39 +20583,39 @@
         <v>27</v>
       </c>
       <c r="C26" s="63"/>
-      <c r="D26" s="63" t="n">
+      <c r="D26" s="63">
         <f>Financials!E10</f>
         <v>0.25381448292564784</v>
       </c>
-      <c r="E26" s="63" t="n">
+      <c r="E26" s="63">
         <f>Financials!F10</f>
-        <v>0.05369905350589144</v>
-      </c>
-      <c r="F26" s="63" t="n">
+        <v>5.3699053505891443E-2</v>
+      </c>
+      <c r="F26" s="63">
         <f>Financials!G10</f>
-        <v>0.06507791017415215</v>
-      </c>
-      <c r="G26" s="63" t="n">
+        <v>6.5077910174152154E-2</v>
+      </c>
+      <c r="G26" s="63">
         <f>Financials!H10</f>
-        <v>0.2025817555938038</v>
-      </c>
-      <c r="H26" s="63" t="n">
+        <v>0.20258175559380379</v>
+      </c>
+      <c r="H26" s="63">
         <f>Financials!I10</f>
-        <v>0.09732360097323602</v>
-      </c>
-      <c r="I26" s="63" t="n">
+        <v>9.7323600973236016E-2</v>
+      </c>
+      <c r="I26" s="63">
         <f>Financials!J10</f>
         <v>-0.11660362592930743</v>
       </c>
-      <c r="J26" s="63" t="n">
+      <c r="J26" s="63">
         <f>Financials!K10</f>
-        <v>0.01668389192381515</v>
-      </c>
-      <c r="K26" s="63" t="n">
+        <v>1.6683891923815149E-2</v>
+      </c>
+      <c r="K26" s="63">
         <f>Financials!L10</f>
         <v>0.43973279117049086</v>
       </c>
-      <c r="L26" s="63" t="n">
+      <c r="L26" s="63">
         <f>Financials!M10</f>
         <v>0.12154528948961066</v>
       </c>
@@ -20633,90 +20624,90 @@
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="24" t="n">
+      <c r="C28" s="24">
         <f t="shared" ref="C28:L28" si="3">C19/C16</f>
         <v>0.17410897173289636</v>
       </c>
-      <c r="D28" s="24" t="n">
+      <c r="D28" s="24">
         <f t="shared" si="3"/>
         <v>0.212878497508624</v>
       </c>
-      <c r="E28" s="24" t="n">
+      <c r="E28" s="24">
         <f t="shared" si="3"/>
         <v>0.2296923076923077</v>
       </c>
-      <c r="F28" s="24" t="n">
+      <c r="F28" s="24">
         <f t="shared" si="3"/>
-        <v>0.268885564697083</v>
-      </c>
-      <c r="G28" s="24" t="n">
+        <v>0.26888556469708302</v>
+      </c>
+      <c r="G28" s="24">
         <f t="shared" si="3"/>
         <v>0.24383396831762583</v>
       </c>
-      <c r="H28" s="24" t="n">
+      <c r="H28" s="24">
         <f t="shared" si="3"/>
-        <v>0.3507982767359351</v>
-      </c>
-      <c r="I28" s="24" t="n">
+        <v>0.35079827673593511</v>
+      </c>
+      <c r="I28" s="24">
         <f t="shared" si="3"/>
-        <v>0.3465897239796982</v>
-      </c>
-      <c r="J28" s="24" t="n">
+        <v>0.34658972397969823</v>
+      </c>
+      <c r="J28" s="24">
         <f t="shared" si="3"/>
         <v>0.38503561302814465</v>
       </c>
-      <c r="K28" s="24" t="n">
+      <c r="K28" s="24">
         <f t="shared" si="3"/>
         <v>0.4217182730047972</v>
       </c>
-      <c r="L28" s="24" t="n">
+      <c r="L28" s="24">
         <f t="shared" si="3"/>
-        <v>0.4348412222887957</v>
+        <v>0.43484122228879568</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="15" thickBot="1">
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24" t="n">
+      <c r="C29" s="24">
         <f t="shared" ref="C29:L29" si="4">C22/C19</f>
         <v>1.4084705882352941</v>
       </c>
-      <c r="D29" s="24" t="n">
+      <c r="D29" s="24">
         <f t="shared" si="4"/>
         <v>1.3723442563917898</v>
       </c>
-      <c r="E29" s="24" t="n">
+      <c r="E29" s="24">
         <f t="shared" si="4"/>
         <v>1.3248492967180174</v>
       </c>
-      <c r="F29" s="24" t="n">
+      <c r="F29" s="24">
         <f t="shared" si="4"/>
         <v>1.1357440890125174</v>
       </c>
-      <c r="G29" s="24" t="n">
+      <c r="G29" s="24">
         <f t="shared" si="4"/>
         <v>1.2905701754385965</v>
       </c>
-      <c r="H29" s="24" t="n">
+      <c r="H29" s="24">
         <f t="shared" si="4"/>
         <v>1.0957197038107278</v>
       </c>
-      <c r="I29" s="24" t="n">
+      <c r="I29" s="24">
         <f t="shared" si="4"/>
         <v>1.1699097291875626</v>
       </c>
-      <c r="J29" s="24" t="n">
+      <c r="J29" s="24">
         <f t="shared" si="4"/>
-        <v>0.9867097701149425</v>
-      </c>
-      <c r="K29" s="24" t="n">
+        <v>0.98670977011494254</v>
+      </c>
+      <c r="K29" s="24">
         <f t="shared" si="4"/>
-        <v>0.8232936918304034</v>
-      </c>
-      <c r="L29" s="24" t="n">
+        <v>0.82329369183040335</v>
+      </c>
+      <c r="L29" s="24">
         <f t="shared" si="4"/>
-        <v>0.6804455161327363</v>
+        <v>0.68044551613273629</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="20" thickBot="1">
@@ -20763,43 +20754,43 @@
       <c r="B36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="21" t="n">
+      <c r="C36" s="21">
         <f>L16*(C37+1)</f>
-        <v>17957.10481122137</v>
-      </c>
-      <c r="D36" s="21" t="n">
+        <v>17957.104811221368</v>
+      </c>
+      <c r="D36" s="21">
         <f>C36*(D37+1)</f>
         <v>19451.135935582304</v>
       </c>
-      <c r="E36" s="21" t="n">
+      <c r="E36" s="21">
         <f>D36*(E37+1)</f>
         <v>20758.252223846368</v>
       </c>
-      <c r="F36" s="21" t="n">
+      <c r="F36" s="21">
         <f t="shared" ref="F36:L36" si="5">E36*(F37+1)</f>
         <v>21796.164850504865</v>
       </c>
-      <c r="G36" s="21" t="n">
+      <c r="G36" s="21">
         <f t="shared" si="5"/>
         <v>22885.973109269595</v>
       </c>
-      <c r="H36" s="21" t="n">
+      <c r="H36" s="21">
         <f t="shared" si="5"/>
         <v>24030.271781784504</v>
       </c>
-      <c r="I36" s="21" t="n">
+      <c r="I36" s="21">
         <f t="shared" si="5"/>
         <v>25231.78538877772</v>
       </c>
-      <c r="J36" s="21" t="n">
+      <c r="J36" s="21">
         <f t="shared" si="5"/>
         <v>26493.374677015778</v>
       </c>
-      <c r="K36" s="21" t="n">
+      <c r="K36" s="21">
         <f t="shared" si="5"/>
         <v>27818.043430605743</v>
       </c>
-      <c r="L36" s="21" t="n">
+      <c r="L36" s="21">
         <f t="shared" si="5"/>
         <v>29208.945622862095</v>
       </c>
@@ -20808,42 +20799,42 @@
       <c r="B37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="68" t="n">
+      <c r="C37" s="68">
         <v>-0.10339999943971634</v>
       </c>
-      <c r="D37" s="68" t="n">
-        <v>0.08320000022649765</v>
-      </c>
-      <c r="E37" s="68" t="n">
-        <v>0.06719999760389328</v>
-      </c>
-      <c r="F37" s="27" t="n">
+      <c r="D37" s="68">
+        <v>8.320000022649765E-2</v>
+      </c>
+      <c r="E37" s="68">
+        <v>6.719999760389328E-2</v>
+      </c>
+      <c r="F37" s="27">
         <f>C6</f>
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="G37" s="27" t="n">
+        <v>5.000000074505806E-2</v>
+      </c>
+      <c r="G37" s="27">
         <f>C6</f>
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="H37" s="27" t="n">
+        <v>5.000000074505806E-2</v>
+      </c>
+      <c r="H37" s="27">
         <f>C6</f>
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="I37" s="27" t="n">
+        <v>5.000000074505806E-2</v>
+      </c>
+      <c r="I37" s="27">
         <f>C6</f>
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="J37" s="27" t="n">
+        <v>5.000000074505806E-2</v>
+      </c>
+      <c r="J37" s="27">
         <f>C6</f>
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="K37" s="27" t="n">
+        <v>5.000000074505806E-2</v>
+      </c>
+      <c r="K37" s="27">
         <f>C6</f>
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="L37" s="27" t="n">
+        <v>5.000000074505806E-2</v>
+      </c>
+      <c r="L37" s="27">
         <f>C6</f>
-        <v>0.05000000074505806</v>
+        <v>5.000000074505806E-2</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -20863,88 +20854,88 @@
       <c r="B39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="21" t="n">
+      <c r="C39" s="21">
         <f>C36*C7</f>
         <v>5509.9264698639045</v>
       </c>
-      <c r="D39" s="21" t="n">
+      <c r="D39" s="21">
         <f>D36*C7</f>
         <v>5968.352353404578</v>
       </c>
-      <c r="E39" s="21" t="n">
+      <c r="E39" s="21">
         <f>E36*C7</f>
         <v>6369.4256172525465</v>
       </c>
-      <c r="F39" s="21" t="n">
+      <c r="F39" s="21">
         <f>F36*C7</f>
-        <v>6687.896902860789</v>
-      </c>
-      <c r="G39" s="21" t="n">
+        <v>6687.8969028607889</v>
+      </c>
+      <c r="G39" s="21">
         <f>G36*C7</f>
         <v>7022.2917529867145</v>
       </c>
-      <c r="H39" s="21" t="n">
+      <c r="H39" s="21">
         <f>H36*C7</f>
-        <v>7373.406345868078</v>
-      </c>
-      <c r="I39" s="21" t="n">
+        <v>7373.4063458680776</v>
+      </c>
+      <c r="I39" s="21">
         <f>I36*C7</f>
         <v>7742.076668655106</v>
       </c>
-      <c r="J39" s="21" t="n">
+      <c r="J39" s="21">
         <f>J36*C7</f>
-        <v>8129.180507856179</v>
-      </c>
-      <c r="K39" s="21" t="n">
+        <v>8129.1805078561792</v>
+      </c>
+      <c r="K39" s="21">
         <f>K36*C7</f>
-        <v>8535.639539305703</v>
-      </c>
-      <c r="L39" s="21" t="n">
+        <v>8535.6395393057028</v>
+      </c>
+      <c r="L39" s="21">
         <f>L36*C7</f>
-        <v>8962.421522630551</v>
+        <v>8962.4215226305514</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="18"/>
-      <c r="C40" s="20" t="n">
+      <c r="C40" s="20">
         <f>(C39-L19)/L19</f>
         <v>-0.36732960502194284</v>
       </c>
-      <c r="D40" s="20" t="n">
+      <c r="D40" s="20">
         <f>(D39-C39)/C39</f>
-        <v>0.08320000022649986</v>
-      </c>
-      <c r="E40" s="20" t="n">
+        <v>8.3200000226499857E-2</v>
+      </c>
+      <c r="E40" s="20">
         <f t="shared" ref="E40:L40" si="6">(E39-D39)/D39</f>
-        <v>0.06719999760389167</v>
-      </c>
-      <c r="F40" s="20" t="n">
+        <v>6.719999760389167E-2</v>
+      </c>
+      <c r="F40" s="20">
         <f t="shared" si="6"/>
-        <v>0.05000000074506161</v>
-      </c>
-      <c r="G40" s="20" t="n">
+        <v>5.0000000745061612E-2</v>
+      </c>
+      <c r="G40" s="20">
         <f t="shared" si="6"/>
-        <v>0.0500000007450603</v>
-      </c>
-      <c r="H40" s="20" t="n">
+        <v>5.0000000745060301E-2</v>
+      </c>
+      <c r="H40" s="20">
         <f t="shared" si="6"/>
-        <v>0.05000000074505983</v>
-      </c>
-      <c r="I40" s="20" t="n">
+        <v>5.0000000745059829E-2</v>
+      </c>
+      <c r="I40" s="20">
         <f t="shared" si="6"/>
-        <v>0.05000000074505917</v>
-      </c>
-      <c r="J40" s="20" t="n">
+        <v>5.000000074505917E-2</v>
+      </c>
+      <c r="J40" s="20">
         <f t="shared" si="6"/>
-        <v>0.05000000074506076</v>
-      </c>
-      <c r="K40" s="20" t="n">
+        <v>5.0000000745060759E-2</v>
+      </c>
+      <c r="K40" s="20">
         <f t="shared" si="6"/>
-        <v>0.0500000007450585</v>
-      </c>
-      <c r="L40" s="20" t="n">
+        <v>5.0000000745058497E-2</v>
+      </c>
+      <c r="L40" s="20">
         <f t="shared" si="6"/>
-        <v>0.050000000745060044</v>
+        <v>5.0000000745060044E-2</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -20964,43 +20955,43 @@
       <c r="B42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="21" t="n">
+      <c r="C42" s="21">
         <f>C39*C8</f>
-        <v>6219.636304861398</v>
-      </c>
-      <c r="D42" s="21" t="n">
+        <v>6219.6363048613975</v>
+      </c>
+      <c r="D42" s="21">
         <f>D39*C8</f>
-        <v>6737.110046834619</v>
-      </c>
-      <c r="E42" s="21" t="n">
+        <v>6737.1100468346194</v>
+      </c>
+      <c r="E42" s="21">
         <f>E39*C8</f>
         <v>7189.8438258390615</v>
       </c>
-      <c r="F42" s="21" t="n">
+      <c r="F42" s="21">
         <f>F39*C8</f>
-        <v>7549.336022487889</v>
-      </c>
-      <c r="G42" s="21" t="n">
+        <v>7549.3360224878888</v>
+      </c>
+      <c r="G42" s="21">
         <f>G39*C8</f>
-        <v>7926.802829236987</v>
-      </c>
-      <c r="H42" s="21" t="n">
+        <v>7926.8028292369872</v>
+      </c>
+      <c r="H42" s="21">
         <f>H39*C8</f>
-        <v>8323.142976604788</v>
-      </c>
-      <c r="I42" s="21" t="n">
+        <v>8323.1429766047877</v>
+      </c>
+      <c r="I42" s="21">
         <f>I39*C8</f>
-        <v>8739.300131636262</v>
-      </c>
-      <c r="J42" s="21" t="n">
+        <v>8739.3001316362624</v>
+      </c>
+      <c r="J42" s="21">
         <f>J39*C8</f>
-        <v>9176.265144729381</v>
-      </c>
-      <c r="K42" s="21" t="n">
+        <v>9176.2651447293811</v>
+      </c>
+      <c r="K42" s="21">
         <f>K39*C8</f>
-        <v>9635.078408802701</v>
-      </c>
-      <c r="L42" s="21" t="n">
+        <v>9635.0784088027012</v>
+      </c>
+      <c r="L42" s="21">
         <f>L39*C8</f>
         <v>10116.832336421548</v>
       </c>
@@ -21009,85 +21000,85 @@
       <c r="B43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="20" t="n">
+      <c r="C43" s="20">
         <f>(C42-L22)/L22</f>
-        <v>0.049550507064022614</v>
-      </c>
-      <c r="D43" s="20" t="n">
+        <v>4.9550507064022614E-2</v>
+      </c>
+      <c r="D43" s="20">
         <f>(D42-C42)/C42</f>
-        <v>0.08320000022650095</v>
-      </c>
-      <c r="E43" s="20" t="n">
+        <v>8.3200000226500953E-2</v>
+      </c>
+      <c r="E43" s="20">
         <f t="shared" ref="E43:L43" si="7">(E42-D42)/D42</f>
-        <v>0.06719999760389182</v>
-      </c>
-      <c r="F43" s="20" t="n">
+        <v>6.7199997603891823E-2</v>
+      </c>
+      <c r="F43" s="20">
         <f t="shared" si="7"/>
-        <v>0.050000000745061245</v>
-      </c>
-      <c r="G43" s="20" t="n">
+        <v>5.0000000745061245E-2</v>
+      </c>
+      <c r="G43" s="20">
         <f t="shared" si="7"/>
-        <v>0.050000000745059364</v>
-      </c>
-      <c r="H43" s="20" t="n">
+        <v>5.0000000745059364E-2</v>
+      </c>
+      <c r="H43" s="20">
         <f t="shared" si="7"/>
-        <v>0.050000000745060856</v>
-      </c>
-      <c r="I43" s="20" t="n">
+        <v>5.0000000745060856E-2</v>
+      </c>
+      <c r="I43" s="20">
         <f t="shared" si="7"/>
-        <v>0.05000000074505935</v>
-      </c>
-      <c r="J43" s="20" t="n">
+        <v>5.000000074505935E-2</v>
+      </c>
+      <c r="J43" s="20">
         <f t="shared" si="7"/>
-        <v>0.05000000074506035</v>
-      </c>
-      <c r="K43" s="20" t="n">
+        <v>5.000000074506035E-2</v>
+      </c>
+      <c r="K43" s="20">
         <f t="shared" si="7"/>
-        <v>0.050000000745058136</v>
-      </c>
-      <c r="L43" s="20" t="n">
+        <v>5.0000000745058136E-2</v>
+      </c>
+      <c r="L43" s="20">
         <f t="shared" si="7"/>
-        <v>0.05000000074506005</v>
+        <v>5.0000000745060051E-2</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="60" t="n">
-        <v>9064.0</v>
-      </c>
-      <c r="D45" s="60" t="n">
-        <v>10092.0</v>
-      </c>
-      <c r="E45" s="60" t="n">
-        <v>11973.0</v>
-      </c>
-      <c r="F45" s="21" t="n">
-        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
+      <c r="C45" s="60">
+        <v>9064</v>
+      </c>
+      <c r="D45" s="60">
+        <v>10092</v>
+      </c>
+      <c r="E45" s="60">
+        <v>11973</v>
+      </c>
+      <c r="F45" s="21">
+        <f t="shared" ref="F45:L45" si="8">E45*(1+F46)</f>
         <v>13170.300017841208</v>
       </c>
-      <c r="G45" s="21" t="n">
+      <c r="G45" s="21">
         <f t="shared" si="8"/>
         <v>14487.330039250648</v>
       </c>
-      <c r="H45" s="21" t="n">
+      <c r="H45" s="21">
         <f t="shared" si="8"/>
-        <v>15936.06306476352</v>
-      </c>
-      <c r="I45" s="21" t="n">
+        <v>15936.063064763521</v>
+      </c>
+      <c r="I45" s="21">
         <f t="shared" si="8"/>
         <v>17529.669394986497</v>
       </c>
-      <c r="J45" s="21" t="n">
+      <c r="J45" s="21">
         <f t="shared" si="8"/>
         <v>19282.636360606462</v>
       </c>
-      <c r="K45" s="21" t="n">
+      <c r="K45" s="21">
         <f t="shared" si="8"/>
-        <v>21210.90002540059</v>
-      </c>
-      <c r="L45" s="21" t="n">
+        <v>21210.900025400591</v>
+      </c>
+      <c r="L45" s="21">
         <f t="shared" si="8"/>
         <v>23331.990059547446</v>
       </c>
@@ -21096,43 +21087,43 @@
       <c r="B46" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="20" t="n">
+      <c r="C46" s="20">
         <f>C10</f>
         <v>0.10000000149011612</v>
       </c>
-      <c r="D46" s="20" t="n">
+      <c r="D46" s="20">
         <f>C10</f>
         <v>0.10000000149011612</v>
       </c>
-      <c r="E46" s="20" t="n">
+      <c r="E46" s="20">
         <f>C10</f>
         <v>0.10000000149011612</v>
       </c>
-      <c r="F46" s="20" t="n">
+      <c r="F46" s="20">
         <f>C10</f>
         <v>0.10000000149011612</v>
       </c>
-      <c r="G46" s="20" t="n">
+      <c r="G46" s="20">
         <f>C10</f>
         <v>0.10000000149011612</v>
       </c>
-      <c r="H46" s="20" t="n">
+      <c r="H46" s="20">
         <f>C10</f>
         <v>0.10000000149011612</v>
       </c>
-      <c r="I46" s="20" t="n">
+      <c r="I46" s="20">
         <f>C10</f>
         <v>0.10000000149011612</v>
       </c>
-      <c r="J46" s="20" t="n">
+      <c r="J46" s="20">
         <f>C10</f>
         <v>0.10000000149011612</v>
       </c>
-      <c r="K46" s="20" t="n">
+      <c r="K46" s="20">
         <f>C10</f>
         <v>0.10000000149011612</v>
       </c>
-      <c r="L46" s="20" t="n">
+      <c r="L46" s="20">
         <f>C10</f>
         <v>0.10000000149011612</v>
       </c>
@@ -21184,43 +21175,43 @@
       <c r="B51" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="61" t="n">
+      <c r="C51" s="61">
         <f>POWER((1+C4),1)</f>
         <v>1.1145641207743031</v>
       </c>
-      <c r="D51" s="61" t="n">
+      <c r="D51" s="61">
         <f>POWER((1+C4),2)</f>
         <v>1.2422531793173954</v>
       </c>
-      <c r="E51" s="61" t="n">
+      <c r="E51" s="61">
         <f>POWER((1+C4),3)</f>
         <v>1.3845708225849755</v>
       </c>
-      <c r="F51" s="61" t="n">
+      <c r="F51" s="61">
         <f>POWER((1+C4),4)</f>
         <v>1.5431929615241768</v>
       </c>
-      <c r="G51" s="61" t="n">
+      <c r="G51" s="61">
         <f>POWER((1+C4),5)</f>
-        <v>1.719987506346287</v>
-      </c>
-      <c r="H51" s="61" t="n">
+        <v>1.7199875063462871</v>
+      </c>
+      <c r="H51" s="61">
         <f>POWER((1+C4),6)</f>
         <v>1.9170363627536355</v>
       </c>
-      <c r="I51" s="61" t="n">
+      <c r="I51" s="61">
         <f>POWER((1+C4),7)</f>
         <v>2.1366599481448736</v>
       </c>
-      <c r="J51" s="61" t="n">
+      <c r="J51" s="61">
         <f>POWER((1+C4),8)</f>
         <v>2.3814445164977593</v>
       </c>
-      <c r="K51" s="61" t="n">
+      <c r="K51" s="61">
         <f>POWER((1+C4),9)</f>
         <v>2.6542726137031103</v>
       </c>
-      <c r="L51" s="61" t="n">
+      <c r="L51" s="61">
         <f>POWER((1+C4),10)</f>
         <v>2.958357021987319</v>
       </c>
@@ -21242,43 +21233,43 @@
       <c r="B53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="21" t="n">
+      <c r="C53" s="21">
         <f t="shared" ref="C53:L53" si="9">C42/C51</f>
-        <v>5580.330632337734</v>
-      </c>
-      <c r="D53" s="21" t="n">
+        <v>5580.3306323377337</v>
+      </c>
+      <c r="D53" s="21">
         <f t="shared" si="9"/>
-        <v>5423.298695469279</v>
-      </c>
-      <c r="E53" s="21" t="n">
+        <v>5423.2986954692788</v>
+      </c>
+      <c r="E53" s="21">
         <f t="shared" si="9"/>
-        <v>5192.832109819918</v>
-      </c>
-      <c r="F53" s="21" t="n">
+        <v>5192.8321098199176</v>
+      </c>
+      <c r="F53" s="21">
         <f t="shared" si="9"/>
         <v>4892.023363709206</v>
       </c>
-      <c r="G53" s="21" t="n">
+      <c r="G53" s="21">
         <f t="shared" si="9"/>
-        <v>4608.639772085103</v>
-      </c>
-      <c r="H53" s="21" t="n">
+        <v>4608.6397720851028</v>
+      </c>
+      <c r="H53" s="21">
         <f t="shared" si="9"/>
-        <v>4341.671936076053</v>
-      </c>
-      <c r="I53" s="21" t="n">
+        <v>4341.6719360760526</v>
+      </c>
+      <c r="I53" s="21">
         <f t="shared" si="9"/>
         <v>4090.1689289510273</v>
       </c>
-      <c r="J53" s="21" t="n">
+      <c r="J53" s="21">
         <f t="shared" si="9"/>
-        <v>3853.234908963713</v>
-      </c>
-      <c r="K53" s="21" t="n">
+        <v>3853.2349089637132</v>
+      </c>
+      <c r="K53" s="21">
         <f t="shared" si="9"/>
         <v>3630.025928406922</v>
       </c>
-      <c r="L53" s="21" t="n">
+      <c r="L53" s="21">
         <f t="shared" si="9"/>
         <v>3419.7469275109224</v>
       </c>
@@ -21300,9 +21291,9 @@
       <c r="B55" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="74" t="n">
+      <c r="C55" s="74">
         <f>POWER((1+C4),11)</f>
-        <v>3.297278593147782</v>
+        <v>3.2972785931477819</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
@@ -21359,16 +21350,16 @@
       <c r="B59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="25" t="n">
+      <c r="C59" s="25">
         <f>L53*(1+C5)/(C4-C5)</f>
-        <v>39136.66064485475</v>
+        <v>39136.660644854754</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" thickBot="1">
       <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="23" t="n">
+      <c r="C60" s="23">
         <f>C59/C55</f>
         <v>11869.382443505508</v>
       </c>
@@ -21378,9 +21369,9 @@
       <c r="B62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="71" t="n">
+      <c r="C62" s="71">
         <f>(SUM(C53:L53)+C59)</f>
-        <v>84168.63384818463</v>
+        <v>84168.633848184632</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="15" thickTop="1">
@@ -21390,7 +21381,7 @@
       <c r="B64" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="70" t="n">
+      <c r="C64" s="70">
         <f>C62/(C11/1000000)</f>
         <v>92.88026143626351</v>
       </c>
@@ -21429,18 +21420,18 @@
       <c r="B69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="25" t="n">
+      <c r="C69" s="25">
         <f>L45*C9</f>
-        <v>326647.8608336636</v>
+        <v>326647.86083366361</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
       <c r="B70" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="23" t="n">
+      <c r="C70" s="23">
         <f>C69/C55</f>
-        <v>99065.8968012243</v>
+        <v>99065.896801224299</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21451,7 +21442,7 @@
       <c r="B72" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="72" t="n">
+      <c r="C72" s="72">
         <f>SUM(C53:L53)+C70</f>
         <v>144097.87000455416</v>
       </c>
@@ -21461,7 +21452,7 @@
       <c r="B74" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="70" t="n">
+      <c r="C74" s="70">
         <f>C72/(C11/1000000)</f>
         <v>159.01229741440505</v>
       </c>
@@ -21487,7 +21478,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="29.90625"/>
+    <col min="2" max="2" width="29.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="13" spans="2:3" ht="20" thickBot="1">
@@ -21501,15 +21492,15 @@
       <c r="B15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="78" t="n">
-        <v>7.510000228881836</v>
+      <c r="C15" s="78">
+        <v>7.5100002288818359</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>7</v>
       </c>
     </row>
@@ -21517,15 +21508,15 @@
       <c r="B17" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="78" t="n">
-        <v>10.0</v>
+      <c r="C17" s="78">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>4.42</v>
       </c>
       <c r="D18" s="77" t="s">
@@ -21539,7 +21530,7 @@
       <c r="B20" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="79" t="n">
+      <c r="C20" s="79">
         <f>(C15*(C16+C17)*4.4)/C18</f>
         <v>127.09231156569231</v>
       </c>
@@ -21560,23 +21551,23 @@
   <dimension ref="B2:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.54296875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="6.81640625"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="117" t="n">
-        <v>4.960000038146973</v>
+      <c r="C2" s="117">
+        <v>4.9600000381469727</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1"/>
@@ -21652,120 +21643,120 @@
       <c r="O6" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="106" t="n">
+      <c r="P6" s="106">
         <f>C2</f>
-        <v>4.960000038146973</v>
+        <v>4.9600000381469727</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1">
       <c r="B7" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="90" t="n">
+      <c r="C7" s="90">
         <f>P6*(1+P7)</f>
-        <v>5.096400038456922</v>
-      </c>
-      <c r="D7" s="90" t="n">
+        <v>5.3568000411987304</v>
+      </c>
+      <c r="D7" s="90">
         <f>C7*(1+P7)</f>
-        <v>5.236551038755071</v>
-      </c>
-      <c r="E7" s="90" t="n">
+        <v>5.7853440444946296</v>
+      </c>
+      <c r="E7" s="90">
         <f>D7*(1+P7)</f>
-        <v>5.380556191540536</v>
-      </c>
-      <c r="F7" s="90" t="n">
+        <v>6.2481715680542003</v>
+      </c>
+      <c r="F7" s="90">
         <f>E7*(1+P7)</f>
-        <v>5.528521486006148</v>
-      </c>
-      <c r="G7" s="90" t="n">
+        <v>6.7480252934985367</v>
+      </c>
+      <c r="G7" s="90">
         <f>F7*(1+P7)</f>
-        <v>5.680555826047514</v>
-      </c>
-      <c r="H7" s="90" t="n">
+        <v>7.2878673169784198</v>
+      </c>
+      <c r="H7" s="90">
         <f>G7*(1+P7)</f>
-        <v>5.836771110417357</v>
-      </c>
-      <c r="I7" s="90" t="n">
+        <v>7.8708967023366938</v>
+      </c>
+      <c r="I7" s="90">
         <f>H7*(1+P7)</f>
-        <v>5.9972823150841</v>
-      </c>
-      <c r="J7" s="90" t="n">
+        <v>8.5005684385236293</v>
+      </c>
+      <c r="J7" s="90">
         <f>I7*(1+P7)</f>
-        <v>6.162207577855257</v>
-      </c>
-      <c r="K7" s="90" t="n">
+        <v>9.1806139136055194</v>
+      </c>
+      <c r="K7" s="90">
         <f>J7*(1+P7)</f>
-        <v>6.331668285328049</v>
-      </c>
-      <c r="L7" s="90" t="n">
+        <v>9.9150630266939608</v>
+      </c>
+      <c r="L7" s="90">
         <f>K7*(1+P7)</f>
-        <v>6.505789162231089</v>
-      </c>
-      <c r="M7" s="159" t="n">
+        <v>10.708268068829478</v>
+      </c>
+      <c r="M7" s="159">
         <f>L7*(1+P7)/(P8-P7)</f>
-        <v>76.77902553120401</v>
+        <v>334.59348177413574</v>
       </c>
       <c r="N7" s="160"/>
       <c r="O7" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="104" t="n">
-        <v>0.027499999850988388</v>
+      <c r="P7" s="104">
+        <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
       <c r="B8" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="90" t="n">
+      <c r="C8" s="90">
         <f>C7/(1+P8)</f>
-        <v>4.572549881577378</v>
-      </c>
-      <c r="D8" s="90" t="n">
+        <v>4.8061838178294192</v>
+      </c>
+      <c r="D8" s="90">
         <f>D7/(1+P8)^2</f>
-        <v>4.215365374739856</v>
-      </c>
-      <c r="E8" s="90" t="n">
+        <v>4.6571376437721117</v>
+      </c>
+      <c r="E8" s="90">
         <f>E7/(1+P8)^3</f>
-        <v>3.8860823179092385</v>
-      </c>
-      <c r="F8" s="90" t="n">
+        <v>4.5127135904748776</v>
+      </c>
+      <c r="F8" s="90">
         <f>F7/(1+P8)^4</f>
-        <v>3.582521190704332</v>
-      </c>
-      <c r="G8" s="90" t="n">
+        <v>4.372768319804714</v>
+      </c>
+      <c r="G8" s="90">
         <f>G7/(1+P8)^5</f>
-        <v>3.30267272587027</v>
-      </c>
-      <c r="H8" s="90" t="n">
+        <v>4.2371629387354073</v>
+      </c>
+      <c r="H8" s="90">
         <f>H7/(1+P8)^6</f>
-        <v>3.044684609963994</v>
-      </c>
-      <c r="I8" s="90" t="n">
+        <v>4.1057628614988388</v>
+      </c>
+      <c r="I8" s="90">
         <f>I7/(1+P8)^7</f>
-        <v>2.8068492229150315</v>
-      </c>
-      <c r="J8" s="90" t="n">
+        <v>3.9784376760111644</v>
+      </c>
+      <c r="J8" s="90">
         <f>J7/(1+P8)^8</f>
-        <v>2.5875923353098433</v>
-      </c>
-      <c r="K8" s="90" t="n">
+        <v>3.8550610144412971</v>
+      </c>
+      <c r="K8" s="90">
         <f>K7/(1+P8)^9</f>
-        <v>2.385462688587371</v>
-      </c>
-      <c r="L8" s="90" t="n">
+        <v>3.7355104277932285</v>
+      </c>
+      <c r="L8" s="90">
         <f>L7/(1+P8)^10</f>
-        <v>2.199122389176926</v>
-      </c>
-      <c r="M8" s="159" t="n">
+        <v>3.6196672643777252</v>
+      </c>
+      <c r="M8" s="159">
         <f>M7/POWER((1+P8),10)</f>
-        <v>25.95326559998041</v>
+        <v>113.10111635862246</v>
       </c>
       <c r="N8" s="160"/>
       <c r="O8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="105" t="n">
+      <c r="P8" s="105">
         <f>WACC!$C$25</f>
         <v>0.11456412077430318</v>
       </c>
@@ -21778,9 +21769,9 @@
       <c r="B10" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="95" t="n">
+      <c r="C10" s="95">
         <f>SUM(C8:N8)*(1-P9)</f>
-        <v>58.5361683367346</v>
+        <v>154.98152191336123</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -21873,120 +21864,120 @@
       <c r="O15" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="106" t="n">
+      <c r="P15" s="106">
         <f>C2</f>
-        <v>4.960000038146973</v>
+        <v>4.9600000381469727</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" thickBot="1">
       <c r="B16" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="90" t="n">
+      <c r="C16" s="90">
         <f>P15*(1+P16)</f>
-        <v>5.1088000359654515</v>
-      </c>
-      <c r="D16" s="90" t="n">
+        <v>5.3816000413894649</v>
+      </c>
+      <c r="D16" s="90">
         <f>C16*(1+P16)</f>
-        <v>5.2620640336187074</v>
-      </c>
-      <c r="E16" s="90" t="n">
+        <v>5.8390360449075693</v>
+      </c>
+      <c r="E16" s="90">
         <f>D16*(1+P16)</f>
-        <v>5.4199259510987945</v>
-      </c>
-      <c r="F16" s="90" t="n">
+        <v>6.3353541087247125</v>
+      </c>
+      <c r="F16" s="90">
         <f>E16*(1+P16)</f>
-        <v>5.582523725997422</v>
-      </c>
-      <c r="G16" s="90" t="n">
+        <v>6.873859207966313</v>
+      </c>
+      <c r="G16" s="90">
         <f>F16*(1+P16)</f>
-        <v>5.749999434033981</v>
-      </c>
-      <c r="H16" s="90" t="n">
+        <v>7.458137240643449</v>
+      </c>
+      <c r="H16" s="90">
         <f>G16*(1+P16)</f>
-        <v>5.922499413199337</v>
-      </c>
-      <c r="I16" s="90" t="n">
+        <v>8.0920789060981413</v>
+      </c>
+      <c r="I16" s="90">
         <f>H16*(1+P16)</f>
-        <v>6.100174391623988</v>
-      </c>
-      <c r="J16" s="90" t="n">
+        <v>8.7799056131164832</v>
+      </c>
+      <c r="J16" s="90">
         <f>I16*(1+P16)</f>
-        <v>6.283179619282238</v>
-      </c>
-      <c r="K16" s="90" t="n">
+        <v>9.5261975902313836</v>
+      </c>
+      <c r="K16" s="90">
         <f>J16*(1+P16)</f>
-        <v>6.471675003647521</v>
-      </c>
-      <c r="L16" s="90" t="n">
+        <v>10.33592438540105</v>
+      </c>
+      <c r="L16" s="90">
         <f>K16*(1+P16)</f>
-        <v>6.665825249417364</v>
-      </c>
-      <c r="M16" s="159" t="n">
+        <v>11.214477958160138</v>
+      </c>
+      <c r="M16" s="159">
         <f>L16*(1+P16)/(P17-P16)</f>
-        <v>81.19046097945126</v>
+        <v>411.57011492050844</v>
       </c>
       <c r="N16" s="160"/>
       <c r="O16" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="104" t="n">
-        <v>0.029999999329447746</v>
+      <c r="P16" s="104">
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="90" t="n">
+      <c r="C17" s="90">
         <f>C16/(1+P17)</f>
-        <v>4.583675304760672</v>
-      </c>
-      <c r="D17" s="90" t="n">
+        <v>4.8284346688378887</v>
+      </c>
+      <c r="D17" s="90">
         <f>D16/(1+P17)^2</f>
-        <v>4.235903051993103</v>
-      </c>
-      <c r="E17" s="90" t="n">
+        <v>4.7003591072441901</v>
+      </c>
+      <c r="E17" s="90">
         <f>E16/(1+P17)^3</f>
-        <v>3.914516948277042</v>
-      </c>
-      <c r="F17" s="90" t="n">
+        <v>4.5756807852535051</v>
+      </c>
+      <c r="F17" s="90">
         <f>F16/(1+P17)^4</f>
-        <v>3.6175150257837334</v>
-      </c>
-      <c r="G17" s="90" t="n">
+        <v>4.4543095901481795</v>
+      </c>
+      <c r="G17" s="90">
         <f>G16/(1+P17)^5</f>
-        <v>3.343047209830323</v>
-      </c>
-      <c r="H17" s="90" t="n">
+        <v>4.3361577994752558</v>
+      </c>
+      <c r="H17" s="90">
         <f>H16/(1+P17)^6</f>
-        <v>3.0894037944550172</v>
-      </c>
-      <c r="I17" s="90" t="n">
+        <v>4.2211400176440357</v>
+      </c>
+      <c r="I17" s="90">
         <f>I16/(1+P17)^7</f>
-        <v>2.855004792372504</v>
-      </c>
-      <c r="J17" s="90" t="n">
+        <v>4.1091731142054284</v>
+      </c>
+      <c r="J17" s="90">
         <f>J16/(1+P17)^8</f>
-        <v>2.638390092968664</v>
-      </c>
-      <c r="K17" s="90" t="n">
+        <v>4.0001761637684341</v>
+      </c>
+      <c r="K17" s="90">
         <f>K16/(1+P17)^9</f>
-        <v>2.438210367027281</v>
-      </c>
-      <c r="L17" s="90" t="n">
+        <v>3.8940703875103742</v>
+      </c>
+      <c r="L17" s="90">
         <f>L16/(1+P17)^10</f>
-        <v>2.2532186615324385</v>
-      </c>
-      <c r="M17" s="159" t="n">
+        <v>3.7907790962385759</v>
+      </c>
+      <c r="M17" s="159">
         <f>M16/POWER((1+P17),10)</f>
-        <v>27.44444310677229</v>
+        <v>139.1211783640739</v>
       </c>
       <c r="N17" s="160"/>
       <c r="O17" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="105" t="n">
+      <c r="P17" s="105">
         <f>WACC!$C$25</f>
         <v>0.11456412077430318</v>
       </c>
@@ -21999,9 +21990,9 @@
       <c r="B19" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="95" t="n">
+      <c r="C19" s="95">
         <f>SUM(C17:N17)*(1-P18)</f>
-        <v>60.4133283557731</v>
+        <v>182.03145909439976</v>
       </c>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
@@ -22088,120 +22079,120 @@
       <c r="O24" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="106" t="n">
+      <c r="P24" s="106">
         <f>C2</f>
-        <v>4.960000038146973</v>
+        <v>4.9600000381469727</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" thickBot="1">
       <c r="B25" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="90" t="n">
+      <c r="C25" s="90">
         <f>P24*(1+P25)</f>
-        <v>5.133600040221204</v>
-      </c>
-      <c r="D25" s="90" t="n">
+        <v>5.4064000415802003</v>
+      </c>
+      <c r="D25" s="90">
         <f>C25*(1+P25)</f>
-        <v>5.3132760423939</v>
-      </c>
-      <c r="E25" s="90" t="n">
+        <v>5.8929760453224187</v>
+      </c>
+      <c r="E25" s="90">
         <f>D25*(1+P25)</f>
-        <v>5.499240704669417</v>
-      </c>
-      <c r="F25" s="90" t="n">
+        <v>6.423343889401437</v>
+      </c>
+      <c r="F25" s="90">
         <f>E25*(1+P25)</f>
-        <v>5.691714130152292</v>
-      </c>
-      <c r="G25" s="90" t="n">
+        <v>7.0014448394475668</v>
+      </c>
+      <c r="G25" s="90">
         <f>F25*(1+P25)</f>
-        <v>5.890924125555743</v>
-      </c>
-      <c r="H25" s="90" t="n">
+        <v>7.631574874997848</v>
+      </c>
+      <c r="H25" s="90">
         <f>G25*(1+P25)</f>
-        <v>6.097106470827997</v>
-      </c>
-      <c r="I25" s="90" t="n">
+        <v>8.3184166137476545</v>
+      </c>
+      <c r="I25" s="90">
         <f>H25*(1+P25)</f>
-        <v>6.31050519821551</v>
-      </c>
-      <c r="J25" s="90" t="n">
+        <v>9.0670741089849436</v>
+      </c>
+      <c r="J25" s="90">
         <f>I25*(1+P25)</f>
-        <v>6.5313728810933815</v>
-      </c>
-      <c r="K25" s="90" t="n">
+        <v>9.8831107787935899</v>
+      </c>
+      <c r="K25" s="90">
         <f>J25*(1+P25)</f>
-        <v>6.7599709329048885</v>
-      </c>
-      <c r="L25" s="90" t="n">
+        <v>10.772590748885014</v>
+      </c>
+      <c r="L25" s="90">
         <f>K25*(1+P25)</f>
-        <v>6.996569916563865</v>
-      </c>
-      <c r="M25" s="159" t="n">
+        <v>11.742123916284665</v>
+      </c>
+      <c r="M25" s="159">
         <f>L25*(1+P25)/(P26-P25)</f>
-        <v>91.01401244399929</v>
+        <v>521.04104137687602</v>
       </c>
       <c r="N25" s="160"/>
       <c r="O25" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P25" s="104" t="n">
-        <v>0.03500000014901161</v>
+      <c r="P25" s="104">
+        <v>0.09</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1">
       <c r="B26" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="90" t="n">
+      <c r="C26" s="90">
         <f>C25/(1+P26)</f>
-        <v>4.605926159416321</v>
-      </c>
-      <c r="D26" s="90" t="n">
+        <v>4.8506855198463583</v>
+      </c>
+      <c r="D26" s="90">
         <f>D25/(1+P26)^2</f>
-        <v>4.277128149765306</v>
-      </c>
-      <c r="E26" s="90" t="n">
+        <v>4.7437802079609446</v>
+      </c>
+      <c r="E26" s="90">
         <f>E25/(1+P26)^3</f>
-        <v>3.971801669489461</v>
-      </c>
-      <c r="F26" s="90" t="n">
+        <v>4.6392310054671944</v>
+      </c>
+      <c r="F26" s="90">
         <f>F25/(1+P26)^4</f>
-        <v>3.688271183229543</v>
-      </c>
-      <c r="G26" s="90" t="n">
+        <v>4.5369859855584078</v>
+      </c>
+      <c r="G26" s="90">
         <f>G25/(1+P26)^5</f>
-        <v>3.424980765162432</v>
-      </c>
-      <c r="H26" s="90" t="n">
+        <v>4.4369943658540585</v>
+      </c>
+      <c r="H26" s="90">
         <f>H25/(1+P26)^6</f>
-        <v>3.18048556057126</v>
-      </c>
-      <c r="I26" s="90" t="n">
+        <v>4.3392064831775334</v>
+      </c>
+      <c r="I26" s="90">
         <f>I25/(1+P26)^7</f>
-        <v>2.9534438569387387</v>
-      </c>
-      <c r="J26" s="90" t="n">
+        <v>4.2435737688897595</v>
+      </c>
+      <c r="J26" s="90">
         <f>J25/(1+P26)^8</f>
-        <v>2.74260972105227</v>
-      </c>
-      <c r="K26" s="90" t="n">
+        <v>4.1500487247664521</v>
+      </c>
+      <c r="K26" s="90">
         <f>K25/(1+P26)^9</f>
-        <v>2.546826161715813</v>
-      </c>
-      <c r="L26" s="90" t="n">
+        <v>4.0585848994070055</v>
+      </c>
+      <c r="L26" s="90">
         <f>L25/(1+P26)^10</f>
-        <v>2.365018780547255</v>
-      </c>
-      <c r="M26" s="159" t="n">
+        <v>3.9691368651633261</v>
+      </c>
+      <c r="M26" s="159">
         <f>M25/POWER((1+P26),10)</f>
-        <v>30.76505363198499</v>
+        <v>176.12513888768535</v>
       </c>
       <c r="N26" s="160"/>
       <c r="O26" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="105" t="n">
+      <c r="P26" s="105">
         <f>WACC!$C$25</f>
         <v>0.11456412077430318</v>
       </c>
@@ -22214,9 +22205,9 @@
       <c r="B28" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="95" t="n">
+      <c r="C28" s="95">
         <f>SUM(C26:N26)*(1-P27)</f>
-        <v>64.5215456398734</v>
+        <v>220.09336671377639</v>
       </c>
       <c r="D28" s="96"/>
       <c r="E28" s="96"/>
@@ -22259,12 +22250,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="110" width="10.0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="110" width="13.26953125"/>
-    <col min="5" max="11" bestFit="true" customWidth="true" style="110" width="11.26953125"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" style="110" width="11.6328125"/>
-    <col min="19" max="19" customWidth="true" width="11.7265625"/>
+    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="110" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="110" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="11.26953125" style="110" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.6328125" style="110" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.5" thickBot="1">
@@ -22307,38 +22298,38 @@
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="120" t="n">
-        <v>12825.0</v>
-      </c>
-      <c r="D3" s="110" t="n">
-        <v>12205.0</v>
-      </c>
-      <c r="E3" s="110" t="n">
-        <v>13045.0</v>
-      </c>
-      <c r="F3" s="110" t="n">
-        <v>13000.0</v>
-      </c>
-      <c r="G3" s="110" t="n">
-        <v>13370.0</v>
-      </c>
-      <c r="H3" s="110" t="n">
-        <v>14961.0</v>
-      </c>
-      <c r="I3" s="110" t="n">
-        <v>15784.0</v>
-      </c>
-      <c r="J3" s="110" t="n">
-        <v>14383.0</v>
-      </c>
-      <c r="K3" s="110" t="n">
-        <v>14461.0</v>
-      </c>
-      <c r="L3" s="110" t="n">
-        <v>18344.0</v>
-      </c>
-      <c r="M3" s="110" t="n">
-        <v>20028.0</v>
+      <c r="C3" s="120">
+        <v>12825</v>
+      </c>
+      <c r="D3" s="110">
+        <v>12205</v>
+      </c>
+      <c r="E3" s="110">
+        <v>13045</v>
+      </c>
+      <c r="F3" s="110">
+        <v>13000</v>
+      </c>
+      <c r="G3" s="110">
+        <v>13370</v>
+      </c>
+      <c r="H3" s="110">
+        <v>14961</v>
+      </c>
+      <c r="I3" s="110">
+        <v>15784</v>
+      </c>
+      <c r="J3" s="110">
+        <v>14383</v>
+      </c>
+      <c r="K3" s="110">
+        <v>14461</v>
+      </c>
+      <c r="L3" s="110">
+        <v>18344</v>
+      </c>
+      <c r="M3" s="110">
+        <v>20028</v>
       </c>
       <c r="Q3" s="107"/>
     </row>
@@ -22347,45 +22338,45 @@
         <v>27</v>
       </c>
       <c r="C4" s="113"/>
-      <c r="D4" s="121" t="n">
+      <c r="D4" s="121">
         <f t="shared" ref="D4:M4" si="0">(D3-C3)/C3</f>
-        <v>-0.04834307992202729</v>
-      </c>
-      <c r="E4" s="121" t="n">
+        <v>-4.8343079922027292E-2</v>
+      </c>
+      <c r="E4" s="121">
         <f t="shared" si="0"/>
-        <v>0.06882425235559197</v>
-      </c>
-      <c r="F4" s="121" t="n">
+        <v>6.8824252355591975E-2</v>
+      </c>
+      <c r="F4" s="121">
         <f t="shared" si="0"/>
-        <v>-0.0034495975469528554</v>
-      </c>
-      <c r="G4" s="121" t="n">
+        <v>-3.4495975469528554E-3</v>
+      </c>
+      <c r="G4" s="121">
         <f t="shared" si="0"/>
-        <v>0.02846153846153846</v>
-      </c>
-      <c r="H4" s="121" t="n">
+        <v>2.8461538461538462E-2</v>
+      </c>
+      <c r="H4" s="121">
         <f t="shared" si="0"/>
         <v>0.11899775617053104</v>
       </c>
-      <c r="I4" s="121" t="n">
+      <c r="I4" s="121">
         <f t="shared" si="0"/>
-        <v>0.05500969186551701</v>
-      </c>
-      <c r="J4" s="121" t="n">
+        <v>5.5009691865517012E-2</v>
+      </c>
+      <c r="J4" s="121">
         <f t="shared" si="0"/>
-        <v>-0.08876077040040548</v>
-      </c>
-      <c r="K4" s="121" t="n">
+        <v>-8.8760770400405475E-2</v>
+      </c>
+      <c r="K4" s="121">
         <f t="shared" si="0"/>
-        <v>0.00542306890078565</v>
-      </c>
-      <c r="L4" s="121" t="n">
+        <v>5.4230689007856497E-3</v>
+      </c>
+      <c r="L4" s="121">
         <f t="shared" si="0"/>
         <v>0.26851531705967774</v>
       </c>
-      <c r="M4" s="121" t="n">
+      <c r="M4" s="121">
         <f t="shared" si="0"/>
-        <v>0.09180113388573921</v>
+        <v>9.1801133885739211E-2</v>
       </c>
       <c r="Q4" s="107"/>
     </row>
@@ -22408,38 +22399,38 @@
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="110" t="n">
-        <v>1728.0</v>
-      </c>
-      <c r="D6" s="110" t="n">
-        <v>2125.0</v>
-      </c>
-      <c r="E6" s="110" t="n">
-        <v>2777.0</v>
-      </c>
-      <c r="F6" s="110" t="n">
-        <v>2986.0</v>
-      </c>
-      <c r="G6" s="110" t="n">
-        <v>3595.0</v>
-      </c>
-      <c r="H6" s="110" t="n">
-        <v>3648.0</v>
-      </c>
-      <c r="I6" s="110" t="n">
-        <v>5537.0</v>
-      </c>
-      <c r="J6" s="110" t="n">
-        <v>4985.0</v>
-      </c>
-      <c r="K6" s="110" t="n">
-        <v>5568.0</v>
-      </c>
-      <c r="L6" s="110" t="n">
-        <v>7736.0</v>
-      </c>
-      <c r="M6" s="110" t="n">
-        <v>8709.0</v>
+      <c r="C6" s="110">
+        <v>1728</v>
+      </c>
+      <c r="D6" s="110">
+        <v>2125</v>
+      </c>
+      <c r="E6" s="110">
+        <v>2777</v>
+      </c>
+      <c r="F6" s="110">
+        <v>2986</v>
+      </c>
+      <c r="G6" s="110">
+        <v>3595</v>
+      </c>
+      <c r="H6" s="110">
+        <v>3648</v>
+      </c>
+      <c r="I6" s="110">
+        <v>5537</v>
+      </c>
+      <c r="J6" s="110">
+        <v>4985</v>
+      </c>
+      <c r="K6" s="110">
+        <v>5568</v>
+      </c>
+      <c r="L6" s="110">
+        <v>7736</v>
+      </c>
+      <c r="M6" s="110">
+        <v>8709</v>
       </c>
       <c r="Q6" s="107"/>
     </row>
@@ -22448,43 +22439,43 @@
         <v>27</v>
       </c>
       <c r="C7" s="113"/>
-      <c r="D7" s="121" t="n">
+      <c r="D7" s="121">
         <f t="shared" ref="D7" si="1">(D6-C6)/C6</f>
         <v>0.22974537037037038</v>
       </c>
-      <c r="E7" s="121" t="n">
+      <c r="E7" s="121">
         <f t="shared" ref="E7" si="2">(E6-D6)/D6</f>
-        <v>0.3068235294117647</v>
-      </c>
-      <c r="F7" s="121" t="n">
+        <v>0.30682352941176472</v>
+      </c>
+      <c r="F7" s="121">
         <f t="shared" ref="F7" si="3">(F6-E6)/E6</f>
-        <v>0.07526107310046813</v>
-      </c>
-      <c r="G7" s="121" t="n">
+        <v>7.5261073100468132E-2</v>
+      </c>
+      <c r="G7" s="121">
         <f t="shared" ref="G7" si="4">(G6-F6)/F6</f>
         <v>0.20395177494976557</v>
       </c>
-      <c r="H7" s="121" t="n">
+      <c r="H7" s="121">
         <f t="shared" ref="H7" si="5">(H6-G6)/G6</f>
-        <v>0.01474269819193324</v>
-      </c>
-      <c r="I7" s="121" t="n">
+        <v>1.474269819193324E-2</v>
+      </c>
+      <c r="I7" s="121">
         <f t="shared" ref="I7" si="6">(I6-H6)/H6</f>
         <v>0.5178179824561403</v>
       </c>
-      <c r="J7" s="121" t="n">
+      <c r="J7" s="121">
         <f t="shared" ref="J7" si="7">(J6-I6)/I6</f>
-        <v>-0.09969297453494672</v>
-      </c>
-      <c r="K7" s="121" t="n">
+        <v>-9.9692974534946716E-2</v>
+      </c>
+      <c r="K7" s="121">
         <f t="shared" ref="K7" si="8">(K6-J6)/J6</f>
         <v>0.11695085255767301</v>
       </c>
-      <c r="L7" s="121" t="n">
+      <c r="L7" s="121">
         <f t="shared" ref="L7" si="9">(L6-K6)/K6</f>
         <v>0.38936781609195403</v>
       </c>
-      <c r="M7" s="121" t="n">
+      <c r="M7" s="121">
         <f t="shared" ref="M7" si="10">(M6-L6)/L6</f>
         <v>0.12577559462254395</v>
       </c>
@@ -22507,38 +22498,38 @@
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="110" t="n">
-        <v>3374.0</v>
-      </c>
-      <c r="D9" s="110" t="n">
-        <v>4129.0</v>
-      </c>
-      <c r="E9" s="110" t="n">
-        <v>5177.0</v>
-      </c>
-      <c r="F9" s="110" t="n">
-        <v>5455.0</v>
-      </c>
-      <c r="G9" s="110" t="n">
-        <v>5810.0</v>
-      </c>
-      <c r="H9" s="110" t="n">
-        <v>6987.0</v>
-      </c>
-      <c r="I9" s="110" t="n">
-        <v>7667.0</v>
-      </c>
-      <c r="J9" s="110" t="n">
-        <v>6773.0</v>
-      </c>
-      <c r="K9" s="110" t="n">
-        <v>6886.0</v>
-      </c>
-      <c r="L9" s="110" t="n">
-        <v>9914.0</v>
-      </c>
-      <c r="M9" s="110" t="n">
-        <v>11119.0</v>
+      <c r="C9" s="110">
+        <v>3374</v>
+      </c>
+      <c r="D9" s="110">
+        <v>4129</v>
+      </c>
+      <c r="E9" s="110">
+        <v>5177</v>
+      </c>
+      <c r="F9" s="110">
+        <v>5455</v>
+      </c>
+      <c r="G9" s="110">
+        <v>5810</v>
+      </c>
+      <c r="H9" s="110">
+        <v>6987</v>
+      </c>
+      <c r="I9" s="110">
+        <v>7667</v>
+      </c>
+      <c r="J9" s="110">
+        <v>6773</v>
+      </c>
+      <c r="K9" s="110">
+        <v>6886</v>
+      </c>
+      <c r="L9" s="110">
+        <v>9914</v>
+      </c>
+      <c r="M9" s="110">
+        <v>11119</v>
       </c>
       <c r="Q9" s="107"/>
     </row>
@@ -22547,43 +22538,43 @@
         <v>27</v>
       </c>
       <c r="C10" s="113"/>
-      <c r="D10" s="121" t="n">
+      <c r="D10" s="121">
         <f t="shared" ref="D10" si="11">(D9-C9)/C9</f>
-        <v>0.2237700059276823</v>
-      </c>
-      <c r="E10" s="121" t="n">
+        <v>0.22377000592768229</v>
+      </c>
+      <c r="E10" s="121">
         <f t="shared" ref="E10" si="12">(E9-D9)/D9</f>
         <v>0.25381448292564784</v>
       </c>
-      <c r="F10" s="121" t="n">
+      <c r="F10" s="121">
         <f t="shared" ref="F10" si="13">(F9-E9)/E9</f>
-        <v>0.05369905350589144</v>
-      </c>
-      <c r="G10" s="121" t="n">
+        <v>5.3699053505891443E-2</v>
+      </c>
+      <c r="G10" s="121">
         <f t="shared" ref="G10" si="14">(G9-F9)/F9</f>
-        <v>0.06507791017415215</v>
-      </c>
-      <c r="H10" s="121" t="n">
+        <v>6.5077910174152154E-2</v>
+      </c>
+      <c r="H10" s="121">
         <f t="shared" ref="H10" si="15">(H9-G9)/G9</f>
-        <v>0.2025817555938038</v>
-      </c>
-      <c r="I10" s="121" t="n">
+        <v>0.20258175559380379</v>
+      </c>
+      <c r="I10" s="121">
         <f t="shared" ref="I10" si="16">(I9-H9)/H9</f>
-        <v>0.09732360097323602</v>
-      </c>
-      <c r="J10" s="121" t="n">
+        <v>9.7323600973236016E-2</v>
+      </c>
+      <c r="J10" s="121">
         <f t="shared" ref="J10" si="17">(J9-I9)/I9</f>
         <v>-0.11660362592930743</v>
       </c>
-      <c r="K10" s="121" t="n">
+      <c r="K10" s="121">
         <f t="shared" ref="K10" si="18">(K9-J9)/J9</f>
-        <v>0.01668389192381515</v>
-      </c>
-      <c r="L10" s="121" t="n">
+        <v>1.6683891923815149E-2</v>
+      </c>
+      <c r="L10" s="121">
         <f t="shared" ref="L10" si="19">(L9-K9)/K9</f>
         <v>0.43973279117049086</v>
       </c>
-      <c r="M10" s="121" t="n">
+      <c r="M10" s="121">
         <f t="shared" ref="M10" si="20">(M9-L9)/L9</f>
         <v>0.12154528948961066</v>
       </c>
@@ -22598,38 +22589,38 @@
       <c r="B12" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="110" t="n">
-        <v>1146.0</v>
-      </c>
-      <c r="D12" s="110" t="n">
-        <v>1113.0</v>
-      </c>
-      <c r="E12" s="110" t="n">
-        <v>1080.0</v>
-      </c>
-      <c r="F12" s="110" t="n">
-        <v>1043.0</v>
-      </c>
-      <c r="G12" s="110" t="n">
-        <v>1021.0</v>
-      </c>
-      <c r="H12" s="110" t="n">
-        <v>1012.0</v>
-      </c>
-      <c r="I12" s="110" t="n">
-        <v>990.0</v>
-      </c>
-      <c r="J12" s="110" t="n">
-        <v>952.0</v>
-      </c>
-      <c r="K12" s="110" t="n">
-        <v>921.0</v>
-      </c>
-      <c r="L12" s="110" t="n">
-        <v>923.0</v>
-      </c>
-      <c r="M12" s="110" t="n">
-        <v>916.0</v>
+      <c r="C12" s="110">
+        <v>1146</v>
+      </c>
+      <c r="D12" s="110">
+        <v>1113</v>
+      </c>
+      <c r="E12" s="110">
+        <v>1080</v>
+      </c>
+      <c r="F12" s="110">
+        <v>1043</v>
+      </c>
+      <c r="G12" s="110">
+        <v>1021</v>
+      </c>
+      <c r="H12" s="110">
+        <v>1012</v>
+      </c>
+      <c r="I12" s="110">
+        <v>990</v>
+      </c>
+      <c r="J12" s="110">
+        <v>952</v>
+      </c>
+      <c r="K12" s="110">
+        <v>921</v>
+      </c>
+      <c r="L12" s="110">
+        <v>923</v>
+      </c>
+      <c r="M12" s="110">
+        <v>916</v>
       </c>
       <c r="Q12" s="107"/>
     </row>
@@ -22638,45 +22629,45 @@
         <v>27</v>
       </c>
       <c r="C13" s="113"/>
-      <c r="D13" s="121" t="n">
+      <c r="D13" s="121">
         <f t="shared" ref="D13" si="21">(D12-C12)/C12</f>
-        <v>-0.028795811518324606</v>
-      </c>
-      <c r="E13" s="121" t="n">
+        <v>-2.8795811518324606E-2</v>
+      </c>
+      <c r="E13" s="121">
         <f t="shared" ref="E13" si="22">(E12-D12)/D12</f>
-        <v>-0.029649595687331536</v>
-      </c>
-      <c r="F13" s="121" t="n">
+        <v>-2.9649595687331536E-2</v>
+      </c>
+      <c r="F13" s="121">
         <f t="shared" ref="F13" si="23">(F12-E12)/E12</f>
-        <v>-0.03425925925925926</v>
-      </c>
-      <c r="G13" s="121" t="n">
+        <v>-3.425925925925926E-2</v>
+      </c>
+      <c r="G13" s="121">
         <f t="shared" ref="G13" si="24">(G12-F12)/F12</f>
-        <v>-0.02109300095877277</v>
-      </c>
-      <c r="H13" s="121" t="n">
+        <v>-2.109300095877277E-2</v>
+      </c>
+      <c r="H13" s="121">
         <f t="shared" ref="H13" si="25">(H12-G12)/G12</f>
-        <v>-0.00881488736532811</v>
-      </c>
-      <c r="I13" s="121" t="n">
+        <v>-8.8148873653281102E-3</v>
+      </c>
+      <c r="I13" s="121">
         <f t="shared" ref="I13" si="26">(I12-H12)/H12</f>
-        <v>-0.021739130434782608</v>
-      </c>
-      <c r="J13" s="121" t="n">
+        <v>-2.1739130434782608E-2</v>
+      </c>
+      <c r="J13" s="121">
         <f t="shared" ref="J13" si="27">(J12-I12)/I12</f>
-        <v>-0.03838383838383838</v>
-      </c>
-      <c r="K13" s="121" t="n">
+        <v>-3.8383838383838381E-2</v>
+      </c>
+      <c r="K13" s="121">
         <f t="shared" ref="K13" si="28">(K12-J12)/J12</f>
-        <v>-0.032563025210084036</v>
-      </c>
-      <c r="L13" s="121" t="n">
+        <v>-3.2563025210084036E-2</v>
+      </c>
+      <c r="L13" s="121">
         <f t="shared" ref="L13" si="29">(L12-K12)/K12</f>
-        <v>0.002171552660152009</v>
-      </c>
-      <c r="M13" s="121" t="n">
+        <v>2.1715526601520088E-3</v>
+      </c>
+      <c r="M13" s="121">
         <f t="shared" ref="M13" si="30">(M12-L12)/L12</f>
-        <v>-0.007583965330444204</v>
+        <v>-7.5839653304442039E-3</v>
       </c>
       <c r="Q13" s="107"/>
     </row>
@@ -22689,38 +22680,38 @@
       <c r="B15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="110" t="n">
+      <c r="C15" s="110">
         <v>1.5099999904632568</v>
       </c>
-      <c r="D15" s="110" t="n">
-        <v>1.909999966621399</v>
-      </c>
-      <c r="E15" s="110" t="n">
-        <v>2.569999933242798</v>
-      </c>
-      <c r="F15" s="110" t="n">
-        <v>2.819999933242798</v>
-      </c>
-      <c r="G15" s="110" t="n">
+      <c r="D15" s="110">
+        <v>1.9099999666213989</v>
+      </c>
+      <c r="E15" s="110">
+        <v>2.5699999332427979</v>
+      </c>
+      <c r="F15" s="110">
+        <v>2.8199999332427979</v>
+      </c>
+      <c r="G15" s="110">
         <v>3.4800000190734863</v>
       </c>
-      <c r="H15" s="110" t="n">
-        <v>3.609999895095825</v>
-      </c>
-      <c r="I15" s="110" t="n">
-        <v>5.590000152587891</v>
-      </c>
-      <c r="J15" s="110" t="n">
-        <v>5.239999771118164</v>
-      </c>
-      <c r="K15" s="110" t="n">
-        <v>5.96999979019165</v>
-      </c>
-      <c r="L15" s="110" t="n">
-        <v>8.260000228881836</v>
-      </c>
-      <c r="M15" s="110" t="n">
-        <v>9.40999984741211</v>
+      <c r="H15" s="110">
+        <v>3.6099998950958252</v>
+      </c>
+      <c r="I15" s="110">
+        <v>5.5900001525878906</v>
+      </c>
+      <c r="J15" s="110">
+        <v>5.2399997711181641</v>
+      </c>
+      <c r="K15" s="110">
+        <v>5.9699997901916504</v>
+      </c>
+      <c r="L15" s="110">
+        <v>8.2600002288818359</v>
+      </c>
+      <c r="M15" s="110">
+        <v>9.4099998474121094</v>
       </c>
       <c r="Q15" s="107"/>
     </row>
@@ -22728,43 +22719,43 @@
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="121" t="n">
+      <c r="D16" s="121">
         <f t="shared" ref="D16" si="31">(D15-C15)/C15</f>
         <v>0.2649006481353845</v>
       </c>
-      <c r="E16" s="121" t="n">
+      <c r="E16" s="121">
         <f t="shared" ref="E16" si="32">(E15-D15)/D15</f>
-        <v>0.3455497267829137</v>
-      </c>
-      <c r="F16" s="121" t="n">
+        <v>0.34554972678291368</v>
+      </c>
+      <c r="F16" s="121">
         <f t="shared" ref="F16" si="33">(F15-E15)/E15</f>
-        <v>0.09727626711824561</v>
-      </c>
-      <c r="G16" s="121" t="n">
+        <v>9.7276267118245607E-2</v>
+      </c>
+      <c r="G16" s="121">
         <f t="shared" ref="G16" si="34">(G15-F15)/F15</f>
         <v>0.23404258916833898</v>
       </c>
-      <c r="H16" s="121" t="n">
+      <c r="H16" s="121">
         <f t="shared" ref="H16" si="35">(H15-G15)/G15</f>
-        <v>0.03735628600857019</v>
-      </c>
-      <c r="I16" s="121" t="n">
+        <v>3.7356286008570189E-2</v>
+      </c>
+      <c r="I16" s="121">
         <f t="shared" ref="I16" si="36">(I15-H15)/H15</f>
-        <v>0.5484765415594312</v>
-      </c>
-      <c r="J16" s="121" t="n">
+        <v>0.54847654155943115</v>
+      </c>
+      <c r="J16" s="121">
         <f t="shared" ref="J16" si="37">(J15-I15)/I15</f>
-        <v>-0.06261187333021706</v>
-      </c>
-      <c r="K16" s="121" t="n">
+        <v>-6.261187333021706E-2</v>
+      </c>
+      <c r="K16" s="121">
         <f t="shared" ref="K16" si="38">(K15-J15)/J15</f>
-        <v>0.13931298682437</v>
-      </c>
-      <c r="L16" s="121" t="n">
+        <v>0.13931298682436999</v>
+      </c>
+      <c r="L16" s="121">
         <f t="shared" ref="L16" si="39">(L15-K15)/K15</f>
         <v>0.38358467657779866</v>
       </c>
-      <c r="M16" s="121" t="n">
+      <c r="M16" s="121">
         <f t="shared" ref="M16" si="40">(M15-L15)/L15</f>
         <v>0.13922513155740504</v>
       </c>
@@ -22814,38 +22805,38 @@
       <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="110" t="n">
-        <v>2919.0</v>
-      </c>
-      <c r="D20" s="128" t="n">
-        <v>2993.0</v>
-      </c>
-      <c r="E20" s="128" t="n">
-        <v>3811.0</v>
-      </c>
-      <c r="F20" s="128" t="n">
-        <v>3956.0</v>
-      </c>
-      <c r="G20" s="128" t="n">
-        <v>4083.0</v>
-      </c>
-      <c r="H20" s="128" t="n">
-        <v>4708.0</v>
-      </c>
-      <c r="I20" s="128" t="n">
-        <v>6067.0</v>
-      </c>
-      <c r="J20" s="128" t="n">
-        <v>5832.0</v>
-      </c>
-      <c r="K20" s="128" t="n">
-        <v>5494.0</v>
-      </c>
-      <c r="L20" s="128" t="n">
-        <v>6369.0</v>
-      </c>
-      <c r="M20" s="128" t="n">
-        <v>5926.0</v>
+      <c r="C20" s="110">
+        <v>2919</v>
+      </c>
+      <c r="D20" s="128">
+        <v>2993</v>
+      </c>
+      <c r="E20" s="128">
+        <v>3811</v>
+      </c>
+      <c r="F20" s="128">
+        <v>3956</v>
+      </c>
+      <c r="G20" s="128">
+        <v>4083</v>
+      </c>
+      <c r="H20" s="128">
+        <v>4708</v>
+      </c>
+      <c r="I20" s="128">
+        <v>6067</v>
+      </c>
+      <c r="J20" s="128">
+        <v>5832</v>
+      </c>
+      <c r="K20" s="128">
+        <v>5494</v>
+      </c>
+      <c r="L20" s="128">
+        <v>6369</v>
+      </c>
+      <c r="M20" s="128">
+        <v>5926</v>
       </c>
       <c r="O20" s="107"/>
       <c r="P20" s="107"/>
@@ -22874,43 +22865,42 @@
       <c r="B21" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="110"/>
       <c r="D21" s="129"/>
-      <c r="E21" s="131" t="n">
+      <c r="E21" s="131">
         <f t="shared" ref="E21" si="41">(E20-D20)/D20</f>
         <v>0.27330437687938525</v>
       </c>
-      <c r="F21" s="131" t="n">
+      <c r="F21" s="131">
         <f t="shared" ref="F21" si="42">(F20-E20)/E20</f>
-        <v>0.03804775649435844</v>
-      </c>
-      <c r="G21" s="131" t="n">
+        <v>3.8047756494358438E-2</v>
+      </c>
+      <c r="G21" s="131">
         <f t="shared" ref="G21" si="43">(G20-F20)/F20</f>
-        <v>0.03210313447927199</v>
-      </c>
-      <c r="H21" s="131" t="n">
+        <v>3.2103134479271989E-2</v>
+      </c>
+      <c r="H21" s="131">
         <f t="shared" ref="H21" si="44">(H20-G20)/G20</f>
         <v>0.15307372030369826</v>
       </c>
-      <c r="I21" s="131" t="n">
+      <c r="I21" s="131">
         <f t="shared" ref="I21" si="45">(I20-H20)/H20</f>
-        <v>0.2886576040781648</v>
-      </c>
-      <c r="J21" s="131" t="n">
+        <v>0.28865760407816482</v>
+      </c>
+      <c r="J21" s="131">
         <f t="shared" ref="J21" si="46">(J20-I20)/I20</f>
-        <v>-0.03873413548706115</v>
-      </c>
-      <c r="K21" s="131" t="n">
+        <v>-3.8734135487061151E-2</v>
+      </c>
+      <c r="K21" s="131">
         <f t="shared" ref="K21" si="47">(K20-J20)/J20</f>
-        <v>-0.057956104252400546</v>
-      </c>
-      <c r="L21" s="131" t="n">
+        <v>-5.7956104252400546E-2</v>
+      </c>
+      <c r="L21" s="131">
         <f t="shared" ref="L21" si="48">(L20-K20)/K20</f>
-        <v>0.159264652348016</v>
-      </c>
-      <c r="M21" s="131" t="n">
+        <v>0.15926465234801601</v>
+      </c>
+      <c r="M21" s="131">
         <f t="shared" ref="M21" si="49">(M20-L20)/L20</f>
-        <v>-0.06955566022923536</v>
+        <v>-6.9555660229235358E-2</v>
       </c>
       <c r="O21" s="107"/>
       <c r="P21" s="107"/>
@@ -22973,38 +22963,38 @@
       <c r="B23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="113" t="n">
-        <v>819.0</v>
-      </c>
-      <c r="D23" s="130" t="n">
-        <v>1175.0</v>
-      </c>
-      <c r="E23" s="130" t="n">
-        <v>1323.0</v>
-      </c>
-      <c r="F23" s="130" t="n">
-        <v>1444.0</v>
-      </c>
-      <c r="G23" s="130" t="n">
-        <v>1646.0</v>
-      </c>
-      <c r="H23" s="130" t="n">
-        <v>2104.0</v>
-      </c>
-      <c r="I23" s="130" t="n">
-        <v>2555.0</v>
-      </c>
-      <c r="J23" s="130" t="n">
-        <v>3008.0</v>
-      </c>
-      <c r="K23" s="130" t="n">
-        <v>3426.0</v>
-      </c>
-      <c r="L23" s="130" t="n">
-        <v>3886.0</v>
-      </c>
-      <c r="M23" s="130" t="n">
-        <v>4297.0</v>
+      <c r="C23" s="113">
+        <v>819</v>
+      </c>
+      <c r="D23" s="130">
+        <v>1175</v>
+      </c>
+      <c r="E23" s="130">
+        <v>1323</v>
+      </c>
+      <c r="F23" s="130">
+        <v>1444</v>
+      </c>
+      <c r="G23" s="130">
+        <v>1646</v>
+      </c>
+      <c r="H23" s="130">
+        <v>2104</v>
+      </c>
+      <c r="I23" s="130">
+        <v>2555</v>
+      </c>
+      <c r="J23" s="130">
+        <v>3008</v>
+      </c>
+      <c r="K23" s="130">
+        <v>3426</v>
+      </c>
+      <c r="L23" s="130">
+        <v>3886</v>
+      </c>
+      <c r="M23" s="130">
+        <v>4297</v>
       </c>
       <c r="O23" s="107"/>
       <c r="P23" s="107"/>
@@ -23030,43 +23020,43 @@
       <c r="AJ23" s="107"/>
     </row>
     <row r="24" spans="2:36">
-      <c r="D24" s="121" t="n">
+      <c r="D24" s="121">
         <f t="shared" ref="D24" si="50">(D23-C23)/C23</f>
-        <v>0.4346764346764347</v>
-      </c>
-      <c r="E24" s="121" t="n">
+        <v>0.43467643467643469</v>
+      </c>
+      <c r="E24" s="121">
         <f t="shared" ref="E24" si="51">(E23-D23)/D23</f>
         <v>0.12595744680851065</v>
       </c>
-      <c r="F24" s="121" t="n">
+      <c r="F24" s="121">
         <f t="shared" ref="F24" si="52">(F23-E23)/E23</f>
-        <v>0.09145880574452003</v>
-      </c>
-      <c r="G24" s="121" t="n">
+        <v>9.1458805744520033E-2</v>
+      </c>
+      <c r="G24" s="121">
         <f t="shared" ref="G24" si="53">(G23-F23)/F23</f>
         <v>0.13988919667590027</v>
       </c>
-      <c r="H24" s="121" t="n">
+      <c r="H24" s="121">
         <f t="shared" ref="H24" si="54">(H23-G23)/G23</f>
-        <v>0.2782503037667072</v>
-      </c>
-      <c r="I24" s="121" t="n">
+        <v>0.27825030376670717</v>
+      </c>
+      <c r="I24" s="121">
         <f t="shared" ref="I24" si="55">(I23-H23)/H23</f>
         <v>0.21435361216730037</v>
       </c>
-      <c r="J24" s="121" t="n">
+      <c r="J24" s="121">
         <f t="shared" ref="J24" si="56">(J23-I23)/I23</f>
         <v>0.17729941291585127</v>
       </c>
-      <c r="K24" s="121" t="n">
+      <c r="K24" s="121">
         <f t="shared" ref="K24" si="57">(K23-J23)/J23</f>
         <v>0.1389627659574468</v>
       </c>
-      <c r="L24" s="121" t="n">
+      <c r="L24" s="121">
         <f t="shared" ref="L24" si="58">(L23-K23)/K23</f>
         <v>0.1342673671920607</v>
       </c>
-      <c r="M24" s="121" t="n">
+      <c r="M24" s="121">
         <f t="shared" ref="M24" si="59">(M23-L23)/L23</f>
         <v>0.10576428203808544</v>
       </c>
@@ -23205,38 +23195,38 @@
       <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="110" t="n">
-        <v>8230.0</v>
-      </c>
-      <c r="D28" s="110" t="n">
-        <v>8019.0</v>
-      </c>
-      <c r="E28" s="110" t="n">
-        <v>7421.0</v>
-      </c>
-      <c r="F28" s="110" t="n">
-        <v>7074.0</v>
-      </c>
-      <c r="G28" s="110" t="n">
-        <v>7457.0</v>
-      </c>
-      <c r="H28" s="110" t="n">
-        <v>8734.0</v>
-      </c>
-      <c r="I28" s="110" t="n">
-        <v>8097.0</v>
-      </c>
-      <c r="J28" s="110" t="n">
-        <v>8761.0</v>
-      </c>
-      <c r="K28" s="110" t="n">
-        <v>10239.0</v>
-      </c>
-      <c r="L28" s="110" t="n">
-        <v>13685.0</v>
-      </c>
-      <c r="M28" s="110" t="n">
-        <v>14021.0</v>
+      <c r="C28" s="110">
+        <v>8230</v>
+      </c>
+      <c r="D28" s="110">
+        <v>8019</v>
+      </c>
+      <c r="E28" s="110">
+        <v>7421</v>
+      </c>
+      <c r="F28" s="110">
+        <v>7074</v>
+      </c>
+      <c r="G28" s="110">
+        <v>7457</v>
+      </c>
+      <c r="H28" s="110">
+        <v>8734</v>
+      </c>
+      <c r="I28" s="110">
+        <v>8097</v>
+      </c>
+      <c r="J28" s="110">
+        <v>8761</v>
+      </c>
+      <c r="K28" s="110">
+        <v>10239</v>
+      </c>
+      <c r="L28" s="110">
+        <v>13685</v>
+      </c>
+      <c r="M28" s="110">
+        <v>14021</v>
       </c>
       <c r="O28" s="107"/>
       <c r="P28" s="107"/>
@@ -23266,45 +23256,45 @@
         <v>27</v>
       </c>
       <c r="C29" s="113"/>
-      <c r="D29" s="121" t="n">
+      <c r="D29" s="121">
         <f t="shared" ref="D29" si="60">(D28-C28)/C28</f>
-        <v>-0.02563791008505468</v>
-      </c>
-      <c r="E29" s="121" t="n">
+        <v>-2.5637910085054678E-2</v>
+      </c>
+      <c r="E29" s="121">
         <f t="shared" ref="E29" si="61">(E28-D28)/D28</f>
-        <v>-0.0745728893877042</v>
-      </c>
-      <c r="F29" s="121" t="n">
+        <v>-7.4572889387704205E-2</v>
+      </c>
+      <c r="F29" s="121">
         <f t="shared" ref="F29" si="62">(F28-E28)/E28</f>
-        <v>-0.04675919687373669</v>
-      </c>
-      <c r="G29" s="121" t="n">
+        <v>-4.675919687373669E-2</v>
+      </c>
+      <c r="G29" s="121">
         <f t="shared" ref="G29" si="63">(G28-F28)/F28</f>
-        <v>0.05414192818772971</v>
-      </c>
-      <c r="H29" s="121" t="n">
+        <v>5.4141928187729713E-2</v>
+      </c>
+      <c r="H29" s="121">
         <f t="shared" ref="H29" si="64">(H28-G28)/G28</f>
-        <v>0.171248491350409</v>
-      </c>
-      <c r="I29" s="121" t="n">
+        <v>0.17124849135040901</v>
+      </c>
+      <c r="I29" s="121">
         <f t="shared" ref="I29" si="65">(I28-H28)/H28</f>
-        <v>-0.07293336386535379</v>
-      </c>
-      <c r="J29" s="121" t="n">
+        <v>-7.293336386535379E-2</v>
+      </c>
+      <c r="J29" s="121">
         <f t="shared" ref="J29" si="66">(J28-I28)/I28</f>
-        <v>0.08200568111646289</v>
-      </c>
-      <c r="K29" s="121" t="n">
+        <v>8.2005681116462892E-2</v>
+      </c>
+      <c r="K29" s="121">
         <f t="shared" ref="K29" si="67">(K28-J28)/J28</f>
         <v>0.16870220294486932</v>
       </c>
-      <c r="L29" s="121" t="n">
+      <c r="L29" s="121">
         <f t="shared" ref="L29" si="68">(L28-K28)/K28</f>
-        <v>0.3365563043265944</v>
-      </c>
-      <c r="M29" s="121" t="n">
+        <v>0.33655630432659439</v>
+      </c>
+      <c r="M29" s="121">
         <f t="shared" ref="M29" si="69">(M28-L28)/L28</f>
-        <v>0.024552429667519183</v>
+        <v>2.4552429667519183E-2</v>
       </c>
       <c r="O29" s="107"/>
       <c r="P29" s="107"/>
@@ -23357,38 +23347,38 @@
       <c r="B31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="110" t="n">
-        <v>11791.0</v>
-      </c>
-      <c r="D31" s="110" t="n">
-        <v>10919.0</v>
-      </c>
-      <c r="E31" s="110" t="n">
-        <v>9951.0</v>
-      </c>
-      <c r="F31" s="110" t="n">
-        <v>9156.0</v>
-      </c>
-      <c r="G31" s="110" t="n">
-        <v>8974.0</v>
-      </c>
-      <c r="H31" s="110" t="n">
-        <v>8908.0</v>
-      </c>
-      <c r="I31" s="110" t="n">
-        <v>9040.0</v>
-      </c>
-      <c r="J31" s="110" t="n">
-        <v>9257.0</v>
-      </c>
-      <c r="K31" s="110" t="n">
-        <v>9112.0</v>
-      </c>
-      <c r="L31" s="110" t="n">
-        <v>10991.0</v>
-      </c>
-      <c r="M31" s="110" t="n">
-        <v>13186.0</v>
+      <c r="C31" s="110">
+        <v>11791</v>
+      </c>
+      <c r="D31" s="110">
+        <v>10919</v>
+      </c>
+      <c r="E31" s="110">
+        <v>9951</v>
+      </c>
+      <c r="F31" s="110">
+        <v>9156</v>
+      </c>
+      <c r="G31" s="110">
+        <v>8974</v>
+      </c>
+      <c r="H31" s="110">
+        <v>8908</v>
+      </c>
+      <c r="I31" s="110">
+        <v>9040</v>
+      </c>
+      <c r="J31" s="110">
+        <v>9257</v>
+      </c>
+      <c r="K31" s="110">
+        <v>9112</v>
+      </c>
+      <c r="L31" s="110">
+        <v>10991</v>
+      </c>
+      <c r="M31" s="110">
+        <v>13186</v>
       </c>
       <c r="O31" s="107"/>
       <c r="P31" s="107"/>
@@ -23418,43 +23408,43 @@
         <v>27</v>
       </c>
       <c r="C32" s="113"/>
-      <c r="D32" s="121" t="n">
+      <c r="D32" s="121">
         <f t="shared" ref="D32" si="70">(D31-C31)/C31</f>
-        <v>-0.07395471122042235</v>
-      </c>
-      <c r="E32" s="121" t="n">
+        <v>-7.3954711220422353E-2</v>
+      </c>
+      <c r="E32" s="121">
         <f t="shared" ref="E32" si="71">(E31-D31)/D31</f>
-        <v>-0.08865280703361114</v>
-      </c>
-      <c r="F32" s="121" t="n">
+        <v>-8.8652807033611142E-2</v>
+      </c>
+      <c r="F32" s="121">
         <f t="shared" ref="F32" si="72">(F31-E31)/E31</f>
-        <v>-0.07989146819415134</v>
-      </c>
-      <c r="G32" s="121" t="n">
+        <v>-7.9891468194151341E-2</v>
+      </c>
+      <c r="G32" s="121">
         <f t="shared" ref="G32" si="73">(G31-F31)/F31</f>
-        <v>-0.019877675840978593</v>
-      </c>
-      <c r="H32" s="121" t="n">
+        <v>-1.9877675840978593E-2</v>
+      </c>
+      <c r="H32" s="121">
         <f t="shared" ref="H32" si="74">(H31-G31)/G31</f>
-        <v>-0.007354579897481613</v>
-      </c>
-      <c r="I32" s="121" t="n">
+        <v>-7.3545798974816133E-3</v>
+      </c>
+      <c r="I32" s="121">
         <f t="shared" ref="I32" si="75">(I31-H31)/H31</f>
-        <v>0.014818140996856757</v>
-      </c>
-      <c r="J32" s="121" t="n">
+        <v>1.4818140996856757E-2</v>
+      </c>
+      <c r="J32" s="121">
         <f t="shared" ref="J32" si="76">(J31-I31)/I31</f>
-        <v>0.024004424778761062</v>
-      </c>
-      <c r="K32" s="121" t="n">
+        <v>2.4004424778761062E-2</v>
+      </c>
+      <c r="K32" s="121">
         <f t="shared" ref="K32" si="77">(K31-J31)/J31</f>
-        <v>-0.015663821972561304</v>
-      </c>
-      <c r="L32" s="121" t="n">
+        <v>-1.5663821972561304E-2</v>
+      </c>
+      <c r="L32" s="121">
         <f t="shared" ref="L32" si="78">(L31-K31)/K31</f>
         <v>0.20621158911325724</v>
       </c>
-      <c r="M32" s="121" t="n">
+      <c r="M32" s="121">
         <f t="shared" ref="M32" si="79">(M31-L31)/L31</f>
         <v>0.19970885269766173</v>
       </c>
@@ -23510,45 +23500,45 @@
         <v>50</v>
       </c>
       <c r="C34" s="111"/>
-      <c r="D34" s="111" t="n">
+      <c r="D34" s="111">
         <f>D28+D31</f>
-        <v>18938.0</v>
-      </c>
-      <c r="E34" s="111" t="n">
+        <v>18938</v>
+      </c>
+      <c r="E34" s="111">
         <f t="shared" ref="E34:M34" si="80">E28+E31</f>
-        <v>17372.0</v>
-      </c>
-      <c r="F34" s="111" t="n">
+        <v>17372</v>
+      </c>
+      <c r="F34" s="111">
         <f t="shared" si="80"/>
-        <v>16230.0</v>
-      </c>
-      <c r="G34" s="111" t="n">
+        <v>16230</v>
+      </c>
+      <c r="G34" s="111">
         <f t="shared" si="80"/>
-        <v>16431.0</v>
-      </c>
-      <c r="H34" s="111" t="n">
+        <v>16431</v>
+      </c>
+      <c r="H34" s="111">
         <f t="shared" si="80"/>
-        <v>17642.0</v>
-      </c>
-      <c r="I34" s="111" t="n">
+        <v>17642</v>
+      </c>
+      <c r="I34" s="111">
         <f t="shared" si="80"/>
-        <v>17137.0</v>
-      </c>
-      <c r="J34" s="111" t="n">
+        <v>17137</v>
+      </c>
+      <c r="J34" s="111">
         <f t="shared" si="80"/>
-        <v>18018.0</v>
-      </c>
-      <c r="K34" s="111" t="n">
+        <v>18018</v>
+      </c>
+      <c r="K34" s="111">
         <f t="shared" si="80"/>
-        <v>19351.0</v>
-      </c>
-      <c r="L34" s="111" t="n">
+        <v>19351</v>
+      </c>
+      <c r="L34" s="111">
         <f t="shared" si="80"/>
-        <v>24676.0</v>
-      </c>
-      <c r="M34" s="111" t="n">
+        <v>24676</v>
+      </c>
+      <c r="M34" s="111">
         <f t="shared" si="80"/>
-        <v>27207.0</v>
+        <v>27207</v>
       </c>
       <c r="O34" s="107"/>
       <c r="P34" s="107"/>
@@ -23601,38 +23591,38 @@
       <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="113" t="n">
-        <v>3430.0</v>
-      </c>
-      <c r="D36" s="118" t="n">
-        <v>2747.0</v>
-      </c>
-      <c r="E36" s="110" t="n">
-        <v>2658.0</v>
-      </c>
-      <c r="F36" s="110" t="n">
-        <v>2555.0</v>
-      </c>
-      <c r="G36" s="110" t="n">
-        <v>2264.0</v>
-      </c>
-      <c r="H36" s="110" t="n">
-        <v>2258.0</v>
-      </c>
-      <c r="I36" s="110" t="n">
-        <v>2474.0</v>
-      </c>
-      <c r="J36" s="110" t="n">
-        <v>2123.0</v>
-      </c>
-      <c r="K36" s="110" t="n">
-        <v>2390.0</v>
-      </c>
-      <c r="L36" s="110" t="n">
-        <v>2569.0</v>
-      </c>
-      <c r="M36" s="110" t="n">
-        <v>2985.0</v>
+      <c r="C36" s="113">
+        <v>3430</v>
+      </c>
+      <c r="D36" s="118">
+        <v>2747</v>
+      </c>
+      <c r="E36" s="110">
+        <v>2658</v>
+      </c>
+      <c r="F36" s="110">
+        <v>2555</v>
+      </c>
+      <c r="G36" s="110">
+        <v>2264</v>
+      </c>
+      <c r="H36" s="110">
+        <v>2258</v>
+      </c>
+      <c r="I36" s="110">
+        <v>2474</v>
+      </c>
+      <c r="J36" s="110">
+        <v>2123</v>
+      </c>
+      <c r="K36" s="110">
+        <v>2390</v>
+      </c>
+      <c r="L36" s="110">
+        <v>2569</v>
+      </c>
+      <c r="M36" s="110">
+        <v>2985</v>
       </c>
       <c r="O36" s="107"/>
       <c r="P36" s="107"/>
@@ -23662,43 +23652,43 @@
         <v>27</v>
       </c>
       <c r="C37" s="113"/>
-      <c r="D37" s="121" t="n">
+      <c r="D37" s="121">
         <f t="shared" ref="D37" si="81">(D36-C36)/C36</f>
         <v>-0.19912536443148687</v>
       </c>
-      <c r="E37" s="121" t="n">
+      <c r="E37" s="121">
         <f t="shared" ref="E37" si="82">(E36-D36)/D36</f>
-        <v>-0.032398980706224975</v>
-      </c>
-      <c r="F37" s="121" t="n">
+        <v>-3.2398980706224975E-2</v>
+      </c>
+      <c r="F37" s="121">
         <f t="shared" ref="F37" si="83">(F36-E36)/E36</f>
-        <v>-0.03875094055680963</v>
-      </c>
-      <c r="G37" s="121" t="n">
+        <v>-3.8750940556809631E-2</v>
+      </c>
+      <c r="G37" s="121">
         <f t="shared" ref="G37" si="84">(G36-F36)/F36</f>
         <v>-0.11389432485322896</v>
       </c>
-      <c r="H37" s="121" t="n">
+      <c r="H37" s="121">
         <f t="shared" ref="H37" si="85">(H36-G36)/G36</f>
-        <v>-0.00265017667844523</v>
-      </c>
-      <c r="I37" s="121" t="n">
+        <v>-2.6501766784452299E-3</v>
+      </c>
+      <c r="I37" s="121">
         <f t="shared" ref="I37" si="86">(I36-H36)/H36</f>
-        <v>0.09565987599645705</v>
-      </c>
-      <c r="J37" s="121" t="n">
+        <v>9.5659875996457047E-2</v>
+      </c>
+      <c r="J37" s="121">
         <f t="shared" ref="J37" si="87">(J36-I36)/I36</f>
         <v>-0.14187550525464834</v>
       </c>
-      <c r="K37" s="121" t="n">
+      <c r="K37" s="121">
         <f t="shared" ref="K37" si="88">(K36-J36)/J36</f>
-        <v>0.125765426283561</v>
-      </c>
-      <c r="L37" s="121" t="n">
+        <v>0.12576542628356099</v>
+      </c>
+      <c r="L37" s="121">
         <f t="shared" ref="L37" si="89">(L36-K36)/K36</f>
-        <v>0.07489539748953974</v>
-      </c>
-      <c r="M37" s="121" t="n">
+        <v>7.4895397489539745E-2</v>
+      </c>
+      <c r="M37" s="121">
         <f t="shared" ref="M37" si="90">(M36-L36)/L36</f>
         <v>0.16193071233943168</v>
       </c>
@@ -23753,38 +23743,38 @@
       <c r="B39" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="113" t="n">
-        <v>5630.0</v>
-      </c>
-      <c r="D39" s="110" t="n">
-        <v>5384.0</v>
-      </c>
-      <c r="E39" s="110" t="n">
-        <v>4324.0</v>
-      </c>
-      <c r="F39" s="110" t="n">
-        <v>3729.0</v>
-      </c>
-      <c r="G39" s="110" t="n">
-        <v>3694.0</v>
-      </c>
-      <c r="H39" s="110" t="n">
-        <v>5047.0</v>
-      </c>
-      <c r="I39" s="110" t="n">
-        <v>5669.0</v>
-      </c>
-      <c r="J39" s="110" t="n">
-        <v>6988.0</v>
-      </c>
-      <c r="K39" s="110" t="n">
-        <v>7774.0</v>
-      </c>
-      <c r="L39" s="110" t="n">
-        <v>8774.0</v>
-      </c>
-      <c r="M39" s="110" t="n">
-        <v>9645.0</v>
+      <c r="C39" s="113">
+        <v>5630</v>
+      </c>
+      <c r="D39" s="110">
+        <v>5384</v>
+      </c>
+      <c r="E39" s="110">
+        <v>4324</v>
+      </c>
+      <c r="F39" s="110">
+        <v>3729</v>
+      </c>
+      <c r="G39" s="110">
+        <v>3694</v>
+      </c>
+      <c r="H39" s="110">
+        <v>5047</v>
+      </c>
+      <c r="I39" s="110">
+        <v>5669</v>
+      </c>
+      <c r="J39" s="110">
+        <v>6988</v>
+      </c>
+      <c r="K39" s="110">
+        <v>7774</v>
+      </c>
+      <c r="L39" s="110">
+        <v>8774</v>
+      </c>
+      <c r="M39" s="110">
+        <v>9645</v>
       </c>
       <c r="O39" s="107"/>
       <c r="P39" s="107"/>
@@ -23814,45 +23804,45 @@
         <v>27</v>
       </c>
       <c r="C40" s="113"/>
-      <c r="D40" s="121" t="n">
+      <c r="D40" s="121">
         <f t="shared" ref="D40" si="91">(D39-C39)/C39</f>
-        <v>-0.04369449378330373</v>
-      </c>
-      <c r="E40" s="121" t="n">
+        <v>-4.3694493783303728E-2</v>
+      </c>
+      <c r="E40" s="121">
         <f t="shared" ref="E40" si="92">(E39-D39)/D39</f>
         <v>-0.19687964338781574</v>
       </c>
-      <c r="F40" s="121" t="n">
+      <c r="F40" s="121">
         <f t="shared" ref="F40" si="93">(F39-E39)/E39</f>
         <v>-0.13760407030527289</v>
       </c>
-      <c r="G40" s="121" t="n">
+      <c r="G40" s="121">
         <f t="shared" ref="G40" si="94">(G39-F39)/F39</f>
-        <v>-0.009385894341646554</v>
-      </c>
-      <c r="H40" s="121" t="n">
+        <v>-9.3858943416465536E-3</v>
+      </c>
+      <c r="H40" s="121">
         <f t="shared" ref="H40" si="95">(H39-G39)/G39</f>
-        <v>0.3662696264212236</v>
-      </c>
-      <c r="I40" s="121" t="n">
+        <v>0.36626962642122363</v>
+      </c>
+      <c r="I40" s="121">
         <f t="shared" ref="I40" si="96">(I39-H39)/H39</f>
         <v>0.12324152962155736</v>
       </c>
-      <c r="J40" s="121" t="n">
+      <c r="J40" s="121">
         <f t="shared" ref="J40" si="97">(J39-I39)/I39</f>
         <v>0.23266890104074792</v>
       </c>
-      <c r="K40" s="121" t="n">
+      <c r="K40" s="121">
         <f t="shared" ref="K40" si="98">(K39-J39)/J39</f>
         <v>0.11247853463079564</v>
       </c>
-      <c r="L40" s="121" t="n">
+      <c r="L40" s="121">
         <f t="shared" ref="L40" si="99">(L39-K39)/K39</f>
         <v>0.12863390789812196</v>
       </c>
-      <c r="M40" s="121" t="n">
+      <c r="M40" s="121">
         <f t="shared" ref="M40" si="100">(M39-L39)/L39</f>
-        <v>0.09927057214497378</v>
+        <v>9.9270572144973784E-2</v>
       </c>
       <c r="O40" s="107"/>
       <c r="P40" s="107"/>
@@ -23908,45 +23898,45 @@
       <c r="C42" s="116">
         <v>1</v>
       </c>
-      <c r="D42" s="111" t="n">
+      <c r="D42" s="111">
         <f>D36+D39</f>
-        <v>8131.0</v>
-      </c>
-      <c r="E42" s="111" t="n">
+        <v>8131</v>
+      </c>
+      <c r="E42" s="111">
         <f t="shared" ref="E42:M42" si="101">E36+E39</f>
-        <v>6982.0</v>
-      </c>
-      <c r="F42" s="111" t="n">
+        <v>6982</v>
+      </c>
+      <c r="F42" s="111">
         <f t="shared" si="101"/>
-        <v>6284.0</v>
-      </c>
-      <c r="G42" s="111" t="n">
+        <v>6284</v>
+      </c>
+      <c r="G42" s="111">
         <f t="shared" si="101"/>
-        <v>5958.0</v>
-      </c>
-      <c r="H42" s="111" t="n">
+        <v>5958</v>
+      </c>
+      <c r="H42" s="111">
         <f t="shared" si="101"/>
-        <v>7305.0</v>
-      </c>
-      <c r="I42" s="111" t="n">
+        <v>7305</v>
+      </c>
+      <c r="I42" s="111">
         <f t="shared" si="101"/>
-        <v>8143.0</v>
-      </c>
-      <c r="J42" s="111" t="n">
+        <v>8143</v>
+      </c>
+      <c r="J42" s="111">
         <f t="shared" si="101"/>
-        <v>9111.0</v>
-      </c>
-      <c r="K42" s="111" t="n">
+        <v>9111</v>
+      </c>
+      <c r="K42" s="111">
         <f t="shared" si="101"/>
-        <v>10164.0</v>
-      </c>
-      <c r="L42" s="111" t="n">
+        <v>10164</v>
+      </c>
+      <c r="L42" s="111">
         <f t="shared" si="101"/>
-        <v>11343.0</v>
-      </c>
-      <c r="M42" s="111" t="n">
+        <v>11343</v>
+      </c>
+      <c r="M42" s="111">
         <f t="shared" si="101"/>
-        <v>12630.0</v>
+        <v>12630</v>
       </c>
       <c r="O42" s="107"/>
       <c r="P42" s="107"/>
@@ -24004,45 +23994,45 @@
       <c r="C44" s="134">
         <v>1</v>
       </c>
-      <c r="D44" s="134" t="n">
+      <c r="D44" s="134">
         <f>D34-D42</f>
-        <v>10807.0</v>
-      </c>
-      <c r="E44" s="134" t="n">
+        <v>10807</v>
+      </c>
+      <c r="E44" s="134">
         <f t="shared" ref="E44:M44" si="102">E34-E42</f>
-        <v>10390.0</v>
-      </c>
-      <c r="F44" s="134" t="n">
+        <v>10390</v>
+      </c>
+      <c r="F44" s="134">
         <f t="shared" si="102"/>
-        <v>9946.0</v>
-      </c>
-      <c r="G44" s="134" t="n">
+        <v>9946</v>
+      </c>
+      <c r="G44" s="134">
         <f t="shared" si="102"/>
-        <v>10473.0</v>
-      </c>
-      <c r="H44" s="134" t="n">
+        <v>10473</v>
+      </c>
+      <c r="H44" s="134">
         <f t="shared" si="102"/>
-        <v>10337.0</v>
-      </c>
-      <c r="I44" s="134" t="n">
+        <v>10337</v>
+      </c>
+      <c r="I44" s="134">
         <f t="shared" si="102"/>
-        <v>8994.0</v>
-      </c>
-      <c r="J44" s="134" t="n">
+        <v>8994</v>
+      </c>
+      <c r="J44" s="134">
         <f t="shared" si="102"/>
-        <v>8907.0</v>
-      </c>
-      <c r="K44" s="134" t="n">
+        <v>8907</v>
+      </c>
+      <c r="K44" s="134">
         <f t="shared" si="102"/>
-        <v>9187.0</v>
-      </c>
-      <c r="L44" s="134" t="n">
+        <v>9187</v>
+      </c>
+      <c r="L44" s="134">
         <f t="shared" si="102"/>
-        <v>13333.0</v>
-      </c>
-      <c r="M44" s="134" t="n">
+        <v>13333</v>
+      </c>
+      <c r="M44" s="134">
         <f t="shared" si="102"/>
-        <v>14577.0</v>
+        <v>14577</v>
       </c>
       <c r="O44" s="107"/>
       <c r="P44" s="107"/>
@@ -24104,40 +24094,40 @@
     </row>
     <row r="46" spans="2:36">
       <c r="B46" s="122" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="133" t="n">
-        <v>4186.0</v>
-      </c>
-      <c r="D46" s="133" t="n">
-        <v>4158.0</v>
-      </c>
-      <c r="E46" s="133" t="n">
-        <v>3630.0</v>
-      </c>
-      <c r="F46" s="133" t="n">
-        <v>3120.0</v>
-      </c>
-      <c r="G46" s="133" t="n">
-        <v>2978.0</v>
-      </c>
-      <c r="H46" s="133" t="n">
-        <v>3577.0</v>
-      </c>
-      <c r="I46" s="133" t="n">
-        <v>4319.0</v>
-      </c>
-      <c r="J46" s="133" t="n">
-        <v>5303.0</v>
-      </c>
-      <c r="K46" s="136" t="n">
-        <v>6248.0</v>
-      </c>
-      <c r="L46" s="133" t="n">
-        <v>7241.0</v>
-      </c>
-      <c r="M46" s="133" t="n">
-        <v>8235.0</v>
+        <v>155</v>
+      </c>
+      <c r="C46" s="133">
+        <v>4186</v>
+      </c>
+      <c r="D46" s="133">
+        <v>4158</v>
+      </c>
+      <c r="E46" s="133">
+        <v>3630</v>
+      </c>
+      <c r="F46" s="133">
+        <v>3120</v>
+      </c>
+      <c r="G46" s="133">
+        <v>2978</v>
+      </c>
+      <c r="H46" s="133">
+        <v>3577</v>
+      </c>
+      <c r="I46" s="133">
+        <v>4319</v>
+      </c>
+      <c r="J46" s="133">
+        <v>5303</v>
+      </c>
+      <c r="K46" s="136">
+        <v>6248</v>
+      </c>
+      <c r="L46" s="133">
+        <v>7241</v>
+      </c>
+      <c r="M46" s="133">
+        <v>8235</v>
       </c>
       <c r="Q46" s="107"/>
       <c r="R46" s="107"/>
@@ -24271,45 +24261,45 @@
         <v>57</v>
       </c>
       <c r="C50" s="113"/>
-      <c r="D50" s="126" t="n">
+      <c r="D50" s="126">
         <f t="shared" ref="D50:M50" si="103">D6/D3</f>
         <v>0.17410897173289636</v>
       </c>
-      <c r="E50" s="126" t="n">
+      <c r="E50" s="126">
         <f t="shared" si="103"/>
         <v>0.212878497508624</v>
       </c>
-      <c r="F50" s="126" t="n">
+      <c r="F50" s="126">
         <f t="shared" si="103"/>
         <v>0.2296923076923077</v>
       </c>
-      <c r="G50" s="126" t="n">
+      <c r="G50" s="126">
         <f t="shared" si="103"/>
-        <v>0.268885564697083</v>
-      </c>
-      <c r="H50" s="126" t="n">
+        <v>0.26888556469708302</v>
+      </c>
+      <c r="H50" s="126">
         <f t="shared" si="103"/>
         <v>0.24383396831762583</v>
       </c>
-      <c r="I50" s="126" t="n">
+      <c r="I50" s="126">
         <f t="shared" si="103"/>
-        <v>0.3507982767359351</v>
-      </c>
-      <c r="J50" s="126" t="n">
+        <v>0.35079827673593511</v>
+      </c>
+      <c r="J50" s="126">
         <f t="shared" si="103"/>
-        <v>0.3465897239796982</v>
-      </c>
-      <c r="K50" s="126" t="n">
+        <v>0.34658972397969823</v>
+      </c>
+      <c r="K50" s="126">
         <f t="shared" si="103"/>
         <v>0.38503561302814465</v>
       </c>
-      <c r="L50" s="126" t="n">
+      <c r="L50" s="126">
         <f t="shared" si="103"/>
         <v>0.4217182730047972</v>
       </c>
-      <c r="M50" s="126" t="n">
+      <c r="M50" s="126">
         <f t="shared" si="103"/>
-        <v>0.4348412222887957</v>
+        <v>0.43484122228879568</v>
       </c>
       <c r="O50" s="107"/>
       <c r="P50" s="107"/>
@@ -24339,43 +24329,43 @@
         <v>58</v>
       </c>
       <c r="C51" s="113"/>
-      <c r="D51" s="126" t="n">
+      <c r="D51" s="126">
         <f t="shared" ref="D51:M51" si="104">D9/D3</f>
-        <v>0.3383039737812372</v>
-      </c>
-      <c r="E51" s="126" t="n">
+        <v>0.33830397378123722</v>
+      </c>
+      <c r="E51" s="126">
         <f t="shared" si="104"/>
-        <v>0.3968570333461096</v>
-      </c>
-      <c r="F51" s="126" t="n">
+        <v>0.39685703334610961</v>
+      </c>
+      <c r="F51" s="126">
         <f t="shared" si="104"/>
-        <v>0.4196153846153846</v>
-      </c>
-      <c r="G51" s="126" t="n">
+        <v>0.41961538461538461</v>
+      </c>
+      <c r="G51" s="126">
         <f t="shared" si="104"/>
         <v>0.43455497382198954</v>
       </c>
-      <c r="H51" s="126" t="n">
+      <c r="H51" s="126">
         <f t="shared" si="104"/>
         <v>0.46701423701624223</v>
       </c>
-      <c r="I51" s="126" t="n">
+      <c r="I51" s="126">
         <f t="shared" si="104"/>
         <v>0.48574505828687276</v>
       </c>
-      <c r="J51" s="126" t="n">
+      <c r="J51" s="126">
         <f t="shared" si="104"/>
         <v>0.47090314955155393</v>
       </c>
-      <c r="K51" s="126" t="n">
+      <c r="K51" s="126">
         <f t="shared" si="104"/>
-        <v>0.4761773044741028</v>
-      </c>
-      <c r="L51" s="126" t="n">
+        <v>0.47617730447410278</v>
+      </c>
+      <c r="L51" s="126">
         <f t="shared" si="104"/>
-        <v>0.5404491931966856</v>
-      </c>
-      <c r="M51" s="126" t="n">
+        <v>0.54044919319668561</v>
+      </c>
+      <c r="M51" s="126">
         <f t="shared" si="104"/>
         <v>0.555172758138606</v>
       </c>
@@ -24407,43 +24397,43 @@
         <v>59</v>
       </c>
       <c r="C52" s="113"/>
-      <c r="D52" s="126" t="n">
+      <c r="D52" s="126">
         <f t="shared" ref="D52:M52" si="105">D20/D3</f>
         <v>0.24522736583367472</v>
       </c>
-      <c r="E52" s="126" t="n">
+      <c r="E52" s="126">
         <f t="shared" si="105"/>
         <v>0.29214258336527404</v>
       </c>
-      <c r="F52" s="126" t="n">
+      <c r="F52" s="126">
         <f t="shared" si="105"/>
         <v>0.30430769230769233</v>
       </c>
-      <c r="G52" s="126" t="n">
+      <c r="G52" s="126">
         <f t="shared" si="105"/>
         <v>0.30538519072550485</v>
       </c>
-      <c r="H52" s="126" t="n">
+      <c r="H52" s="126">
         <f t="shared" si="105"/>
-        <v>0.3146848472695675</v>
-      </c>
-      <c r="I52" s="126" t="n">
+        <v>0.31468484726956752</v>
+      </c>
+      <c r="I52" s="126">
         <f t="shared" si="105"/>
-        <v>0.3843765838824126</v>
-      </c>
-      <c r="J52" s="126" t="n">
+        <v>0.38437658388241258</v>
+      </c>
+      <c r="J52" s="126">
         <f t="shared" si="105"/>
         <v>0.40547869012028087</v>
       </c>
-      <c r="K52" s="126" t="n">
+      <c r="K52" s="126">
         <f t="shared" si="105"/>
         <v>0.3799184012170666</v>
       </c>
-      <c r="L52" s="126" t="n">
+      <c r="L52" s="126">
         <f t="shared" si="105"/>
         <v>0.34719799389446143</v>
       </c>
-      <c r="M52" s="126" t="n">
+      <c r="M52" s="126">
         <f t="shared" si="105"/>
         <v>0.29588575993608945</v>
       </c>
@@ -24557,45 +24547,45 @@
         <v>62</v>
       </c>
       <c r="C55" s="114"/>
-      <c r="D55" s="126" t="n">
+      <c r="D55" s="126">
         <f>D23/D20</f>
-        <v>0.3925826929502172</v>
-      </c>
-      <c r="E55" s="126" t="n">
+        <v>0.39258269295021719</v>
+      </c>
+      <c r="E55" s="126">
         <f t="shared" ref="E55:M55" si="106">E23/E20</f>
-        <v>0.3471529782209394</v>
-      </c>
-      <c r="F55" s="126" t="n">
+        <v>0.34715297822093938</v>
+      </c>
+      <c r="F55" s="126">
         <f t="shared" si="106"/>
         <v>0.36501516683518703</v>
       </c>
-      <c r="G55" s="126" t="n">
+      <c r="G55" s="126">
         <f t="shared" si="106"/>
         <v>0.40313494979181974</v>
       </c>
-      <c r="H55" s="126" t="n">
+      <c r="H55" s="126">
         <f t="shared" si="106"/>
-        <v>0.4468988954970263</v>
-      </c>
-      <c r="I55" s="126" t="n">
+        <v>0.44689889549702633</v>
+      </c>
+      <c r="I55" s="126">
         <f t="shared" si="106"/>
         <v>0.4211307071040053</v>
       </c>
-      <c r="J55" s="126" t="n">
+      <c r="J55" s="126">
         <f t="shared" si="106"/>
-        <v>0.5157750342935528</v>
-      </c>
-      <c r="K55" s="126" t="n">
+        <v>0.51577503429355276</v>
+      </c>
+      <c r="K55" s="126">
         <f t="shared" si="106"/>
         <v>0.6235893702220604</v>
       </c>
-      <c r="L55" s="126" t="n">
+      <c r="L55" s="126">
         <f t="shared" si="106"/>
-        <v>0.6101428795729313</v>
-      </c>
-      <c r="M55" s="126" t="n">
+        <v>0.61014287957293134</v>
+      </c>
+      <c r="M55" s="126">
         <f t="shared" si="106"/>
-        <v>0.7251096861289233</v>
+        <v>0.72510968612892335</v>
       </c>
       <c r="O55" s="107"/>
       <c r="P55" s="107"/>
@@ -24707,45 +24697,45 @@
         <v>64</v>
       </c>
       <c r="C58" s="113"/>
-      <c r="D58" s="112" t="n">
+      <c r="D58" s="112">
         <f>D42/D44</f>
         <v>0.7523827149070047</v>
       </c>
-      <c r="E58" s="112" t="n">
+      <c r="E58" s="112">
         <f t="shared" ref="E58:M58" si="107">E42/E44</f>
-        <v>0.6719923002887391</v>
-      </c>
-      <c r="F58" s="112" t="n">
+        <v>0.67199230028873913</v>
+      </c>
+      <c r="F58" s="112">
         <f t="shared" si="107"/>
-        <v>0.6318117836316107</v>
-      </c>
-      <c r="G58" s="112" t="n">
+        <v>0.63181178363161072</v>
+      </c>
+      <c r="G58" s="112">
         <f t="shared" si="107"/>
-        <v>0.5688914351188771</v>
-      </c>
-      <c r="H58" s="112" t="n">
+        <v>0.56889143511887708</v>
+      </c>
+      <c r="H58" s="112">
         <f t="shared" si="107"/>
-        <v>0.7066847247750798</v>
-      </c>
-      <c r="I58" s="112" t="n">
+        <v>0.70668472477507982</v>
+      </c>
+      <c r="I58" s="112">
         <f t="shared" si="107"/>
-        <v>0.905381365354681</v>
-      </c>
-      <c r="J58" s="112" t="n">
+        <v>0.90538136535468094</v>
+      </c>
+      <c r="J58" s="112">
         <f t="shared" si="107"/>
         <v>1.0229033344560459</v>
       </c>
-      <c r="K58" s="112" t="n">
+      <c r="K58" s="112">
         <f t="shared" si="107"/>
         <v>1.1063459235876782</v>
       </c>
-      <c r="L58" s="112" t="n">
+      <c r="L58" s="112">
         <f t="shared" si="107"/>
-        <v>0.8507462686567164</v>
-      </c>
-      <c r="M58" s="112" t="n">
+        <v>0.85074626865671643</v>
+      </c>
+      <c r="M58" s="112">
         <f t="shared" si="107"/>
-        <v>0.8664334225149207</v>
+        <v>0.86643342251492073</v>
       </c>
       <c r="O58" s="107"/>
       <c r="P58" s="107"/>
@@ -24775,45 +24765,45 @@
         <v>65</v>
       </c>
       <c r="C59" s="113"/>
-      <c r="D59" s="112" t="n">
+      <c r="D59" s="112">
         <f>D28/D36</f>
         <v>2.9191845649799784</v>
       </c>
-      <c r="E59" s="112" t="n">
+      <c r="E59" s="112">
         <f t="shared" ref="E59:M59" si="108">E28/E36</f>
-        <v>2.791948833709556</v>
-      </c>
-      <c r="F59" s="112" t="n">
+        <v>2.7919488337095562</v>
+      </c>
+      <c r="F59" s="112">
         <f t="shared" si="108"/>
         <v>2.768688845401174</v>
       </c>
-      <c r="G59" s="112" t="n">
+      <c r="G59" s="112">
         <f t="shared" si="108"/>
-        <v>3.293727915194346</v>
-      </c>
-      <c r="H59" s="112" t="n">
+        <v>3.2937279151943462</v>
+      </c>
+      <c r="H59" s="112">
         <f t="shared" si="108"/>
         <v>3.8680248007085916</v>
       </c>
-      <c r="I59" s="112" t="n">
+      <c r="I59" s="112">
         <f t="shared" si="108"/>
-        <v>3.272837510105093</v>
-      </c>
-      <c r="J59" s="112" t="n">
+        <v>3.2728375101050928</v>
+      </c>
+      <c r="J59" s="112">
         <f t="shared" si="108"/>
-        <v>4.12670748940179</v>
-      </c>
-      <c r="K59" s="112" t="n">
+        <v>4.1267074894017899</v>
+      </c>
+      <c r="K59" s="112">
         <f t="shared" si="108"/>
-        <v>4.284100418410042</v>
-      </c>
-      <c r="L59" s="112" t="n">
+        <v>4.2841004184100422</v>
+      </c>
+      <c r="L59" s="112">
         <f t="shared" si="108"/>
         <v>5.3269754768392374</v>
       </c>
-      <c r="M59" s="112" t="n">
+      <c r="M59" s="112">
         <f t="shared" si="108"/>
-        <v>4.69715242881072</v>
+        <v>4.6971524288107203</v>
       </c>
       <c r="O59" s="107"/>
       <c r="P59" s="107"/>
@@ -24840,47 +24830,47 @@
     </row>
     <row r="60" spans="2:36">
       <c r="B60" s="122" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="112" t="n">
+        <v>157</v>
+      </c>
+      <c r="D60" s="112">
         <f>D46/D9</f>
         <v>1.0070234923710342</v>
       </c>
-      <c r="E60" s="112" t="n">
+      <c r="E60" s="112">
         <f t="shared" ref="E60:M60" si="109">E46/E9</f>
-        <v>0.7011782885841221</v>
-      </c>
-      <c r="F60" s="112" t="n">
+        <v>0.70117828858412212</v>
+      </c>
+      <c r="F60" s="112">
         <f t="shared" si="109"/>
-        <v>0.5719523373052245</v>
-      </c>
-      <c r="G60" s="112" t="n">
+        <v>0.57195233730522455</v>
+      </c>
+      <c r="G60" s="112">
         <f t="shared" si="109"/>
-        <v>0.5125645438898451</v>
-      </c>
-      <c r="H60" s="112" t="n">
+        <v>0.51256454388984507</v>
+      </c>
+      <c r="H60" s="112">
         <f t="shared" si="109"/>
-        <v>0.511950765707743</v>
-      </c>
-      <c r="I60" s="112" t="n">
+        <v>0.51195076570774301</v>
+      </c>
+      <c r="I60" s="112">
         <f t="shared" si="109"/>
-        <v>0.5633233337680971</v>
-      </c>
-      <c r="J60" s="112" t="n">
+        <v>0.56332333376809707</v>
+      </c>
+      <c r="J60" s="112">
         <f t="shared" si="109"/>
-        <v>0.7829617599291304</v>
-      </c>
-      <c r="K60" s="112" t="n">
+        <v>0.78296175992913042</v>
+      </c>
+      <c r="K60" s="112">
         <f t="shared" si="109"/>
-        <v>0.9073482428115016</v>
-      </c>
-      <c r="L60" s="112" t="n">
+        <v>0.90734824281150162</v>
+      </c>
+      <c r="L60" s="112">
         <f t="shared" si="109"/>
-        <v>0.7303812789993948</v>
-      </c>
-      <c r="M60" s="112" t="n">
+        <v>0.73038127899939476</v>
+      </c>
+      <c r="M60" s="112">
         <f t="shared" si="109"/>
-        <v>0.7406241568486375</v>
+        <v>0.74062415684863747</v>
       </c>
       <c r="O60" s="107"/>
       <c r="P60" s="107"/>
@@ -24963,9 +24953,9 @@
         <v>73</v>
       </c>
       <c r="C63" s="113"/>
-      <c r="D63" s="121" t="n">
+      <c r="D63" s="121">
         <f>(M20/I20)^0.2 - 1</f>
-        <v>-0.0046919183617391</v>
+        <v>-4.6919183617391003E-3</v>
       </c>
       <c r="O63" s="107"/>
       <c r="P63" s="107"/>
@@ -24995,9 +24985,9 @@
         <v>83</v>
       </c>
       <c r="C64" s="113"/>
-      <c r="D64" s="121" t="n">
+      <c r="D64" s="121">
         <f>(M20/D20)^0.1 - 1</f>
-        <v>0.0706943058676468</v>
+        <v>7.0694305867646801E-2</v>
       </c>
     </row>
     <row r="65" spans="2:13">
@@ -25005,9 +24995,9 @@
         <v>74</v>
       </c>
       <c r="C65" s="114"/>
-      <c r="D65" s="121" t="n">
+      <c r="D65" s="121">
         <f>(M6/I6)^0.2 - 1</f>
-        <v>0.09480999446339822</v>
+        <v>9.4809994463398217E-2</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -25015,9 +25005,9 @@
         <v>84</v>
       </c>
       <c r="C66" s="114"/>
-      <c r="D66" s="121" t="n">
+      <c r="D66" s="121">
         <f>(M6/D6)^0.1 - 1</f>
-        <v>0.1514920280259202</v>
+        <v>0.15149202802592021</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -25025,9 +25015,9 @@
         <v>75</v>
       </c>
       <c r="C67" s="114"/>
-      <c r="D67" s="121" t="n">
+      <c r="D67" s="121">
         <f>(M3/I3)^0.2 - 1</f>
-        <v>0.04877928816872412</v>
+        <v>4.8779288168724122E-2</v>
       </c>
     </row>
     <row r="68" spans="2:13">
@@ -25035,9 +25025,9 @@
         <v>85</v>
       </c>
       <c r="C68" s="114"/>
-      <c r="D68" s="121" t="n">
+      <c r="D68" s="121">
         <f>(M3/D3)^0.1 - 1</f>
-        <v>0.050775600952138955</v>
+        <v>5.0775600952138955E-2</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -25045,9 +25035,9 @@
         <v>88</v>
       </c>
       <c r="C69" s="114"/>
-      <c r="D69" s="121" t="n">
+      <c r="D69" s="121">
         <f>(M9/I9)^0.2 - 1</f>
-        <v>0.07717943480403444</v>
+        <v>7.7179434804034441E-2</v>
       </c>
     </row>
     <row r="70" spans="2:13">
@@ -25055,7 +25045,7 @@
         <v>89</v>
       </c>
       <c r="C70" s="114"/>
-      <c r="D70" s="121" t="n">
+      <c r="D70" s="121">
         <f>(M9/D9)^0.2 - 1</f>
         <v>0.21911358130616465</v>
       </c>
@@ -25064,7 +25054,7 @@
       <c r="B71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="121" t="n">
+      <c r="D71" s="121">
         <f>(M23/I23)^0.2 - 1</f>
         <v>0.10957046973041251</v>
       </c>
@@ -25073,16 +25063,16 @@
       <c r="B72" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="121" t="n">
+      <c r="D72" s="121">
         <f>AVERAGE(I24:M24)</f>
-        <v>0.1541294880541489</v>
+        <v>0.15412948805414889</v>
       </c>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="121" t="n">
+      <c r="D73" s="121">
         <f>AVERAGE(I55:M55)</f>
         <v>0.5791495354642946</v>
       </c>
@@ -25130,43 +25120,43 @@
       <c r="C76" s="110">
         <v>0</v>
       </c>
-      <c r="D76" s="110" t="n">
+      <c r="D76" s="110">
         <f t="shared" ref="D76:M76" si="110">100*D6/D34</f>
         <v>11.220825852782765</v>
       </c>
-      <c r="E76" s="110" t="n">
+      <c r="E76" s="110">
         <f t="shared" si="110"/>
         <v>15.985493898227032</v>
       </c>
-      <c r="F76" s="110" t="n">
+      <c r="F76" s="110">
         <f t="shared" si="110"/>
-        <v>18.39802834257548</v>
-      </c>
-      <c r="G76" s="110" t="n">
+        <v>18.398028342575479</v>
+      </c>
+      <c r="G76" s="110">
         <f t="shared" si="110"/>
-        <v>21.87937435335646</v>
-      </c>
-      <c r="H76" s="110" t="n">
+        <v>21.879374353356461</v>
+      </c>
+      <c r="H76" s="110">
         <f t="shared" si="110"/>
         <v>20.677927672599477</v>
       </c>
-      <c r="I76" s="110" t="n">
+      <c r="I76" s="110">
         <f t="shared" si="110"/>
         <v>32.31020598704557</v>
       </c>
-      <c r="J76" s="110" t="n">
+      <c r="J76" s="110">
         <f t="shared" si="110"/>
         <v>27.666777666777666</v>
       </c>
-      <c r="K76" s="110" t="n">
+      <c r="K76" s="110">
         <f t="shared" si="110"/>
         <v>28.773706785179062</v>
       </c>
-      <c r="L76" s="110" t="n">
+      <c r="L76" s="110">
         <f t="shared" si="110"/>
         <v>31.35029988652942</v>
       </c>
-      <c r="M76" s="110" t="n">
+      <c r="M76" s="110">
         <f t="shared" si="110"/>
         <v>32.010144448119966</v>
       </c>
@@ -25178,82 +25168,82 @@
       <c r="C77" s="110">
         <v>0</v>
       </c>
-      <c r="D77" s="110" t="n">
+      <c r="D77" s="110">
         <f t="shared" ref="D77:M77" si="111">100*D6/D44</f>
         <v>19.66318127139817</v>
       </c>
-      <c r="E77" s="110" t="n">
+      <c r="E77" s="110">
         <f t="shared" si="111"/>
         <v>26.727622714148218</v>
       </c>
-      <c r="F77" s="110" t="n">
+      <c r="F77" s="110">
         <f t="shared" si="111"/>
         <v>30.022119445003018</v>
       </c>
-      <c r="G77" s="110" t="n">
+      <c r="G77" s="110">
         <f t="shared" si="111"/>
-        <v>34.32636302874057</v>
-      </c>
-      <c r="H77" s="110" t="n">
+        <v>34.326363028740573</v>
+      </c>
+      <c r="H77" s="110">
         <f t="shared" si="111"/>
-        <v>35.29070329882945</v>
-      </c>
-      <c r="I77" s="110" t="n">
+        <v>35.290703298829449</v>
+      </c>
+      <c r="I77" s="110">
         <f t="shared" si="111"/>
-        <v>61.56326439848788</v>
-      </c>
-      <c r="J77" s="110" t="n">
+        <v>61.563264398487881</v>
+      </c>
+      <c r="J77" s="110">
         <f t="shared" si="111"/>
         <v>55.967216795778604</v>
       </c>
-      <c r="K77" s="110" t="n">
+      <c r="K77" s="110">
         <f t="shared" si="111"/>
-        <v>60.60737999346903</v>
-      </c>
-      <c r="L77" s="110" t="n">
+        <v>60.607379993469031</v>
+      </c>
+      <c r="L77" s="110">
         <f t="shared" si="111"/>
-        <v>58.02145053626341</v>
-      </c>
-      <c r="M77" s="110" t="n">
+        <v>58.021450536263409</v>
+      </c>
+      <c r="M77" s="110">
         <f t="shared" si="111"/>
-        <v>59.74480345750155</v>
+        <v>59.744803457501547</v>
       </c>
     </row>
     <row r="78" spans="2:13">
       <c r="B78" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D78" s="40" t="n">
+      <c r="C78" s="110">
+        <v>0</v>
+      </c>
+      <c r="D78" s="40">
         <v>13.489999771118164</v>
       </c>
-      <c r="E78" s="40" t="n">
+      <c r="E78" s="40">
         <v>18.299999237060547</v>
       </c>
-      <c r="F78" s="40" t="n">
+      <c r="F78" s="40">
         <v>20.600000381469727</v>
       </c>
-      <c r="G78" s="40" t="n">
+      <c r="G78" s="40">
         <v>25.600000381469727</v>
       </c>
-      <c r="H78" s="40" t="n">
+      <c r="H78" s="40">
         <v>25.940000534057617</v>
       </c>
-      <c r="I78" s="40" t="n">
+      <c r="I78" s="40">
         <v>39.619998931884766</v>
       </c>
-      <c r="J78" s="40" t="n">
-        <v>35.59000015258789</v>
-      </c>
-      <c r="K78" s="40" t="n">
-        <v>36.9900016784668</v>
-      </c>
-      <c r="L78" s="40" t="n">
+      <c r="J78" s="40">
+        <v>35.590000152587891</v>
+      </c>
+      <c r="K78" s="40">
+        <v>36.990001678466797</v>
+      </c>
+      <c r="L78" s="40">
         <v>41.900001525878906</v>
       </c>
-      <c r="M78" s="40" t="n">
+      <c r="M78" s="40">
         <v>39.439998626708984</v>
       </c>
     </row>
@@ -25297,75 +25287,75 @@
       <c r="B81" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D81" s="40" t="n">
+      <c r="C81" s="110">
+        <v>0</v>
+      </c>
+      <c r="D81" s="40">
         <v>25.979999542236328</v>
       </c>
-      <c r="E81" s="40" t="n">
+      <c r="E81" s="40">
         <v>23.549999237060547</v>
       </c>
-      <c r="F81" s="40" t="n">
+      <c r="F81" s="40">
         <v>19.719999313354492</v>
       </c>
-      <c r="G81" s="40" t="n">
+      <c r="G81" s="40">
         <v>23.239999771118164</v>
       </c>
-      <c r="H81" s="40" t="n">
+      <c r="H81" s="40">
         <v>24.399999618530273</v>
       </c>
-      <c r="I81" s="40" t="n">
+      <c r="I81" s="40">
         <v>20.239999771118164</v>
       </c>
-      <c r="J81" s="40" t="n">
+      <c r="J81" s="40">
         <v>23.799999237060547</v>
       </c>
-      <c r="K81" s="40" t="n">
+      <c r="K81" s="40">
         <v>31.030000686645508</v>
       </c>
-      <c r="L81" s="40" t="n">
+      <c r="L81" s="40">
         <v>24.190000534057617</v>
       </c>
-      <c r="M81" s="40" t="n">
-        <v>17.31999969482422</v>
+      <c r="M81" s="40">
+        <v>17.319999694824219</v>
       </c>
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D82" s="40" t="n">
+      <c r="C82" s="110">
+        <v>0</v>
+      </c>
+      <c r="D82" s="40">
         <v>15.029999732971191</v>
       </c>
-      <c r="E82" s="40" t="n">
+      <c r="E82" s="40">
         <v>15.25</v>
       </c>
-      <c r="F82" s="40" t="n">
+      <c r="F82" s="40">
         <v>14.039999961853027</v>
       </c>
-      <c r="G82" s="40" t="n">
-        <v>16.68000030517578</v>
-      </c>
-      <c r="H82" s="40" t="n">
+      <c r="G82" s="40">
+        <v>16.680000305175781</v>
+      </c>
+      <c r="H82" s="40">
         <v>21.989999771118164</v>
       </c>
-      <c r="I82" s="40" t="n">
+      <c r="I82" s="40">
         <v>13.539999961853027</v>
       </c>
-      <c r="J82" s="40" t="n">
+      <c r="J82" s="40">
         <v>17.440000534057617</v>
       </c>
-      <c r="K82" s="40" t="n">
-        <v>26.65999984741211</v>
-      </c>
-      <c r="L82" s="40" t="n">
-        <v>20.68000030517578</v>
-      </c>
-      <c r="M82" s="40" t="n">
+      <c r="K82" s="40">
+        <v>26.659999847412109</v>
+      </c>
+      <c r="L82" s="40">
+        <v>20.680000305175781</v>
+      </c>
+      <c r="M82" s="40">
         <v>17.020000457763672</v>
       </c>
     </row>
@@ -25373,8 +25363,8 @@
       <c r="B83" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="110" t="n">
-        <v>2.990000009536743</v>
+      <c r="C83" s="110">
+        <v>2.9900000095367432</v>
       </c>
     </row>
   </sheetData>
